--- a/Översikt ASKERSUND.xlsx
+++ b/Översikt ASKERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>43769</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44574</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45132</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44950</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43902</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>44579</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44859</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43697</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>44375</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>44474</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44812</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44942</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43530</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>43556</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43773</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>43773</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43902</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43908</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44088</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>44088</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44194</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44463</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44463</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>44587</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44649</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44993</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45038</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>45107</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43467</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43521</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43539</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43608</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43691</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43691</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>43886</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43928</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43928</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>44020</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>44035</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44067</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>44200</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>44416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44452</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44461</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>44518</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44587</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44757</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44859</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>44993</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45030</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>45104</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>45106</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>45111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>45115</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43318</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43343</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43346</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43355</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43355</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43362</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43385</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43385</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43398</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>43398</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43404</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43409</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>43411</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43416</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43420</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>43423</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>43423</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43432</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43434</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43441</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43441</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43455</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>43455</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>43470</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43471</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43471</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43471</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43473</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43474</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43475</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43476</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43480</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43483</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43486</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43509</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43516</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43523</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>43523</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>43528</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43529</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43529</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43530</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43532</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43535</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43536</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43536</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43539</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43542</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43543</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43545</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43552</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43552</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43556</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43558</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43558</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43588</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43592</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43594</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43598</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>43655</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43655</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>43655</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>43672</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>43676</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43682</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>43684</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>43684</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>43691</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>43691</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>43693</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>43697</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>43698</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>43700</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>43706</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43706</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43706</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43706</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43706</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43706</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>43706</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>43706</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>43706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>43712</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>43724</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43730</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>43731</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>43733</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43735</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>43739</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>43741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>43746</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>43748</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>43749</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>43755</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>43755</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43755</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43756</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43756</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>43759</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>43763</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>43768</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>43773</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>43773</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>43774</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>43775</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43780</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43780</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>43784</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>43787</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43787</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43790</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43790</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43794</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43801</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43801</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43803</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13910,7 +13910,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>43811</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>43839</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>43840</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>43843</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>43844</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>43852</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>43852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>43861</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43862</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43880</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43885</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43901</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43901</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43906</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43908</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43908</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>43922</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>43924</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>43927</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>43928</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>43928</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>43928</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>43928</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>43928</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>43934</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>43936</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>43936</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>43938</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>43938</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>43941</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>43945</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>43955</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>43958</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>43963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>43963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>43963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>43969</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>43970</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>43971</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>43976</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>43983</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>43983</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>43983</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43987</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>43987</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>43987</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>43992</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>43997</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44004</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44005</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44005</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44005</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>44008</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44014</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44018</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44018</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44032</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44039</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44039</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44046</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44057</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>44058</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>44060</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44060</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>44060</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44060</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44062</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44064</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>44070</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>44071</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>44075</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>44075</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>44077</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>44077</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18531,7 +18531,7 @@
         <v>44084</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
         <v>44084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44084</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>44084</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>44088</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>44088</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         <v>44092</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18935,7 +18935,7 @@
         <v>44095</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18992,7 +18992,7 @@
         <v>44097</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19049,7 +19049,7 @@
         <v>44097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44102</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
         <v>44102</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19220,7 +19220,7 @@
         <v>44104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         <v>44105</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>44113</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>44118</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>44120</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
         <v>44120</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19562,7 +19562,7 @@
         <v>44125</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>44127</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44132</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19748,7 +19748,7 @@
         <v>44136</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>44139</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>44139</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44139</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44145</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>44151</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20095,7 +20095,7 @@
         <v>44151</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>44151</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>44153</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44153</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>44162</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>44167</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20494,7 +20494,7 @@
         <v>44172</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44172</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20608,7 +20608,7 @@
         <v>44174</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
         <v>44186</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20722,7 +20722,7 @@
         <v>44186</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20779,7 +20779,7 @@
         <v>44187</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         <v>44194</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44200</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
         <v>44204</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>44208</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>44209</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21121,7 +21121,7 @@
         <v>44211</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         <v>44228</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>44229</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21292,7 +21292,7 @@
         <v>44230</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>44232</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21406,7 +21406,7 @@
         <v>44237</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>44237</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>44244</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21577,7 +21577,7 @@
         <v>44244</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21634,7 +21634,7 @@
         <v>44244</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         <v>44250</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21748,7 +21748,7 @@
         <v>44256</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21805,7 +21805,7 @@
         <v>44273</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21862,7 +21862,7 @@
         <v>44279</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21919,7 +21919,7 @@
         <v>44285</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44300</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44300</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22090,7 +22090,7 @@
         <v>44315</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22147,7 +22147,7 @@
         <v>44334</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22204,7 +22204,7 @@
         <v>44343</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>44344</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22318,7 +22318,7 @@
         <v>44358</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22375,7 +22375,7 @@
         <v>44368</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22432,7 +22432,7 @@
         <v>44385</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
         <v>44386</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         <v>44389</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22603,7 +22603,7 @@
         <v>44391</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22665,7 +22665,7 @@
         <v>44391</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22722,7 +22722,7 @@
         <v>44397</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22779,7 +22779,7 @@
         <v>44397</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22836,7 +22836,7 @@
         <v>44398</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22893,7 +22893,7 @@
         <v>44407</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22950,7 +22950,7 @@
         <v>44412</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23007,7 +23007,7 @@
         <v>44413</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>44413</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>44419</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44420</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44422</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>44422</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>44422</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>44424</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>44424</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>44426</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23602,7 +23602,7 @@
         <v>44430</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23659,7 +23659,7 @@
         <v>44430</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         <v>44430</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23773,7 +23773,7 @@
         <v>44430</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23830,7 +23830,7 @@
         <v>44431</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23887,7 +23887,7 @@
         <v>44434</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23944,7 +23944,7 @@
         <v>44435</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24001,7 +24001,7 @@
         <v>44438</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24058,7 +24058,7 @@
         <v>44438</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24115,7 +24115,7 @@
         <v>44438</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24172,7 +24172,7 @@
         <v>44438</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24229,7 +24229,7 @@
         <v>44442</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>44445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>44446</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44446</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>44447</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>44448</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>44449</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>44449</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>44449</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>44452</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24799,7 +24799,7 @@
         <v>44456</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24856,7 +24856,7 @@
         <v>44458</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24913,7 +24913,7 @@
         <v>44459</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24970,7 +24970,7 @@
         <v>44463</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>44467</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25089,7 +25089,7 @@
         <v>44467</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44474</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44474</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>44480</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25332,7 +25332,7 @@
         <v>44480</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         <v>44486</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>44487</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25503,7 +25503,7 @@
         <v>44487</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25560,7 +25560,7 @@
         <v>44487</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25617,7 +25617,7 @@
         <v>44487</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25674,7 +25674,7 @@
         <v>44487</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25731,7 +25731,7 @@
         <v>44487</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>44488</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>44491</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>44494</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>44495</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44497</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>44497</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>44497</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>44501</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>44503</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>44508</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>44508</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>44509</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>44509</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>44509</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44511</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>44512</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26710,7 +26710,7 @@
         <v>44514</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>44517</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>44518</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>44518</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>44522</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>44523</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>44529</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>44539</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27176,7 +27176,7 @@
         <v>44558</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27233,7 +27233,7 @@
         <v>44572</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         <v>44573</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27347,7 +27347,7 @@
         <v>44573</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27404,7 +27404,7 @@
         <v>44578</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27461,7 +27461,7 @@
         <v>44592</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27518,7 +27518,7 @@
         <v>44593</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27580,7 +27580,7 @@
         <v>44595</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27637,7 +27637,7 @@
         <v>44595</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27694,7 +27694,7 @@
         <v>44606</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27756,7 +27756,7 @@
         <v>44607</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27813,7 +27813,7 @@
         <v>44607</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27870,7 +27870,7 @@
         <v>44607</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27927,7 +27927,7 @@
         <v>44608</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27984,7 +27984,7 @@
         <v>44608</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>44608</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>44609</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28155,7 +28155,7 @@
         <v>44610</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28212,7 +28212,7 @@
         <v>44615</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         <v>44615</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28326,7 +28326,7 @@
         <v>44629</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28383,7 +28383,7 @@
         <v>44629</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>44631</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28497,7 +28497,7 @@
         <v>44637</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28554,7 +28554,7 @@
         <v>44637</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28611,7 +28611,7 @@
         <v>44637</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28668,7 +28668,7 @@
         <v>44637</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28725,7 +28725,7 @@
         <v>44638</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28782,7 +28782,7 @@
         <v>44641</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28844,7 +28844,7 @@
         <v>44641</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44641</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>44641</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29030,7 +29030,7 @@
         <v>44641</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29092,7 +29092,7 @@
         <v>44642</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29149,7 +29149,7 @@
         <v>44645</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29206,7 +29206,7 @@
         <v>44648</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29263,7 +29263,7 @@
         <v>44650</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29320,7 +29320,7 @@
         <v>44650</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29377,7 +29377,7 @@
         <v>44662</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>44662</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>44697</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44698</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44714</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>44714</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29719,7 +29719,7 @@
         <v>44721</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29776,7 +29776,7 @@
         <v>44723</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29833,7 +29833,7 @@
         <v>44729</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29890,7 +29890,7 @@
         <v>44733</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29952,7 +29952,7 @@
         <v>44733</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30009,7 +30009,7 @@
         <v>44733</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         <v>44734</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30123,7 +30123,7 @@
         <v>44734</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30180,7 +30180,7 @@
         <v>44734</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30237,7 +30237,7 @@
         <v>44739</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30294,7 +30294,7 @@
         <v>44753</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30356,7 +30356,7 @@
         <v>44753</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>44753</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30480,7 +30480,7 @@
         <v>44755</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30542,7 +30542,7 @@
         <v>44764</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30599,7 +30599,7 @@
         <v>44767</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30656,7 +30656,7 @@
         <v>44781</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30713,7 +30713,7 @@
         <v>44781</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30770,7 +30770,7 @@
         <v>44781</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30827,7 +30827,7 @@
         <v>44783</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30884,7 +30884,7 @@
         <v>44790</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30941,7 +30941,7 @@
         <v>44791</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30998,7 +30998,7 @@
         <v>44791</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31055,7 +31055,7 @@
         <v>44796</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31112,7 +31112,7 @@
         <v>44798</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31169,7 +31169,7 @@
         <v>44798</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31226,7 +31226,7 @@
         <v>44798</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31283,7 +31283,7 @@
         <v>44798</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31340,7 +31340,7 @@
         <v>44799</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31397,7 +31397,7 @@
         <v>44799</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31454,7 +31454,7 @@
         <v>44808</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31511,7 +31511,7 @@
         <v>44809</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31568,7 +31568,7 @@
         <v>44812</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31625,7 +31625,7 @@
         <v>44818</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>44828</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>44831</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44831</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>44834</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31920,7 +31920,7 @@
         <v>44844</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>44844</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44850</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44853</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44855</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44864</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44866</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44874</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>44874</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44928</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44929</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32557,7 +32557,7 @@
         <v>44929</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>44929</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32681,7 +32681,7 @@
         <v>44930</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32738,7 +32738,7 @@
         <v>44942</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32795,7 +32795,7 @@
         <v>44950</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32852,7 +32852,7 @@
         <v>44950</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>44957</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32966,7 +32966,7 @@
         <v>44959</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33023,7 +33023,7 @@
         <v>44959</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33080,7 +33080,7 @@
         <v>44964</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33137,7 +33137,7 @@
         <v>44966</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33194,7 +33194,7 @@
         <v>44971</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33251,7 +33251,7 @@
         <v>44993</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33308,7 +33308,7 @@
         <v>44993</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33365,7 +33365,7 @@
         <v>44995</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         <v>44995</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33489,7 +33489,7 @@
         <v>45000</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33546,7 +33546,7 @@
         <v>45002</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>45006</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>45013</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>45022</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>45028</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33841,7 +33841,7 @@
         <v>45030</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33898,7 +33898,7 @@
         <v>45030</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33960,7 +33960,7 @@
         <v>45030</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>45030</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34084,7 +34084,7 @@
         <v>45035</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34141,7 +34141,7 @@
         <v>45038</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34203,7 +34203,7 @@
         <v>45038</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>45052</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>45056</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>45058</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>45058</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>45072</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34550,7 +34550,7 @@
         <v>45073</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34612,7 +34612,7 @@
         <v>45078</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34669,7 +34669,7 @@
         <v>45089</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34726,7 +34726,7 @@
         <v>45092</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>45104</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34840,7 +34840,7 @@
         <v>45104</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34897,7 +34897,7 @@
         <v>45104</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34954,7 +34954,7 @@
         <v>45104</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         <v>45107</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>45111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35130,7 +35130,7 @@
         <v>45111</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35192,7 +35192,7 @@
         <v>45115</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35254,7 +35254,7 @@
         <v>45115</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35316,7 +35316,7 @@
         <v>45115</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35378,7 +35378,7 @@
         <v>45115</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35440,7 +35440,7 @@
         <v>45115</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>45115</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35564,7 +35564,7 @@
         <v>45119</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35621,7 +35621,7 @@
         <v>45140</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35678,7 +35678,7 @@
         <v>45141</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35735,7 +35735,7 @@
         <v>45141</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35792,7 +35792,7 @@
         <v>45162</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35849,7 +35849,7 @@
         <v>45162</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>45162</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>

--- a/Översikt ASKERSUND.xlsx
+++ b/Översikt ASKERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>43769</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44574</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45132</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44950</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43902</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>44579</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44859</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43697</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>44375</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>44474</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44812</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44942</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43530</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>43556</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43773</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>43773</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43902</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43908</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44088</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>44088</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44194</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44463</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44463</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>44587</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44649</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44993</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45038</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>45107</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43467</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43521</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43539</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43608</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43691</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43691</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>43886</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43928</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43928</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>44020</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>44035</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44067</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>44200</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>44416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44452</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44461</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>44518</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44587</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44757</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44859</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>44993</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45030</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>45104</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>45106</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>45111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>45115</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43318</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43343</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43346</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43355</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43355</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43362</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43385</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43385</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43398</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>43398</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43404</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43409</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>43411</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43416</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43420</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>43423</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>43423</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43432</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43434</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43441</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43441</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43455</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>43455</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>43470</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43471</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43471</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43471</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43473</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43474</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43475</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43476</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43480</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43483</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43486</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43509</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43516</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43523</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>43523</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>43528</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43529</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43529</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43530</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43532</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43535</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43536</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43536</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43539</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43542</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43543</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43545</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43552</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43552</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43556</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43558</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43558</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43588</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43592</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43594</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43598</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>43655</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43655</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>43655</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>43672</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>43676</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43682</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>43684</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>43684</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>43691</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>43691</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>43693</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>43697</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>43698</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>43700</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>43706</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43706</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43706</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43706</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43706</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43706</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>43706</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>43706</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>43706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>43712</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>43724</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43730</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>43731</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>43733</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43735</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>43739</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>43741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>43746</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>43748</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>43749</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>43755</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>43755</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43755</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43756</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43756</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>43759</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>43763</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>43768</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>43773</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>43773</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>43774</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>43775</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43780</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43780</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>43784</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>43787</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43787</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43790</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43790</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43794</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43801</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43801</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43803</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13910,7 +13910,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>43811</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>43839</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>43840</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>43843</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>43844</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>43852</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>43852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>43861</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43862</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43880</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43885</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43901</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43901</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43906</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43908</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43908</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>43922</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>43924</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>43927</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>43928</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>43928</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>43928</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>43928</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>43928</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>43934</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>43936</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>43936</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>43938</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>43938</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>43941</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>43945</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>43955</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>43958</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>43963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>43963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>43963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>43969</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>43970</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>43971</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>43976</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>43983</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>43983</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>43983</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43987</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>43987</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>43987</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>43992</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>43997</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44004</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44005</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44005</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44005</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>44008</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44014</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44018</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44018</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44032</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44039</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44039</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44046</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44057</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>44058</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>44060</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44060</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>44060</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44060</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44062</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44064</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>44070</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>44071</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>44075</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>44075</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>44077</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>44077</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18531,7 +18531,7 @@
         <v>44084</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
         <v>44084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44084</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>44084</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>44088</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>44088</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         <v>44092</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18935,7 +18935,7 @@
         <v>44095</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18992,7 +18992,7 @@
         <v>44097</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19049,7 +19049,7 @@
         <v>44097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44102</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
         <v>44102</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19220,7 +19220,7 @@
         <v>44104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         <v>44105</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>44113</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>44118</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>44120</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
         <v>44120</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19562,7 +19562,7 @@
         <v>44125</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>44127</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44132</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19748,7 +19748,7 @@
         <v>44136</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>44139</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>44139</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44139</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44145</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>44151</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20095,7 +20095,7 @@
         <v>44151</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>44151</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>44153</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44153</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>44162</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>44167</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20494,7 +20494,7 @@
         <v>44172</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44172</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20608,7 +20608,7 @@
         <v>44174</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
         <v>44186</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20722,7 +20722,7 @@
         <v>44186</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20779,7 +20779,7 @@
         <v>44187</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         <v>44194</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44200</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
         <v>44204</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>44208</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>44209</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21121,7 +21121,7 @@
         <v>44211</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         <v>44228</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>44229</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21292,7 +21292,7 @@
         <v>44230</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>44232</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21406,7 +21406,7 @@
         <v>44237</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>44237</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>44244</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21577,7 +21577,7 @@
         <v>44244</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21634,7 +21634,7 @@
         <v>44244</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         <v>44250</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21748,7 +21748,7 @@
         <v>44256</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21805,7 +21805,7 @@
         <v>44273</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21862,7 +21862,7 @@
         <v>44279</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21919,7 +21919,7 @@
         <v>44285</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44300</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44300</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22090,7 +22090,7 @@
         <v>44315</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22147,7 +22147,7 @@
         <v>44334</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22204,7 +22204,7 @@
         <v>44343</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>44344</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22318,7 +22318,7 @@
         <v>44358</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22375,7 +22375,7 @@
         <v>44368</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22432,7 +22432,7 @@
         <v>44385</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
         <v>44386</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         <v>44389</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22603,7 +22603,7 @@
         <v>44391</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22665,7 +22665,7 @@
         <v>44391</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22722,7 +22722,7 @@
         <v>44397</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22779,7 +22779,7 @@
         <v>44397</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22836,7 +22836,7 @@
         <v>44398</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22893,7 +22893,7 @@
         <v>44407</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22950,7 +22950,7 @@
         <v>44412</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23007,7 +23007,7 @@
         <v>44413</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>44413</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>44419</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44420</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44422</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>44422</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>44422</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>44424</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>44424</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>44426</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23602,7 +23602,7 @@
         <v>44430</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23659,7 +23659,7 @@
         <v>44430</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         <v>44430</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23773,7 +23773,7 @@
         <v>44430</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23830,7 +23830,7 @@
         <v>44431</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23887,7 +23887,7 @@
         <v>44434</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23944,7 +23944,7 @@
         <v>44435</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24001,7 +24001,7 @@
         <v>44438</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24058,7 +24058,7 @@
         <v>44438</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24115,7 +24115,7 @@
         <v>44438</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24172,7 +24172,7 @@
         <v>44438</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24229,7 +24229,7 @@
         <v>44442</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>44445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>44446</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44446</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>44447</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>44448</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>44449</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>44449</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>44449</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>44452</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24799,7 +24799,7 @@
         <v>44456</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24856,7 +24856,7 @@
         <v>44458</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24913,7 +24913,7 @@
         <v>44459</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24970,7 +24970,7 @@
         <v>44463</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>44467</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25089,7 +25089,7 @@
         <v>44467</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44474</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44474</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>44480</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25332,7 +25332,7 @@
         <v>44480</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         <v>44486</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>44487</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25503,7 +25503,7 @@
         <v>44487</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25560,7 +25560,7 @@
         <v>44487</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25617,7 +25617,7 @@
         <v>44487</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25674,7 +25674,7 @@
         <v>44487</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25731,7 +25731,7 @@
         <v>44487</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>44488</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>44491</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>44494</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>44495</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44497</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>44497</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>44497</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>44501</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>44503</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>44508</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>44508</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>44509</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>44509</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>44509</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44511</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>44512</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26710,7 +26710,7 @@
         <v>44514</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>44517</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>44518</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>44518</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>44522</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>44523</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>44529</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>44539</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27176,7 +27176,7 @@
         <v>44558</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27233,7 +27233,7 @@
         <v>44572</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         <v>44573</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27347,7 +27347,7 @@
         <v>44573</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27404,7 +27404,7 @@
         <v>44578</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27461,7 +27461,7 @@
         <v>44592</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27518,7 +27518,7 @@
         <v>44593</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27580,7 +27580,7 @@
         <v>44595</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27637,7 +27637,7 @@
         <v>44595</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27694,7 +27694,7 @@
         <v>44606</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27756,7 +27756,7 @@
         <v>44607</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27813,7 +27813,7 @@
         <v>44607</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27870,7 +27870,7 @@
         <v>44607</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27927,7 +27927,7 @@
         <v>44608</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27984,7 +27984,7 @@
         <v>44608</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>44608</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>44609</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28155,7 +28155,7 @@
         <v>44610</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28212,7 +28212,7 @@
         <v>44615</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         <v>44615</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28326,7 +28326,7 @@
         <v>44629</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28383,7 +28383,7 @@
         <v>44629</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>44631</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28497,7 +28497,7 @@
         <v>44637</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28554,7 +28554,7 @@
         <v>44637</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28611,7 +28611,7 @@
         <v>44637</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28668,7 +28668,7 @@
         <v>44637</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28725,7 +28725,7 @@
         <v>44638</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28782,7 +28782,7 @@
         <v>44641</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28844,7 +28844,7 @@
         <v>44641</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44641</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>44641</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29030,7 +29030,7 @@
         <v>44641</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29092,7 +29092,7 @@
         <v>44642</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29149,7 +29149,7 @@
         <v>44645</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29206,7 +29206,7 @@
         <v>44648</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29263,7 +29263,7 @@
         <v>44650</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29320,7 +29320,7 @@
         <v>44650</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29377,7 +29377,7 @@
         <v>44662</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>44662</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>44697</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44698</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44714</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>44714</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29719,7 +29719,7 @@
         <v>44721</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29776,7 +29776,7 @@
         <v>44723</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29833,7 +29833,7 @@
         <v>44729</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29890,7 +29890,7 @@
         <v>44733</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29952,7 +29952,7 @@
         <v>44733</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30009,7 +30009,7 @@
         <v>44733</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         <v>44734</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30123,7 +30123,7 @@
         <v>44734</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30180,7 +30180,7 @@
         <v>44734</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30237,7 +30237,7 @@
         <v>44739</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30294,7 +30294,7 @@
         <v>44753</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30356,7 +30356,7 @@
         <v>44753</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>44753</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30480,7 +30480,7 @@
         <v>44755</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30542,7 +30542,7 @@
         <v>44764</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30599,7 +30599,7 @@
         <v>44767</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30656,7 +30656,7 @@
         <v>44781</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30713,7 +30713,7 @@
         <v>44781</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30770,7 +30770,7 @@
         <v>44781</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30827,7 +30827,7 @@
         <v>44783</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30884,7 +30884,7 @@
         <v>44790</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30941,7 +30941,7 @@
         <v>44791</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30998,7 +30998,7 @@
         <v>44791</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31055,7 +31055,7 @@
         <v>44796</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31112,7 +31112,7 @@
         <v>44798</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31169,7 +31169,7 @@
         <v>44798</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31226,7 +31226,7 @@
         <v>44798</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31283,7 +31283,7 @@
         <v>44798</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31340,7 +31340,7 @@
         <v>44799</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31397,7 +31397,7 @@
         <v>44799</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31454,7 +31454,7 @@
         <v>44808</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31511,7 +31511,7 @@
         <v>44809</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31568,7 +31568,7 @@
         <v>44812</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31625,7 +31625,7 @@
         <v>44818</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>44828</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>44831</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44831</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>44834</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31920,7 +31920,7 @@
         <v>44844</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>44844</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44850</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44853</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44855</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44864</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44866</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44874</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>44874</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44928</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44929</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32557,7 +32557,7 @@
         <v>44929</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>44929</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32681,7 +32681,7 @@
         <v>44930</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32738,7 +32738,7 @@
         <v>44942</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32795,7 +32795,7 @@
         <v>44950</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32852,7 +32852,7 @@
         <v>44950</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>44957</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32966,7 +32966,7 @@
         <v>44959</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33023,7 +33023,7 @@
         <v>44959</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33080,7 +33080,7 @@
         <v>44964</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33137,7 +33137,7 @@
         <v>44966</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33194,7 +33194,7 @@
         <v>44971</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33251,7 +33251,7 @@
         <v>44993</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33308,7 +33308,7 @@
         <v>44993</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33365,7 +33365,7 @@
         <v>44995</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         <v>44995</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33489,7 +33489,7 @@
         <v>45000</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33546,7 +33546,7 @@
         <v>45002</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>45006</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>45013</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>45022</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>45028</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33841,7 +33841,7 @@
         <v>45030</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33898,7 +33898,7 @@
         <v>45030</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33960,7 +33960,7 @@
         <v>45030</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>45030</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34084,7 +34084,7 @@
         <v>45035</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34141,7 +34141,7 @@
         <v>45038</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34203,7 +34203,7 @@
         <v>45038</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>45052</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>45056</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>45058</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>45058</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>45072</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34550,7 +34550,7 @@
         <v>45073</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34612,7 +34612,7 @@
         <v>45078</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34669,7 +34669,7 @@
         <v>45089</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34726,7 +34726,7 @@
         <v>45092</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>45104</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34840,7 +34840,7 @@
         <v>45104</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34897,7 +34897,7 @@
         <v>45104</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34954,7 +34954,7 @@
         <v>45104</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         <v>45107</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>45111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35130,7 +35130,7 @@
         <v>45111</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35192,7 +35192,7 @@
         <v>45115</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35254,7 +35254,7 @@
         <v>45115</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35316,7 +35316,7 @@
         <v>45115</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35378,7 +35378,7 @@
         <v>45115</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35440,7 +35440,7 @@
         <v>45115</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>45115</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35564,7 +35564,7 @@
         <v>45119</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35621,7 +35621,7 @@
         <v>45140</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35678,7 +35678,7 @@
         <v>45141</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35735,7 +35735,7 @@
         <v>45141</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35792,7 +35792,7 @@
         <v>45162</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35849,7 +35849,7 @@
         <v>45162</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>45162</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>

--- a/Översikt ASKERSUND.xlsx
+++ b/Översikt ASKERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>43769</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44574</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45132</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44950</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43902</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>44579</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44859</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43697</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>44375</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>44474</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44812</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44942</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43530</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>43556</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43773</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>43773</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43902</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43908</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44088</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>44088</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44194</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44463</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44463</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>44587</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44649</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44993</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45038</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>45107</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43467</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43521</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43539</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43608</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43691</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43691</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>43886</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43928</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43928</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>44020</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>44035</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44067</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>44200</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>44416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44452</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44461</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>44518</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44587</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44757</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44859</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>44993</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45030</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>45104</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>45106</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>45111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>45115</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43318</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43343</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43346</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43355</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43355</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43362</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43385</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43385</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43398</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>43398</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43404</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43409</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>43411</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43416</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43420</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>43423</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>43423</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43432</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43434</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43441</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43441</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43455</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>43455</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>43470</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43471</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43471</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43471</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43473</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43474</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43475</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43476</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43480</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43483</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43486</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43509</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43516</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43523</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>43523</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>43528</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43529</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43529</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43530</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43532</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43535</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43536</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43536</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43539</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43542</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43543</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43545</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43552</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43552</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43556</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43558</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43558</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43588</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43592</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43594</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43598</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>43655</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43655</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>43655</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>43672</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>43676</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43682</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>43684</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>43684</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>43691</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>43691</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>43693</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>43697</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>43698</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>43700</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>43706</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43706</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43706</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43706</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43706</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43706</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>43706</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>43706</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>43706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>43712</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>43724</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43730</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>43731</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>43733</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43735</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>43739</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>43741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>43746</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>43748</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>43749</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>43755</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>43755</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43755</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43756</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43756</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>43759</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>43763</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>43768</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>43773</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>43773</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>43774</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>43775</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43780</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43780</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>43784</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>43787</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43787</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43790</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43790</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43794</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43801</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43801</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43803</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13910,7 +13910,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>43811</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>43839</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>43840</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>43843</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>43844</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>43852</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>43852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>43861</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43862</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43880</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43885</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43901</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43901</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43906</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43908</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43908</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>43922</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>43924</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>43927</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>43928</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>43928</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>43928</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>43928</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>43928</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>43934</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>43936</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>43936</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>43938</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>43938</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>43941</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>43945</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>43955</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>43958</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>43963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>43963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>43963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>43969</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>43970</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>43971</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>43976</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>43983</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>43983</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>43983</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43987</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>43987</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>43987</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>43992</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>43997</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44004</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44005</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44005</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44005</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>44008</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44014</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44018</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44018</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44032</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44039</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44039</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44046</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44057</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>44058</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>44060</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44060</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>44060</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44060</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44062</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44064</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>44070</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>44071</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>44075</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>44075</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>44077</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>44077</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18531,7 +18531,7 @@
         <v>44084</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
         <v>44084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44084</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>44084</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>44088</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>44088</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         <v>44092</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18935,7 +18935,7 @@
         <v>44095</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18992,7 +18992,7 @@
         <v>44097</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19049,7 +19049,7 @@
         <v>44097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44102</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
         <v>44102</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19220,7 +19220,7 @@
         <v>44104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         <v>44105</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>44113</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>44118</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>44120</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
         <v>44120</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19562,7 +19562,7 @@
         <v>44125</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>44127</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44132</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19748,7 +19748,7 @@
         <v>44136</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>44139</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>44139</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44139</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44145</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>44151</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20095,7 +20095,7 @@
         <v>44151</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>44151</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>44153</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44153</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>44162</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>44167</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20494,7 +20494,7 @@
         <v>44172</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44172</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20608,7 +20608,7 @@
         <v>44174</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
         <v>44186</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20722,7 +20722,7 @@
         <v>44186</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20779,7 +20779,7 @@
         <v>44187</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         <v>44194</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44200</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
         <v>44204</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>44208</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>44209</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21121,7 +21121,7 @@
         <v>44211</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         <v>44228</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>44229</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21292,7 +21292,7 @@
         <v>44230</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>44232</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21406,7 +21406,7 @@
         <v>44237</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>44237</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>44244</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21577,7 +21577,7 @@
         <v>44244</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21634,7 +21634,7 @@
         <v>44244</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         <v>44250</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21748,7 +21748,7 @@
         <v>44256</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21805,7 +21805,7 @@
         <v>44273</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21862,7 +21862,7 @@
         <v>44279</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21919,7 +21919,7 @@
         <v>44285</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44300</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44300</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22090,7 +22090,7 @@
         <v>44315</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22147,7 +22147,7 @@
         <v>44334</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22204,7 +22204,7 @@
         <v>44343</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>44344</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22318,7 +22318,7 @@
         <v>44358</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22375,7 +22375,7 @@
         <v>44368</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22432,7 +22432,7 @@
         <v>44385</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
         <v>44386</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         <v>44389</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22603,7 +22603,7 @@
         <v>44391</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22665,7 +22665,7 @@
         <v>44391</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22722,7 +22722,7 @@
         <v>44397</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22779,7 +22779,7 @@
         <v>44397</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22836,7 +22836,7 @@
         <v>44398</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22893,7 +22893,7 @@
         <v>44407</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22950,7 +22950,7 @@
         <v>44412</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23007,7 +23007,7 @@
         <v>44413</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>44413</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>44419</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44420</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44422</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>44422</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>44422</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>44424</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>44424</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>44426</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23602,7 +23602,7 @@
         <v>44430</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23659,7 +23659,7 @@
         <v>44430</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         <v>44430</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23773,7 +23773,7 @@
         <v>44430</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23830,7 +23830,7 @@
         <v>44431</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23887,7 +23887,7 @@
         <v>44434</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23944,7 +23944,7 @@
         <v>44435</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24001,7 +24001,7 @@
         <v>44438</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24058,7 +24058,7 @@
         <v>44438</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24115,7 +24115,7 @@
         <v>44438</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24172,7 +24172,7 @@
         <v>44438</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24229,7 +24229,7 @@
         <v>44442</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>44445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>44446</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44446</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>44447</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>44448</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>44449</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>44449</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>44449</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>44452</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24799,7 +24799,7 @@
         <v>44456</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24856,7 +24856,7 @@
         <v>44458</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24913,7 +24913,7 @@
         <v>44459</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24970,7 +24970,7 @@
         <v>44463</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>44467</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25089,7 +25089,7 @@
         <v>44467</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44474</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44474</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>44480</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25332,7 +25332,7 @@
         <v>44480</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         <v>44486</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>44487</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25503,7 +25503,7 @@
         <v>44487</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25560,7 +25560,7 @@
         <v>44487</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25617,7 +25617,7 @@
         <v>44487</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25674,7 +25674,7 @@
         <v>44487</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25731,7 +25731,7 @@
         <v>44487</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>44488</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>44491</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>44494</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>44495</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44497</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>44497</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>44497</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>44501</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>44503</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>44508</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>44508</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>44509</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>44509</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>44509</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44511</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>44512</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26710,7 +26710,7 @@
         <v>44514</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>44517</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>44518</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>44518</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>44522</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>44523</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>44529</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>44539</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27176,7 +27176,7 @@
         <v>44558</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27233,7 +27233,7 @@
         <v>44572</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         <v>44573</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27347,7 +27347,7 @@
         <v>44573</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27404,7 +27404,7 @@
         <v>44578</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27461,7 +27461,7 @@
         <v>44592</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27518,7 +27518,7 @@
         <v>44593</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27580,7 +27580,7 @@
         <v>44595</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27637,7 +27637,7 @@
         <v>44595</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27694,7 +27694,7 @@
         <v>44606</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27756,7 +27756,7 @@
         <v>44607</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27813,7 +27813,7 @@
         <v>44607</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27870,7 +27870,7 @@
         <v>44607</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27927,7 +27927,7 @@
         <v>44608</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27984,7 +27984,7 @@
         <v>44608</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>44608</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>44609</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28155,7 +28155,7 @@
         <v>44610</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28212,7 +28212,7 @@
         <v>44615</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         <v>44615</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28326,7 +28326,7 @@
         <v>44629</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28383,7 +28383,7 @@
         <v>44629</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>44631</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28497,7 +28497,7 @@
         <v>44637</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28554,7 +28554,7 @@
         <v>44637</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28611,7 +28611,7 @@
         <v>44637</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28668,7 +28668,7 @@
         <v>44637</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28725,7 +28725,7 @@
         <v>44638</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28782,7 +28782,7 @@
         <v>44641</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28844,7 +28844,7 @@
         <v>44641</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44641</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>44641</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29030,7 +29030,7 @@
         <v>44641</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29092,7 +29092,7 @@
         <v>44642</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29149,7 +29149,7 @@
         <v>44645</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29206,7 +29206,7 @@
         <v>44648</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29263,7 +29263,7 @@
         <v>44650</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29320,7 +29320,7 @@
         <v>44650</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29377,7 +29377,7 @@
         <v>44662</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>44662</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>44697</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44698</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44714</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>44714</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29719,7 +29719,7 @@
         <v>44721</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29776,7 +29776,7 @@
         <v>44723</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29833,7 +29833,7 @@
         <v>44729</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29890,7 +29890,7 @@
         <v>44733</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29952,7 +29952,7 @@
         <v>44733</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30009,7 +30009,7 @@
         <v>44733</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         <v>44734</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30123,7 +30123,7 @@
         <v>44734</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30180,7 +30180,7 @@
         <v>44734</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30237,7 +30237,7 @@
         <v>44739</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30294,7 +30294,7 @@
         <v>44753</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30356,7 +30356,7 @@
         <v>44753</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>44753</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30480,7 +30480,7 @@
         <v>44755</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30542,7 +30542,7 @@
         <v>44764</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30599,7 +30599,7 @@
         <v>44767</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30656,7 +30656,7 @@
         <v>44781</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30713,7 +30713,7 @@
         <v>44781</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30770,7 +30770,7 @@
         <v>44781</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30827,7 +30827,7 @@
         <v>44783</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30884,7 +30884,7 @@
         <v>44790</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30941,7 +30941,7 @@
         <v>44791</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30998,7 +30998,7 @@
         <v>44791</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31055,7 +31055,7 @@
         <v>44796</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31112,7 +31112,7 @@
         <v>44798</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31169,7 +31169,7 @@
         <v>44798</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31226,7 +31226,7 @@
         <v>44798</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31283,7 +31283,7 @@
         <v>44798</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31340,7 +31340,7 @@
         <v>44799</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31397,7 +31397,7 @@
         <v>44799</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31454,7 +31454,7 @@
         <v>44808</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31511,7 +31511,7 @@
         <v>44809</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31568,7 +31568,7 @@
         <v>44812</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31625,7 +31625,7 @@
         <v>44818</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>44828</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>44831</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44831</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>44834</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31920,7 +31920,7 @@
         <v>44844</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>44844</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44850</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44853</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44855</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44864</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44866</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44874</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>44874</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44928</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44929</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32557,7 +32557,7 @@
         <v>44929</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>44929</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32681,7 +32681,7 @@
         <v>44930</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32738,7 +32738,7 @@
         <v>44942</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32795,7 +32795,7 @@
         <v>44950</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32852,7 +32852,7 @@
         <v>44950</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>44957</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32966,7 +32966,7 @@
         <v>44959</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33023,7 +33023,7 @@
         <v>44959</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33080,7 +33080,7 @@
         <v>44964</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33137,7 +33137,7 @@
         <v>44966</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33194,7 +33194,7 @@
         <v>44971</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33251,7 +33251,7 @@
         <v>44993</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33308,7 +33308,7 @@
         <v>44993</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33365,7 +33365,7 @@
         <v>44995</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         <v>44995</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33489,7 +33489,7 @@
         <v>45000</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33546,7 +33546,7 @@
         <v>45002</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>45006</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>45013</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>45022</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>45028</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33841,7 +33841,7 @@
         <v>45030</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33898,7 +33898,7 @@
         <v>45030</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33960,7 +33960,7 @@
         <v>45030</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>45030</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34084,7 +34084,7 @@
         <v>45035</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34141,7 +34141,7 @@
         <v>45038</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34203,7 +34203,7 @@
         <v>45038</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>45052</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>45056</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>45058</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>45058</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>45072</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34550,7 +34550,7 @@
         <v>45073</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34612,7 +34612,7 @@
         <v>45078</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34669,7 +34669,7 @@
         <v>45089</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34726,7 +34726,7 @@
         <v>45092</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>45104</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34840,7 +34840,7 @@
         <v>45104</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34897,7 +34897,7 @@
         <v>45104</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34954,7 +34954,7 @@
         <v>45104</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         <v>45107</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>45111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35130,7 +35130,7 @@
         <v>45111</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35192,7 +35192,7 @@
         <v>45115</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35254,7 +35254,7 @@
         <v>45115</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35316,7 +35316,7 @@
         <v>45115</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35378,7 +35378,7 @@
         <v>45115</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35440,7 +35440,7 @@
         <v>45115</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>45115</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35564,7 +35564,7 @@
         <v>45119</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35621,7 +35621,7 @@
         <v>45140</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35678,7 +35678,7 @@
         <v>45141</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35735,7 +35735,7 @@
         <v>45141</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35792,7 +35792,7 @@
         <v>45162</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35849,7 +35849,7 @@
         <v>45162</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>45162</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>

--- a/Översikt ASKERSUND.xlsx
+++ b/Översikt ASKERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>43769</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44574</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45132</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44950</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43902</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>44579</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44859</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43697</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>44375</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>44474</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44812</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44942</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43530</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>43556</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43773</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>43773</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43902</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43908</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44088</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>44088</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44194</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44463</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44463</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>44587</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44649</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44993</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45038</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>45107</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43467</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43521</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43539</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43608</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43691</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43691</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>43886</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43928</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43928</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>44020</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>44035</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44067</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>44200</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>44416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44452</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44461</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>44518</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44587</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44757</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44859</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>44993</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45030</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>45104</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>45106</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>45111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>45115</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43318</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43343</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43346</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43355</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43355</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43362</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43385</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43385</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43398</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>43398</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43404</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43409</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>43411</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43416</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43420</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>43423</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>43423</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43432</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43434</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43441</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43441</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43455</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>43455</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>43470</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43471</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43471</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43471</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43473</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43474</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43475</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43476</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43480</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43483</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43486</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43509</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43516</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43523</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>43523</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>43528</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43529</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43529</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43530</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43532</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43535</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43536</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43536</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43539</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43542</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43543</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43545</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43552</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43552</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43556</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43558</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43558</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43588</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43592</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43594</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43598</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>43655</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43655</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>43655</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>43672</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>43676</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43682</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>43684</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>43684</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>43691</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>43691</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>43693</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>43697</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>43698</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>43700</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>43706</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43706</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43706</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43706</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43706</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43706</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>43706</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>43706</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>43706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>43712</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>43724</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43730</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>43731</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>43733</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43735</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>43739</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>43741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>43746</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>43748</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>43749</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>43755</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>43755</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43755</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43756</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43756</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>43759</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>43763</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>43768</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>43773</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>43773</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>43774</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>43775</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43780</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43780</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>43784</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>43787</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43787</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43790</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43790</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43794</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43801</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43801</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43803</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13910,7 +13910,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>43811</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>43839</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>43840</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>43843</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>43844</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>43852</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>43852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>43861</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43862</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43880</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43885</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43901</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43901</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43906</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43908</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43908</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>43922</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>43924</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>43927</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>43928</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>43928</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>43928</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>43928</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>43928</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>43934</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>43936</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>43936</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>43938</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>43938</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>43941</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>43945</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>43955</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>43958</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>43963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>43963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>43963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>43969</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>43970</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>43971</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>43976</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>43983</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>43983</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>43983</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43987</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>43987</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>43987</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>43992</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>43997</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44004</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44005</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44005</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44005</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>44008</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44014</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44018</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44018</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44032</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44039</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44039</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44046</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44057</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>44058</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>44060</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44060</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>44060</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44060</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44062</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44064</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>44070</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>44071</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>44075</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>44075</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>44077</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>44077</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18531,7 +18531,7 @@
         <v>44084</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
         <v>44084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44084</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>44084</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>44088</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>44088</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         <v>44092</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18935,7 +18935,7 @@
         <v>44095</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18992,7 +18992,7 @@
         <v>44097</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19049,7 +19049,7 @@
         <v>44097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44102</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
         <v>44102</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19220,7 +19220,7 @@
         <v>44104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         <v>44105</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>44113</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>44118</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>44120</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
         <v>44120</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19562,7 +19562,7 @@
         <v>44125</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>44127</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44132</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19748,7 +19748,7 @@
         <v>44136</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>44139</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>44139</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44139</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44145</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>44151</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20095,7 +20095,7 @@
         <v>44151</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>44151</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>44153</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44153</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>44162</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>44167</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20494,7 +20494,7 @@
         <v>44172</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44172</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20608,7 +20608,7 @@
         <v>44174</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
         <v>44186</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20722,7 +20722,7 @@
         <v>44186</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20779,7 +20779,7 @@
         <v>44187</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         <v>44194</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44200</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
         <v>44204</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>44208</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>44209</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21121,7 +21121,7 @@
         <v>44211</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         <v>44228</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>44229</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21292,7 +21292,7 @@
         <v>44230</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>44232</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21406,7 +21406,7 @@
         <v>44237</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>44237</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>44244</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21577,7 +21577,7 @@
         <v>44244</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21634,7 +21634,7 @@
         <v>44244</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         <v>44250</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21748,7 +21748,7 @@
         <v>44256</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21805,7 +21805,7 @@
         <v>44273</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21862,7 +21862,7 @@
         <v>44279</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21919,7 +21919,7 @@
         <v>44285</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44300</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44300</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22090,7 +22090,7 @@
         <v>44315</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22147,7 +22147,7 @@
         <v>44334</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22204,7 +22204,7 @@
         <v>44343</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>44344</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22318,7 +22318,7 @@
         <v>44358</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22375,7 +22375,7 @@
         <v>44368</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22432,7 +22432,7 @@
         <v>44385</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
         <v>44386</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         <v>44389</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22603,7 +22603,7 @@
         <v>44391</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22665,7 +22665,7 @@
         <v>44391</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22722,7 +22722,7 @@
         <v>44397</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22779,7 +22779,7 @@
         <v>44397</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22836,7 +22836,7 @@
         <v>44398</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22893,7 +22893,7 @@
         <v>44407</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22950,7 +22950,7 @@
         <v>44412</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23007,7 +23007,7 @@
         <v>44413</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>44413</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>44419</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44420</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44422</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>44422</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>44422</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>44424</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>44424</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>44426</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23602,7 +23602,7 @@
         <v>44430</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23659,7 +23659,7 @@
         <v>44430</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         <v>44430</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23773,7 +23773,7 @@
         <v>44430</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23830,7 +23830,7 @@
         <v>44431</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23887,7 +23887,7 @@
         <v>44434</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23944,7 +23944,7 @@
         <v>44435</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24001,7 +24001,7 @@
         <v>44438</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24058,7 +24058,7 @@
         <v>44438</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24115,7 +24115,7 @@
         <v>44438</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24172,7 +24172,7 @@
         <v>44438</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24229,7 +24229,7 @@
         <v>44442</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>44445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>44446</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44446</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>44447</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>44448</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>44449</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>44449</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>44449</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>44452</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24799,7 +24799,7 @@
         <v>44456</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24856,7 +24856,7 @@
         <v>44458</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24913,7 +24913,7 @@
         <v>44459</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24970,7 +24970,7 @@
         <v>44463</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>44467</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25089,7 +25089,7 @@
         <v>44467</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44474</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44474</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>44480</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25332,7 +25332,7 @@
         <v>44480</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         <v>44486</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>44487</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25503,7 +25503,7 @@
         <v>44487</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25560,7 +25560,7 @@
         <v>44487</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25617,7 +25617,7 @@
         <v>44487</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25674,7 +25674,7 @@
         <v>44487</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25731,7 +25731,7 @@
         <v>44487</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>44488</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>44491</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>44494</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>44495</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44497</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>44497</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>44497</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>44501</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>44503</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>44508</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>44508</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>44509</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>44509</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>44509</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44511</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>44512</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26710,7 +26710,7 @@
         <v>44514</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>44517</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>44518</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>44518</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>44522</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>44523</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>44529</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>44539</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27176,7 +27176,7 @@
         <v>44558</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27233,7 +27233,7 @@
         <v>44572</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         <v>44573</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27347,7 +27347,7 @@
         <v>44573</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27404,7 +27404,7 @@
         <v>44578</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27461,7 +27461,7 @@
         <v>44592</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27518,7 +27518,7 @@
         <v>44593</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27580,7 +27580,7 @@
         <v>44595</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27637,7 +27637,7 @@
         <v>44595</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27694,7 +27694,7 @@
         <v>44606</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27756,7 +27756,7 @@
         <v>44607</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27813,7 +27813,7 @@
         <v>44607</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27870,7 +27870,7 @@
         <v>44607</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27927,7 +27927,7 @@
         <v>44608</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27984,7 +27984,7 @@
         <v>44608</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>44608</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>44609</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28155,7 +28155,7 @@
         <v>44610</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28212,7 +28212,7 @@
         <v>44615</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         <v>44615</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28326,7 +28326,7 @@
         <v>44629</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28383,7 +28383,7 @@
         <v>44629</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>44631</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28497,7 +28497,7 @@
         <v>44637</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28554,7 +28554,7 @@
         <v>44637</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28611,7 +28611,7 @@
         <v>44637</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28668,7 +28668,7 @@
         <v>44637</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28725,7 +28725,7 @@
         <v>44638</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28782,7 +28782,7 @@
         <v>44641</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28844,7 +28844,7 @@
         <v>44641</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44641</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>44641</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29030,7 +29030,7 @@
         <v>44641</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29092,7 +29092,7 @@
         <v>44642</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29149,7 +29149,7 @@
         <v>44645</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29206,7 +29206,7 @@
         <v>44648</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29263,7 +29263,7 @@
         <v>44650</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29320,7 +29320,7 @@
         <v>44650</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29377,7 +29377,7 @@
         <v>44662</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>44662</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>44697</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44698</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44714</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>44714</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29719,7 +29719,7 @@
         <v>44721</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29776,7 +29776,7 @@
         <v>44723</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29833,7 +29833,7 @@
         <v>44729</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29890,7 +29890,7 @@
         <v>44733</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29952,7 +29952,7 @@
         <v>44733</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30009,7 +30009,7 @@
         <v>44733</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         <v>44734</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30123,7 +30123,7 @@
         <v>44734</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30180,7 +30180,7 @@
         <v>44734</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30237,7 +30237,7 @@
         <v>44739</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30294,7 +30294,7 @@
         <v>44753</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30356,7 +30356,7 @@
         <v>44753</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>44753</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30480,7 +30480,7 @@
         <v>44755</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30542,7 +30542,7 @@
         <v>44764</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30599,7 +30599,7 @@
         <v>44767</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30656,7 +30656,7 @@
         <v>44781</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30713,7 +30713,7 @@
         <v>44781</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30770,7 +30770,7 @@
         <v>44781</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30827,7 +30827,7 @@
         <v>44783</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30884,7 +30884,7 @@
         <v>44790</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30941,7 +30941,7 @@
         <v>44791</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30998,7 +30998,7 @@
         <v>44791</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31055,7 +31055,7 @@
         <v>44796</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31112,7 +31112,7 @@
         <v>44798</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31169,7 +31169,7 @@
         <v>44798</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31226,7 +31226,7 @@
         <v>44798</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31283,7 +31283,7 @@
         <v>44798</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31340,7 +31340,7 @@
         <v>44799</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31397,7 +31397,7 @@
         <v>44799</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31454,7 +31454,7 @@
         <v>44808</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31511,7 +31511,7 @@
         <v>44809</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31568,7 +31568,7 @@
         <v>44812</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31625,7 +31625,7 @@
         <v>44818</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>44828</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>44831</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44831</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>44834</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31920,7 +31920,7 @@
         <v>44844</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>44844</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44850</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44853</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44855</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44864</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44866</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44874</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>44874</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44928</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44929</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32557,7 +32557,7 @@
         <v>44929</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>44929</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32681,7 +32681,7 @@
         <v>44930</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32738,7 +32738,7 @@
         <v>44942</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32795,7 +32795,7 @@
         <v>44950</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32852,7 +32852,7 @@
         <v>44950</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>44957</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32966,7 +32966,7 @@
         <v>44959</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33023,7 +33023,7 @@
         <v>44959</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33080,7 +33080,7 @@
         <v>44964</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33137,7 +33137,7 @@
         <v>44966</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33194,7 +33194,7 @@
         <v>44971</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33251,7 +33251,7 @@
         <v>44993</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33308,7 +33308,7 @@
         <v>44993</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33365,7 +33365,7 @@
         <v>44995</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         <v>44995</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33489,7 +33489,7 @@
         <v>45000</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33546,7 +33546,7 @@
         <v>45002</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>45006</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>45013</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>45022</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>45028</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33841,7 +33841,7 @@
         <v>45030</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33898,7 +33898,7 @@
         <v>45030</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33960,7 +33960,7 @@
         <v>45030</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>45030</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34084,7 +34084,7 @@
         <v>45035</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34141,7 +34141,7 @@
         <v>45038</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34203,7 +34203,7 @@
         <v>45038</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>45052</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>45056</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>45058</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>45058</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>45072</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34550,7 +34550,7 @@
         <v>45073</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34612,7 +34612,7 @@
         <v>45078</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34669,7 +34669,7 @@
         <v>45089</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34726,7 +34726,7 @@
         <v>45092</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>45104</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34840,7 +34840,7 @@
         <v>45104</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34897,7 +34897,7 @@
         <v>45104</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34954,7 +34954,7 @@
         <v>45104</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         <v>45107</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>45111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35130,7 +35130,7 @@
         <v>45111</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35192,7 +35192,7 @@
         <v>45115</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35254,7 +35254,7 @@
         <v>45115</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35316,7 +35316,7 @@
         <v>45115</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35378,7 +35378,7 @@
         <v>45115</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35440,7 +35440,7 @@
         <v>45115</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>45115</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35564,7 +35564,7 @@
         <v>45119</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35621,7 +35621,7 @@
         <v>45140</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35678,7 +35678,7 @@
         <v>45141</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35735,7 +35735,7 @@
         <v>45141</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35792,7 +35792,7 @@
         <v>45162</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35849,7 +35849,7 @@
         <v>45162</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>45162</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>

--- a/Översikt ASKERSUND.xlsx
+++ b/Översikt ASKERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>43769</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44574</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45132</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44950</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43902</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>44579</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44859</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43697</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>44375</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>44474</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44812</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44942</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43530</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>43556</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43773</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>43773</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43902</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43908</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44088</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>44088</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44194</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44463</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44463</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>44587</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44649</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44993</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45038</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>45107</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43467</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43521</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43539</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43608</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43691</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43691</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>43886</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43928</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43928</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>44020</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>44035</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44067</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>44200</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>44416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44452</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44461</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>44518</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44587</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44757</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44859</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>44993</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45030</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>45104</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>45106</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>45111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>45115</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43318</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43343</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43346</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43355</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43355</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43362</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43385</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43385</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43398</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>43398</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43404</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43409</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>43411</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43416</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43420</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>43423</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>43423</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43432</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43434</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43441</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43441</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43455</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>43455</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>43470</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43471</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43471</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43471</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43473</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43474</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43475</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43476</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43480</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43483</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43486</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43509</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43516</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43523</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>43523</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>43528</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43529</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43529</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43530</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43532</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43535</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43536</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43536</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43539</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43542</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43543</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43545</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43552</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43552</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43556</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43558</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43558</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43588</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43592</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43594</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43598</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>43655</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43655</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>43655</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>43672</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>43676</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43682</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>43684</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>43684</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>43691</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>43691</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>43693</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>43697</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>43698</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>43700</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>43706</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43706</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43706</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43706</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43706</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43706</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>43706</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>43706</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>43706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>43712</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>43724</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43730</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>43731</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>43733</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43735</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>43739</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>43741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>43746</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>43748</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>43749</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>43755</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>43755</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43755</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43756</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43756</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>43759</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>43763</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>43768</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>43773</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>43773</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>43774</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>43775</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43780</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43780</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>43784</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>43787</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43787</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43790</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43790</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43794</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43801</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43801</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43803</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13910,7 +13910,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>43811</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>43839</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>43840</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>43843</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>43844</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>43852</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>43852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>43861</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43862</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43880</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43885</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43901</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43901</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43906</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43908</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43908</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>43922</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>43924</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>43927</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>43928</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>43928</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>43928</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>43928</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>43928</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>43934</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>43936</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>43936</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>43938</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>43938</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>43941</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>43945</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>43955</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>43958</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>43963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>43963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>43963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>43969</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>43970</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>43971</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>43976</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>43983</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>43983</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>43983</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43987</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>43987</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>43987</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>43992</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>43997</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44004</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44005</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44005</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44005</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>44008</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44014</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44018</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44018</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44032</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44039</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44039</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44046</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44057</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>44058</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>44060</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44060</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>44060</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44060</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44062</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44064</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>44070</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>44071</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>44075</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>44075</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>44077</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>44077</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18531,7 +18531,7 @@
         <v>44084</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
         <v>44084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44084</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>44084</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>44088</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>44088</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         <v>44092</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18935,7 +18935,7 @@
         <v>44095</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18992,7 +18992,7 @@
         <v>44097</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19049,7 +19049,7 @@
         <v>44097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44102</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
         <v>44102</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19220,7 +19220,7 @@
         <v>44104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         <v>44105</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>44113</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>44118</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>44120</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
         <v>44120</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19562,7 +19562,7 @@
         <v>44125</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>44127</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44132</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19748,7 +19748,7 @@
         <v>44136</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>44139</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>44139</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44139</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44145</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>44151</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20095,7 +20095,7 @@
         <v>44151</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>44151</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>44153</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44153</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>44162</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>44167</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20494,7 +20494,7 @@
         <v>44172</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44172</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20608,7 +20608,7 @@
         <v>44174</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
         <v>44186</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20722,7 +20722,7 @@
         <v>44186</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20779,7 +20779,7 @@
         <v>44187</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         <v>44194</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44200</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
         <v>44204</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>44208</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>44209</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21121,7 +21121,7 @@
         <v>44211</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         <v>44228</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>44229</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21292,7 +21292,7 @@
         <v>44230</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>44232</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21406,7 +21406,7 @@
         <v>44237</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>44237</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>44244</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21577,7 +21577,7 @@
         <v>44244</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21634,7 +21634,7 @@
         <v>44244</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         <v>44250</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21748,7 +21748,7 @@
         <v>44256</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21805,7 +21805,7 @@
         <v>44273</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21862,7 +21862,7 @@
         <v>44279</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21919,7 +21919,7 @@
         <v>44285</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44300</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44300</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22090,7 +22090,7 @@
         <v>44315</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22147,7 +22147,7 @@
         <v>44334</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22204,7 +22204,7 @@
         <v>44343</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>44344</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22318,7 +22318,7 @@
         <v>44358</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22375,7 +22375,7 @@
         <v>44368</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22432,7 +22432,7 @@
         <v>44385</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
         <v>44386</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         <v>44389</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22603,7 +22603,7 @@
         <v>44391</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22665,7 +22665,7 @@
         <v>44391</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22722,7 +22722,7 @@
         <v>44397</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22779,7 +22779,7 @@
         <v>44397</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22836,7 +22836,7 @@
         <v>44398</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22893,7 +22893,7 @@
         <v>44407</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22950,7 +22950,7 @@
         <v>44412</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23007,7 +23007,7 @@
         <v>44413</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>44413</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>44419</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44420</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44422</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>44422</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>44422</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>44424</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>44424</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>44426</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23602,7 +23602,7 @@
         <v>44430</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23659,7 +23659,7 @@
         <v>44430</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         <v>44430</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23773,7 +23773,7 @@
         <v>44430</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23830,7 +23830,7 @@
         <v>44431</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23887,7 +23887,7 @@
         <v>44434</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23944,7 +23944,7 @@
         <v>44435</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24001,7 +24001,7 @@
         <v>44438</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24058,7 +24058,7 @@
         <v>44438</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24115,7 +24115,7 @@
         <v>44438</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24172,7 +24172,7 @@
         <v>44438</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24229,7 +24229,7 @@
         <v>44442</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>44445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>44446</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44446</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>44447</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>44448</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>44449</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>44449</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>44449</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>44452</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24799,7 +24799,7 @@
         <v>44456</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24856,7 +24856,7 @@
         <v>44458</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24913,7 +24913,7 @@
         <v>44459</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24970,7 +24970,7 @@
         <v>44463</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>44467</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25089,7 +25089,7 @@
         <v>44467</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44474</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44474</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>44480</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25332,7 +25332,7 @@
         <v>44480</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         <v>44486</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>44487</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25503,7 +25503,7 @@
         <v>44487</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25560,7 +25560,7 @@
         <v>44487</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25617,7 +25617,7 @@
         <v>44487</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25674,7 +25674,7 @@
         <v>44487</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25731,7 +25731,7 @@
         <v>44487</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>44488</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>44491</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>44494</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>44495</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44497</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>44497</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>44497</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>44501</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>44503</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>44508</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>44508</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>44509</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>44509</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>44509</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44511</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>44512</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26710,7 +26710,7 @@
         <v>44514</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>44517</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>44518</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>44518</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>44522</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>44523</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>44529</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>44539</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27176,7 +27176,7 @@
         <v>44558</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27233,7 +27233,7 @@
         <v>44572</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         <v>44573</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27347,7 +27347,7 @@
         <v>44573</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27404,7 +27404,7 @@
         <v>44578</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27461,7 +27461,7 @@
         <v>44592</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27518,7 +27518,7 @@
         <v>44593</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27580,7 +27580,7 @@
         <v>44595</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27637,7 +27637,7 @@
         <v>44595</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27694,7 +27694,7 @@
         <v>44606</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27756,7 +27756,7 @@
         <v>44607</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27813,7 +27813,7 @@
         <v>44607</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27870,7 +27870,7 @@
         <v>44607</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27927,7 +27927,7 @@
         <v>44608</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27984,7 +27984,7 @@
         <v>44608</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>44608</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>44609</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28155,7 +28155,7 @@
         <v>44610</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28212,7 +28212,7 @@
         <v>44615</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         <v>44615</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28326,7 +28326,7 @@
         <v>44629</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28383,7 +28383,7 @@
         <v>44629</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>44631</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28497,7 +28497,7 @@
         <v>44637</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28554,7 +28554,7 @@
         <v>44637</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28611,7 +28611,7 @@
         <v>44637</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28668,7 +28668,7 @@
         <v>44637</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28725,7 +28725,7 @@
         <v>44638</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28782,7 +28782,7 @@
         <v>44641</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28844,7 +28844,7 @@
         <v>44641</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44641</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>44641</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29030,7 +29030,7 @@
         <v>44641</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29092,7 +29092,7 @@
         <v>44642</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29149,7 +29149,7 @@
         <v>44645</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29206,7 +29206,7 @@
         <v>44648</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29263,7 +29263,7 @@
         <v>44650</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29320,7 +29320,7 @@
         <v>44650</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29377,7 +29377,7 @@
         <v>44662</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>44662</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>44697</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44698</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44714</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>44714</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29719,7 +29719,7 @@
         <v>44721</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29776,7 +29776,7 @@
         <v>44723</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29833,7 +29833,7 @@
         <v>44729</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29890,7 +29890,7 @@
         <v>44733</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29952,7 +29952,7 @@
         <v>44733</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30009,7 +30009,7 @@
         <v>44733</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         <v>44734</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30123,7 +30123,7 @@
         <v>44734</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30180,7 +30180,7 @@
         <v>44734</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30237,7 +30237,7 @@
         <v>44739</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30294,7 +30294,7 @@
         <v>44753</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30356,7 +30356,7 @@
         <v>44753</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>44753</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30480,7 +30480,7 @@
         <v>44755</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30542,7 +30542,7 @@
         <v>44764</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30599,7 +30599,7 @@
         <v>44767</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30656,7 +30656,7 @@
         <v>44781</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30713,7 +30713,7 @@
         <v>44781</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30770,7 +30770,7 @@
         <v>44781</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30827,7 +30827,7 @@
         <v>44783</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30884,7 +30884,7 @@
         <v>44790</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30941,7 +30941,7 @@
         <v>44791</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30998,7 +30998,7 @@
         <v>44791</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31055,7 +31055,7 @@
         <v>44796</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31112,7 +31112,7 @@
         <v>44798</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31169,7 +31169,7 @@
         <v>44798</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31226,7 +31226,7 @@
         <v>44798</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31283,7 +31283,7 @@
         <v>44798</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31340,7 +31340,7 @@
         <v>44799</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31397,7 +31397,7 @@
         <v>44799</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31454,7 +31454,7 @@
         <v>44808</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31511,7 +31511,7 @@
         <v>44809</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31568,7 +31568,7 @@
         <v>44812</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31625,7 +31625,7 @@
         <v>44818</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>44828</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>44831</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44831</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>44834</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31920,7 +31920,7 @@
         <v>44844</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>44844</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44850</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44853</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44855</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44864</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44866</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44874</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>44874</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44928</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44929</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32557,7 +32557,7 @@
         <v>44929</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>44929</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32681,7 +32681,7 @@
         <v>44930</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32738,7 +32738,7 @@
         <v>44942</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32795,7 +32795,7 @@
         <v>44950</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32852,7 +32852,7 @@
         <v>44950</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>44957</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32966,7 +32966,7 @@
         <v>44959</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33023,7 +33023,7 @@
         <v>44959</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33080,7 +33080,7 @@
         <v>44964</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33137,7 +33137,7 @@
         <v>44966</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33194,7 +33194,7 @@
         <v>44971</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33251,7 +33251,7 @@
         <v>44993</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33308,7 +33308,7 @@
         <v>44993</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33365,7 +33365,7 @@
         <v>44995</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         <v>44995</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33489,7 +33489,7 @@
         <v>45000</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33546,7 +33546,7 @@
         <v>45002</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>45006</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>45013</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>45022</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>45028</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33841,7 +33841,7 @@
         <v>45030</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33898,7 +33898,7 @@
         <v>45030</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33960,7 +33960,7 @@
         <v>45030</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>45030</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34084,7 +34084,7 @@
         <v>45035</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34141,7 +34141,7 @@
         <v>45038</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34203,7 +34203,7 @@
         <v>45038</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>45052</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>45056</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>45058</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>45058</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>45072</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34550,7 +34550,7 @@
         <v>45073</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34612,7 +34612,7 @@
         <v>45078</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34669,7 +34669,7 @@
         <v>45089</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34726,7 +34726,7 @@
         <v>45092</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>45104</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34840,7 +34840,7 @@
         <v>45104</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34897,7 +34897,7 @@
         <v>45104</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34954,7 +34954,7 @@
         <v>45104</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         <v>45107</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>45111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35130,7 +35130,7 @@
         <v>45111</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35192,7 +35192,7 @@
         <v>45115</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35254,7 +35254,7 @@
         <v>45115</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35316,7 +35316,7 @@
         <v>45115</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35378,7 +35378,7 @@
         <v>45115</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35440,7 +35440,7 @@
         <v>45115</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>45115</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35564,7 +35564,7 @@
         <v>45119</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35621,7 +35621,7 @@
         <v>45140</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35678,7 +35678,7 @@
         <v>45141</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35735,7 +35735,7 @@
         <v>45141</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35792,7 +35792,7 @@
         <v>45162</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35849,7 +35849,7 @@
         <v>45162</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>45162</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>

--- a/Översikt ASKERSUND.xlsx
+++ b/Översikt ASKERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>43769</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44574</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45132</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44950</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43902</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>44579</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44859</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43697</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>44375</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>44474</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44812</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44942</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43530</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>43556</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43773</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>43773</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43902</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43908</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44088</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>44088</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44194</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44463</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44463</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>44587</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44649</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44993</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45038</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>45107</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43467</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43521</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43539</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43608</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43691</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43691</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>43886</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43928</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43928</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>44020</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>44035</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44067</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>44200</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>44416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44452</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44461</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>44518</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44587</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44757</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44859</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>44993</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45030</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>45104</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>45106</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>45111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>45115</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43318</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43343</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43346</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43355</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43355</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43362</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43385</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43385</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43398</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>43398</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43404</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43409</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>43411</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43416</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43420</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>43423</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>43423</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43432</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43434</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43441</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43441</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43455</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>43455</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>43470</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43471</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43471</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43471</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43473</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43474</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43475</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43476</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43480</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43483</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43486</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43509</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43516</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43523</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>43523</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>43528</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43529</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43529</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43530</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43532</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43535</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43536</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43536</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43539</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43542</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43543</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43545</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43552</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43552</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43556</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43558</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43558</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43588</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43592</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43594</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43598</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>43655</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43655</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>43655</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>43672</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>43676</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43682</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>43684</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>43684</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>43691</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>43691</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>43693</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>43697</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>43698</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>43700</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>43706</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43706</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43706</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43706</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43706</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43706</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>43706</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>43706</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>43706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>43712</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>43724</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43730</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>43731</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>43733</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43735</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>43739</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>43741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>43746</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>43748</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>43749</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>43755</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>43755</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43755</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43756</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43756</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>43759</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>43763</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>43768</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>43773</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>43773</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>43774</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>43775</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43780</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43780</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>43784</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>43787</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43787</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43790</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43790</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43794</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43801</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43801</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43803</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13910,7 +13910,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>43811</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>43839</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>43840</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>43843</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>43844</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>43852</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>43852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>43861</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43862</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43880</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43885</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43901</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43901</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43906</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43908</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43908</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>43922</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>43924</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>43927</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>43928</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>43928</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>43928</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>43928</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>43928</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>43934</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>43936</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>43936</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>43938</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>43938</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>43941</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>43945</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>43955</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>43958</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>43963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>43963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>43963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>43969</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>43970</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>43971</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>43976</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>43983</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>43983</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>43983</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43987</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>43987</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>43987</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>43992</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>43997</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44004</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44005</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44005</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44005</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>44008</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44014</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44018</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44018</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44032</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44039</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44039</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44046</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44057</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>44058</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>44060</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44060</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>44060</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44060</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44062</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44064</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>44070</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>44071</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>44075</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>44075</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>44077</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>44077</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18531,7 +18531,7 @@
         <v>44084</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
         <v>44084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44084</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>44084</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>44088</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>44088</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         <v>44092</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18935,7 +18935,7 @@
         <v>44095</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18992,7 +18992,7 @@
         <v>44097</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19049,7 +19049,7 @@
         <v>44097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44102</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
         <v>44102</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19220,7 +19220,7 @@
         <v>44104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         <v>44105</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>44113</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>44118</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>44120</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
         <v>44120</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19562,7 +19562,7 @@
         <v>44125</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>44127</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44132</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19748,7 +19748,7 @@
         <v>44136</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>44139</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>44139</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44139</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44145</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>44151</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20095,7 +20095,7 @@
         <v>44151</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>44151</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>44153</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44153</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>44162</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>44167</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20494,7 +20494,7 @@
         <v>44172</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44172</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20608,7 +20608,7 @@
         <v>44174</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
         <v>44186</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20722,7 +20722,7 @@
         <v>44186</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20779,7 +20779,7 @@
         <v>44187</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         <v>44194</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44200</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
         <v>44204</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>44208</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>44209</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21121,7 +21121,7 @@
         <v>44211</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         <v>44228</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>44229</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21292,7 +21292,7 @@
         <v>44230</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>44232</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21406,7 +21406,7 @@
         <v>44237</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>44237</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>44244</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21577,7 +21577,7 @@
         <v>44244</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21634,7 +21634,7 @@
         <v>44244</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         <v>44250</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21748,7 +21748,7 @@
         <v>44256</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21805,7 +21805,7 @@
         <v>44273</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21862,7 +21862,7 @@
         <v>44279</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21919,7 +21919,7 @@
         <v>44285</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44300</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44300</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22090,7 +22090,7 @@
         <v>44315</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22147,7 +22147,7 @@
         <v>44334</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22204,7 +22204,7 @@
         <v>44343</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>44344</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22318,7 +22318,7 @@
         <v>44358</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22375,7 +22375,7 @@
         <v>44368</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22432,7 +22432,7 @@
         <v>44385</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
         <v>44386</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         <v>44389</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22603,7 +22603,7 @@
         <v>44391</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22665,7 +22665,7 @@
         <v>44391</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22722,7 +22722,7 @@
         <v>44397</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22779,7 +22779,7 @@
         <v>44397</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22836,7 +22836,7 @@
         <v>44398</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22893,7 +22893,7 @@
         <v>44407</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22950,7 +22950,7 @@
         <v>44412</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23007,7 +23007,7 @@
         <v>44413</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>44413</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>44419</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44420</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44422</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>44422</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>44422</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>44424</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>44424</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>44426</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23602,7 +23602,7 @@
         <v>44430</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23659,7 +23659,7 @@
         <v>44430</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         <v>44430</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23773,7 +23773,7 @@
         <v>44430</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23830,7 +23830,7 @@
         <v>44431</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23887,7 +23887,7 @@
         <v>44434</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23944,7 +23944,7 @@
         <v>44435</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24001,7 +24001,7 @@
         <v>44438</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24058,7 +24058,7 @@
         <v>44438</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24115,7 +24115,7 @@
         <v>44438</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24172,7 +24172,7 @@
         <v>44438</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24229,7 +24229,7 @@
         <v>44442</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>44445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>44446</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44446</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>44447</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>44448</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>44449</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>44449</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>44449</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>44452</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24799,7 +24799,7 @@
         <v>44456</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24856,7 +24856,7 @@
         <v>44458</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24913,7 +24913,7 @@
         <v>44459</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24970,7 +24970,7 @@
         <v>44463</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>44467</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25089,7 +25089,7 @@
         <v>44467</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44474</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44474</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>44480</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25332,7 +25332,7 @@
         <v>44480</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         <v>44486</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>44487</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25503,7 +25503,7 @@
         <v>44487</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25560,7 +25560,7 @@
         <v>44487</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25617,7 +25617,7 @@
         <v>44487</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25674,7 +25674,7 @@
         <v>44487</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25731,7 +25731,7 @@
         <v>44487</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>44488</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>44491</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>44494</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>44495</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44497</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>44497</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>44497</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>44501</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>44503</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>44508</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>44508</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>44509</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>44509</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>44509</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44511</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>44512</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26710,7 +26710,7 @@
         <v>44514</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>44517</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>44518</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>44518</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>44522</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>44523</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>44529</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>44539</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27176,7 +27176,7 @@
         <v>44558</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27233,7 +27233,7 @@
         <v>44572</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         <v>44573</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27347,7 +27347,7 @@
         <v>44573</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27404,7 +27404,7 @@
         <v>44578</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27461,7 +27461,7 @@
         <v>44592</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27518,7 +27518,7 @@
         <v>44593</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27580,7 +27580,7 @@
         <v>44595</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27637,7 +27637,7 @@
         <v>44595</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27694,7 +27694,7 @@
         <v>44606</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27756,7 +27756,7 @@
         <v>44607</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27813,7 +27813,7 @@
         <v>44607</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27870,7 +27870,7 @@
         <v>44607</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27927,7 +27927,7 @@
         <v>44608</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27984,7 +27984,7 @@
         <v>44608</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>44608</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>44609</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28155,7 +28155,7 @@
         <v>44610</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28212,7 +28212,7 @@
         <v>44615</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         <v>44615</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28326,7 +28326,7 @@
         <v>44629</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28383,7 +28383,7 @@
         <v>44629</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>44631</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28497,7 +28497,7 @@
         <v>44637</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28554,7 +28554,7 @@
         <v>44637</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28611,7 +28611,7 @@
         <v>44637</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28668,7 +28668,7 @@
         <v>44637</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28725,7 +28725,7 @@
         <v>44638</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28782,7 +28782,7 @@
         <v>44641</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28844,7 +28844,7 @@
         <v>44641</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44641</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>44641</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29030,7 +29030,7 @@
         <v>44641</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29092,7 +29092,7 @@
         <v>44642</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29149,7 +29149,7 @@
         <v>44645</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29206,7 +29206,7 @@
         <v>44648</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29263,7 +29263,7 @@
         <v>44650</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29320,7 +29320,7 @@
         <v>44650</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29377,7 +29377,7 @@
         <v>44662</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>44662</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>44697</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44698</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44714</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>44714</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29719,7 +29719,7 @@
         <v>44721</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29776,7 +29776,7 @@
         <v>44723</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29833,7 +29833,7 @@
         <v>44729</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29890,7 +29890,7 @@
         <v>44733</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29952,7 +29952,7 @@
         <v>44733</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30009,7 +30009,7 @@
         <v>44733</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         <v>44734</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30123,7 +30123,7 @@
         <v>44734</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30180,7 +30180,7 @@
         <v>44734</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30237,7 +30237,7 @@
         <v>44739</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30294,7 +30294,7 @@
         <v>44753</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30356,7 +30356,7 @@
         <v>44753</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>44753</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30480,7 +30480,7 @@
         <v>44755</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30542,7 +30542,7 @@
         <v>44764</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30599,7 +30599,7 @@
         <v>44767</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30656,7 +30656,7 @@
         <v>44781</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30713,7 +30713,7 @@
         <v>44781</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30770,7 +30770,7 @@
         <v>44781</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30827,7 +30827,7 @@
         <v>44783</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30884,7 +30884,7 @@
         <v>44790</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30941,7 +30941,7 @@
         <v>44791</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30998,7 +30998,7 @@
         <v>44791</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31055,7 +31055,7 @@
         <v>44796</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31112,7 +31112,7 @@
         <v>44798</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31169,7 +31169,7 @@
         <v>44798</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31226,7 +31226,7 @@
         <v>44798</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31283,7 +31283,7 @@
         <v>44798</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31340,7 +31340,7 @@
         <v>44799</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31397,7 +31397,7 @@
         <v>44799</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31454,7 +31454,7 @@
         <v>44808</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31511,7 +31511,7 @@
         <v>44809</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31568,7 +31568,7 @@
         <v>44812</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31625,7 +31625,7 @@
         <v>44818</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>44828</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>44831</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44831</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>44834</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31920,7 +31920,7 @@
         <v>44844</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>44844</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44850</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44853</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44855</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44864</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44866</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44874</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>44874</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44928</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44929</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32557,7 +32557,7 @@
         <v>44929</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>44929</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32681,7 +32681,7 @@
         <v>44930</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32738,7 +32738,7 @@
         <v>44942</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32795,7 +32795,7 @@
         <v>44950</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32852,7 +32852,7 @@
         <v>44950</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>44957</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32966,7 +32966,7 @@
         <v>44959</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33023,7 +33023,7 @@
         <v>44959</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33080,7 +33080,7 @@
         <v>44964</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33137,7 +33137,7 @@
         <v>44966</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33194,7 +33194,7 @@
         <v>44971</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33251,7 +33251,7 @@
         <v>44993</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33308,7 +33308,7 @@
         <v>44993</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33365,7 +33365,7 @@
         <v>44995</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         <v>44995</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33489,7 +33489,7 @@
         <v>45000</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33546,7 +33546,7 @@
         <v>45002</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>45006</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>45013</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>45022</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>45028</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33841,7 +33841,7 @@
         <v>45030</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33898,7 +33898,7 @@
         <v>45030</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33960,7 +33960,7 @@
         <v>45030</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>45030</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34084,7 +34084,7 @@
         <v>45035</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34141,7 +34141,7 @@
         <v>45038</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34203,7 +34203,7 @@
         <v>45038</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>45052</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>45056</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>45058</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>45058</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>45072</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34550,7 +34550,7 @@
         <v>45073</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34612,7 +34612,7 @@
         <v>45078</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34669,7 +34669,7 @@
         <v>45089</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34726,7 +34726,7 @@
         <v>45092</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>45104</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34840,7 +34840,7 @@
         <v>45104</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34897,7 +34897,7 @@
         <v>45104</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34954,7 +34954,7 @@
         <v>45104</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         <v>45107</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>45111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35130,7 +35130,7 @@
         <v>45111</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35192,7 +35192,7 @@
         <v>45115</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35254,7 +35254,7 @@
         <v>45115</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35316,7 +35316,7 @@
         <v>45115</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35378,7 +35378,7 @@
         <v>45115</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35440,7 +35440,7 @@
         <v>45115</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>45115</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35564,7 +35564,7 @@
         <v>45119</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35621,7 +35621,7 @@
         <v>45140</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35678,7 +35678,7 @@
         <v>45141</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35735,7 +35735,7 @@
         <v>45141</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35792,7 +35792,7 @@
         <v>45162</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35849,7 +35849,7 @@
         <v>45162</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>45162</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>

--- a/Översikt ASKERSUND.xlsx
+++ b/Översikt ASKERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>43769</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44574</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45132</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44950</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43902</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>44579</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44859</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43697</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>44375</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>44474</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44812</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44942</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43530</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>43556</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43773</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>43773</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43902</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43908</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44088</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>44088</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44194</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44463</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44463</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>44587</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44649</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44993</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45038</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>45107</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43467</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43521</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43539</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43608</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43691</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43691</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>43886</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43928</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43928</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>44020</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>44035</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44067</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>44200</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>44416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44452</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44461</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>44518</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44587</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44757</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44859</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>44993</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45030</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>45104</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>45106</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>45111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>45115</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43318</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43343</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43346</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43355</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43355</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43362</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43385</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43385</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43398</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>43398</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43404</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43409</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>43411</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43416</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43420</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>43423</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>43423</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43432</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43434</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43441</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43441</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43455</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>43455</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>43470</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43471</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43471</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43471</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43473</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43474</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43475</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43476</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43480</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43483</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43486</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43509</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43516</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43523</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>43523</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>43528</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43529</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43529</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43530</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43532</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43535</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43536</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43536</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43539</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43542</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43543</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43545</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43552</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43552</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43556</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43558</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43558</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43588</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43592</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43594</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43598</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>43655</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43655</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>43655</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>43672</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>43676</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43682</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>43684</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>43684</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>43691</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>43691</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>43693</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>43697</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>43698</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>43700</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>43706</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43706</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43706</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43706</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43706</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43706</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>43706</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>43706</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>43706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>43712</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>43724</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43730</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>43731</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>43733</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43735</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>43739</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>43741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>43746</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>43748</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>43749</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>43755</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>43755</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43755</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43756</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43756</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>43759</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>43763</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>43768</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>43773</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>43773</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>43774</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>43775</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43780</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43780</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>43784</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>43787</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43787</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43790</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43790</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43794</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43801</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43801</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43803</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13910,7 +13910,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>43811</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>43839</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>43840</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>43843</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>43844</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>43852</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>43852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>43861</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43862</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43880</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43885</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43901</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43901</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43906</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43908</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43908</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>43922</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>43924</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>43927</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>43928</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>43928</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>43928</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>43928</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>43928</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>43934</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>43936</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>43936</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>43938</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>43938</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>43941</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>43945</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>43955</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>43958</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>43963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>43963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>43963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>43969</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>43970</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>43971</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>43976</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>43983</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>43983</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>43983</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43987</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>43987</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>43987</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>43992</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>43997</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44004</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44005</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44005</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44005</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>44008</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44014</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44018</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44018</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44032</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44039</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44039</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44046</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44057</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>44058</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>44060</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44060</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>44060</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44060</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44062</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44064</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>44070</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>44071</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>44075</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>44075</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>44077</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>44077</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18531,7 +18531,7 @@
         <v>44084</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
         <v>44084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44084</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>44084</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>44088</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>44088</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         <v>44092</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18935,7 +18935,7 @@
         <v>44095</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18992,7 +18992,7 @@
         <v>44097</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19049,7 +19049,7 @@
         <v>44097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44102</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
         <v>44102</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19220,7 +19220,7 @@
         <v>44104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         <v>44105</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>44113</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>44118</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>44120</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
         <v>44120</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19562,7 +19562,7 @@
         <v>44125</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>44127</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44132</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19748,7 +19748,7 @@
         <v>44136</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>44139</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>44139</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44139</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44145</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>44151</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20095,7 +20095,7 @@
         <v>44151</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>44151</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>44153</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44153</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>44162</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>44167</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20494,7 +20494,7 @@
         <v>44172</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44172</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20608,7 +20608,7 @@
         <v>44174</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
         <v>44186</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20722,7 +20722,7 @@
         <v>44186</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20779,7 +20779,7 @@
         <v>44187</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         <v>44194</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44200</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
         <v>44204</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>44208</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>44209</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21121,7 +21121,7 @@
         <v>44211</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         <v>44228</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>44229</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21292,7 +21292,7 @@
         <v>44230</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>44232</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21406,7 +21406,7 @@
         <v>44237</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>44237</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>44244</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21577,7 +21577,7 @@
         <v>44244</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21634,7 +21634,7 @@
         <v>44244</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         <v>44250</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21748,7 +21748,7 @@
         <v>44256</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21805,7 +21805,7 @@
         <v>44273</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21862,7 +21862,7 @@
         <v>44279</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21919,7 +21919,7 @@
         <v>44285</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44300</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44300</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22090,7 +22090,7 @@
         <v>44315</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22147,7 +22147,7 @@
         <v>44334</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22204,7 +22204,7 @@
         <v>44343</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>44344</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22318,7 +22318,7 @@
         <v>44358</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22375,7 +22375,7 @@
         <v>44368</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22432,7 +22432,7 @@
         <v>44385</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
         <v>44386</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         <v>44389</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22603,7 +22603,7 @@
         <v>44391</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22665,7 +22665,7 @@
         <v>44391</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22722,7 +22722,7 @@
         <v>44397</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22779,7 +22779,7 @@
         <v>44397</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22836,7 +22836,7 @@
         <v>44398</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22893,7 +22893,7 @@
         <v>44407</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22950,7 +22950,7 @@
         <v>44412</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23007,7 +23007,7 @@
         <v>44413</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>44413</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>44419</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44420</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44422</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>44422</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>44422</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>44424</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>44424</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>44426</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23602,7 +23602,7 @@
         <v>44430</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23659,7 +23659,7 @@
         <v>44430</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         <v>44430</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23773,7 +23773,7 @@
         <v>44430</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23830,7 +23830,7 @@
         <v>44431</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23887,7 +23887,7 @@
         <v>44434</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23944,7 +23944,7 @@
         <v>44435</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24001,7 +24001,7 @@
         <v>44438</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24058,7 +24058,7 @@
         <v>44438</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24115,7 +24115,7 @@
         <v>44438</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24172,7 +24172,7 @@
         <v>44438</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24229,7 +24229,7 @@
         <v>44442</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>44445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>44446</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44446</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>44447</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>44448</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>44449</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>44449</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>44449</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>44452</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24799,7 +24799,7 @@
         <v>44456</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24856,7 +24856,7 @@
         <v>44458</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24913,7 +24913,7 @@
         <v>44459</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24970,7 +24970,7 @@
         <v>44463</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>44467</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25089,7 +25089,7 @@
         <v>44467</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44474</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44474</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>44480</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25332,7 +25332,7 @@
         <v>44480</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         <v>44486</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>44487</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25503,7 +25503,7 @@
         <v>44487</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25560,7 +25560,7 @@
         <v>44487</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25617,7 +25617,7 @@
         <v>44487</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25674,7 +25674,7 @@
         <v>44487</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25731,7 +25731,7 @@
         <v>44487</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>44488</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>44491</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>44494</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>44495</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44497</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>44497</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>44497</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>44501</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>44503</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>44508</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>44508</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>44509</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>44509</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>44509</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44511</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>44512</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26710,7 +26710,7 @@
         <v>44514</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>44517</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>44518</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>44518</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>44522</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>44523</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>44529</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>44539</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27176,7 +27176,7 @@
         <v>44558</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27233,7 +27233,7 @@
         <v>44572</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         <v>44573</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27347,7 +27347,7 @@
         <v>44573</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27404,7 +27404,7 @@
         <v>44578</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27461,7 +27461,7 @@
         <v>44592</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27518,7 +27518,7 @@
         <v>44593</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27580,7 +27580,7 @@
         <v>44595</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27637,7 +27637,7 @@
         <v>44595</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27694,7 +27694,7 @@
         <v>44606</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27756,7 +27756,7 @@
         <v>44607</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27813,7 +27813,7 @@
         <v>44607</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27870,7 +27870,7 @@
         <v>44607</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27927,7 +27927,7 @@
         <v>44608</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27984,7 +27984,7 @@
         <v>44608</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>44608</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>44609</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28155,7 +28155,7 @@
         <v>44610</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28212,7 +28212,7 @@
         <v>44615</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         <v>44615</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28326,7 +28326,7 @@
         <v>44629</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28383,7 +28383,7 @@
         <v>44629</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>44631</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28497,7 +28497,7 @@
         <v>44637</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28554,7 +28554,7 @@
         <v>44637</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28611,7 +28611,7 @@
         <v>44637</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28668,7 +28668,7 @@
         <v>44637</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28725,7 +28725,7 @@
         <v>44638</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28782,7 +28782,7 @@
         <v>44641</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28844,7 +28844,7 @@
         <v>44641</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44641</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>44641</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29030,7 +29030,7 @@
         <v>44641</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29092,7 +29092,7 @@
         <v>44642</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29149,7 +29149,7 @@
         <v>44645</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29206,7 +29206,7 @@
         <v>44648</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29263,7 +29263,7 @@
         <v>44650</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29320,7 +29320,7 @@
         <v>44650</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29377,7 +29377,7 @@
         <v>44662</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>44662</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>44697</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44698</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44714</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>44714</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29719,7 +29719,7 @@
         <v>44721</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29776,7 +29776,7 @@
         <v>44723</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29833,7 +29833,7 @@
         <v>44729</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29890,7 +29890,7 @@
         <v>44733</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29952,7 +29952,7 @@
         <v>44733</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30009,7 +30009,7 @@
         <v>44733</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         <v>44734</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30123,7 +30123,7 @@
         <v>44734</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30180,7 +30180,7 @@
         <v>44734</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30237,7 +30237,7 @@
         <v>44739</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30294,7 +30294,7 @@
         <v>44753</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30356,7 +30356,7 @@
         <v>44753</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>44753</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30480,7 +30480,7 @@
         <v>44755</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30542,7 +30542,7 @@
         <v>44764</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30599,7 +30599,7 @@
         <v>44767</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30656,7 +30656,7 @@
         <v>44781</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30713,7 +30713,7 @@
         <v>44781</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30770,7 +30770,7 @@
         <v>44781</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30827,7 +30827,7 @@
         <v>44783</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30884,7 +30884,7 @@
         <v>44790</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30941,7 +30941,7 @@
         <v>44791</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30998,7 +30998,7 @@
         <v>44791</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31055,7 +31055,7 @@
         <v>44796</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31112,7 +31112,7 @@
         <v>44798</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31169,7 +31169,7 @@
         <v>44798</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31226,7 +31226,7 @@
         <v>44798</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31283,7 +31283,7 @@
         <v>44798</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31340,7 +31340,7 @@
         <v>44799</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31397,7 +31397,7 @@
         <v>44799</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31454,7 +31454,7 @@
         <v>44808</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31511,7 +31511,7 @@
         <v>44809</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31568,7 +31568,7 @@
         <v>44812</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31625,7 +31625,7 @@
         <v>44818</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>44828</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>44831</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44831</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>44834</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31920,7 +31920,7 @@
         <v>44844</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>44844</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44850</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44853</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44855</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44864</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44866</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44874</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>44874</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44928</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44929</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32557,7 +32557,7 @@
         <v>44929</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>44929</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32681,7 +32681,7 @@
         <v>44930</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32738,7 +32738,7 @@
         <v>44942</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32795,7 +32795,7 @@
         <v>44950</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32852,7 +32852,7 @@
         <v>44950</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>44957</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32966,7 +32966,7 @@
         <v>44959</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33023,7 +33023,7 @@
         <v>44959</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33080,7 +33080,7 @@
         <v>44964</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33137,7 +33137,7 @@
         <v>44966</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33194,7 +33194,7 @@
         <v>44971</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33251,7 +33251,7 @@
         <v>44993</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33308,7 +33308,7 @@
         <v>44993</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33365,7 +33365,7 @@
         <v>44995</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         <v>44995</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33489,7 +33489,7 @@
         <v>45000</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33546,7 +33546,7 @@
         <v>45002</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>45006</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>45013</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>45022</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>45028</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33841,7 +33841,7 @@
         <v>45030</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33898,7 +33898,7 @@
         <v>45030</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33960,7 +33960,7 @@
         <v>45030</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>45030</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34084,7 +34084,7 @@
         <v>45035</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34141,7 +34141,7 @@
         <v>45038</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34203,7 +34203,7 @@
         <v>45038</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>45052</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>45056</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>45058</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>45058</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>45072</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34550,7 +34550,7 @@
         <v>45073</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34612,7 +34612,7 @@
         <v>45078</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34669,7 +34669,7 @@
         <v>45089</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34726,7 +34726,7 @@
         <v>45092</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>45104</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34840,7 +34840,7 @@
         <v>45104</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34897,7 +34897,7 @@
         <v>45104</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34954,7 +34954,7 @@
         <v>45104</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         <v>45107</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>45111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35130,7 +35130,7 @@
         <v>45111</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35192,7 +35192,7 @@
         <v>45115</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35254,7 +35254,7 @@
         <v>45115</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35316,7 +35316,7 @@
         <v>45115</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35378,7 +35378,7 @@
         <v>45115</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35440,7 +35440,7 @@
         <v>45115</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>45115</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35564,7 +35564,7 @@
         <v>45119</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35621,7 +35621,7 @@
         <v>45140</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35678,7 +35678,7 @@
         <v>45141</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35735,7 +35735,7 @@
         <v>45141</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35792,7 +35792,7 @@
         <v>45162</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35849,7 +35849,7 @@
         <v>45162</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>45162</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>

--- a/Översikt ASKERSUND.xlsx
+++ b/Översikt ASKERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>43769</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44574</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45132</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44950</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43902</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>44579</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44859</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43697</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>44375</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>44474</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44812</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44942</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43530</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>43556</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43773</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>43773</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43902</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43908</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44088</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>44088</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44194</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44463</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44463</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>44587</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44649</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44993</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45038</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>45107</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43467</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43521</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43539</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43608</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43691</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43691</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>43886</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43928</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43928</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>44020</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>44035</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44067</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>44200</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>44416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44452</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44461</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>44518</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44587</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44757</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44859</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>44993</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45030</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>45104</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>45106</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>45111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>45115</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43318</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43343</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43346</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43355</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43355</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43362</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43385</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43385</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43398</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>43398</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43404</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43409</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>43411</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43416</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43420</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>43423</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>43423</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43432</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43434</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43441</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43441</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43455</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>43455</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>43470</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43471</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43471</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43471</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43473</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43474</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43475</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43476</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43480</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43483</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43486</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43509</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43516</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43523</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>43523</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>43528</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43529</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43529</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43530</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43532</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43535</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43536</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43536</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43539</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43542</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43543</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43545</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43552</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43552</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43556</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43558</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43558</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43588</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43592</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43594</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43598</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>43655</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43655</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>43655</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>43672</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>43676</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43682</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>43684</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>43684</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>43691</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>43691</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>43693</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>43697</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>43698</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>43700</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>43706</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43706</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43706</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43706</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43706</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43706</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>43706</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>43706</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>43706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>43712</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>43724</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43730</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>43731</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>43733</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43735</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>43739</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>43741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>43746</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>43748</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>43749</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>43755</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>43755</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43755</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43756</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43756</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>43759</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>43763</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>43768</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>43773</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>43773</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>43774</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>43775</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43780</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43780</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>43784</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>43787</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43787</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43790</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43790</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43794</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43801</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43801</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43803</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13910,7 +13910,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>43811</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>43839</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>43840</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>43843</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>43844</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>43852</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>43852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>43861</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43862</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43880</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43885</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43901</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43901</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43906</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43908</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43908</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>43922</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>43924</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>43927</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>43928</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>43928</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>43928</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>43928</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>43928</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>43934</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>43936</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>43936</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>43938</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>43938</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>43941</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>43945</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>43955</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>43958</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>43963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>43963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>43963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>43969</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>43970</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>43971</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>43976</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>43983</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>43983</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>43983</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43987</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>43987</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>43987</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>43992</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>43997</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44004</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44005</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44005</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44005</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>44008</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44014</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44018</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44018</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44032</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44039</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44039</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44046</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44057</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>44058</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>44060</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44060</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>44060</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44060</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44062</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44064</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>44070</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>44071</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>44075</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>44075</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>44077</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>44077</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18531,7 +18531,7 @@
         <v>44084</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
         <v>44084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44084</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>44084</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>44088</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>44088</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         <v>44092</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18935,7 +18935,7 @@
         <v>44095</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18992,7 +18992,7 @@
         <v>44097</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19049,7 +19049,7 @@
         <v>44097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44102</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
         <v>44102</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19220,7 +19220,7 @@
         <v>44104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         <v>44105</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>44113</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>44118</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>44120</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
         <v>44120</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19562,7 +19562,7 @@
         <v>44125</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>44127</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44132</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19748,7 +19748,7 @@
         <v>44136</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>44139</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>44139</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44139</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44145</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>44151</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20095,7 +20095,7 @@
         <v>44151</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>44151</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>44153</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44153</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>44162</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>44167</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20494,7 +20494,7 @@
         <v>44172</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44172</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20608,7 +20608,7 @@
         <v>44174</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
         <v>44186</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20722,7 +20722,7 @@
         <v>44186</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20779,7 +20779,7 @@
         <v>44187</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         <v>44194</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44200</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
         <v>44204</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>44208</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>44209</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21121,7 +21121,7 @@
         <v>44211</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         <v>44228</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>44229</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21292,7 +21292,7 @@
         <v>44230</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>44232</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21406,7 +21406,7 @@
         <v>44237</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>44237</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>44244</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21577,7 +21577,7 @@
         <v>44244</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21634,7 +21634,7 @@
         <v>44244</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         <v>44250</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21748,7 +21748,7 @@
         <v>44256</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21805,7 +21805,7 @@
         <v>44273</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21862,7 +21862,7 @@
         <v>44279</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21919,7 +21919,7 @@
         <v>44285</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44300</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44300</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22090,7 +22090,7 @@
         <v>44315</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22147,7 +22147,7 @@
         <v>44334</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22204,7 +22204,7 @@
         <v>44343</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>44344</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22318,7 +22318,7 @@
         <v>44358</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22375,7 +22375,7 @@
         <v>44368</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22432,7 +22432,7 @@
         <v>44385</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
         <v>44386</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         <v>44389</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22603,7 +22603,7 @@
         <v>44391</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22665,7 +22665,7 @@
         <v>44391</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22722,7 +22722,7 @@
         <v>44397</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22779,7 +22779,7 @@
         <v>44397</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22836,7 +22836,7 @@
         <v>44398</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22893,7 +22893,7 @@
         <v>44407</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22950,7 +22950,7 @@
         <v>44412</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23007,7 +23007,7 @@
         <v>44413</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>44413</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>44419</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44420</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44422</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>44422</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>44422</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>44424</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>44424</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>44426</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23602,7 +23602,7 @@
         <v>44430</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23659,7 +23659,7 @@
         <v>44430</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         <v>44430</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23773,7 +23773,7 @@
         <v>44430</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23830,7 +23830,7 @@
         <v>44431</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23887,7 +23887,7 @@
         <v>44434</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23944,7 +23944,7 @@
         <v>44435</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24001,7 +24001,7 @@
         <v>44438</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24058,7 +24058,7 @@
         <v>44438</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24115,7 +24115,7 @@
         <v>44438</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24172,7 +24172,7 @@
         <v>44438</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24229,7 +24229,7 @@
         <v>44442</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>44445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>44446</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44446</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>44447</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>44448</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>44449</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>44449</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>44449</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>44452</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24799,7 +24799,7 @@
         <v>44456</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24856,7 +24856,7 @@
         <v>44458</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24913,7 +24913,7 @@
         <v>44459</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24970,7 +24970,7 @@
         <v>44463</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>44467</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25089,7 +25089,7 @@
         <v>44467</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44474</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44474</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>44480</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25332,7 +25332,7 @@
         <v>44480</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         <v>44486</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>44487</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25503,7 +25503,7 @@
         <v>44487</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25560,7 +25560,7 @@
         <v>44487</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25617,7 +25617,7 @@
         <v>44487</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25674,7 +25674,7 @@
         <v>44487</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25731,7 +25731,7 @@
         <v>44487</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>44488</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>44491</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>44494</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>44495</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44497</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>44497</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>44497</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>44501</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>44503</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>44508</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>44508</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>44509</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>44509</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>44509</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44511</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>44512</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26710,7 +26710,7 @@
         <v>44514</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>44517</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>44518</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>44518</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>44522</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>44523</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>44529</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>44539</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27176,7 +27176,7 @@
         <v>44558</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27233,7 +27233,7 @@
         <v>44572</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         <v>44573</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27347,7 +27347,7 @@
         <v>44573</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27404,7 +27404,7 @@
         <v>44578</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27461,7 +27461,7 @@
         <v>44592</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27518,7 +27518,7 @@
         <v>44593</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27580,7 +27580,7 @@
         <v>44595</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27637,7 +27637,7 @@
         <v>44595</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27694,7 +27694,7 @@
         <v>44606</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27756,7 +27756,7 @@
         <v>44607</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27813,7 +27813,7 @@
         <v>44607</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27870,7 +27870,7 @@
         <v>44607</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27927,7 +27927,7 @@
         <v>44608</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27984,7 +27984,7 @@
         <v>44608</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>44608</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>44609</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28155,7 +28155,7 @@
         <v>44610</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28212,7 +28212,7 @@
         <v>44615</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         <v>44615</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28326,7 +28326,7 @@
         <v>44629</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28383,7 +28383,7 @@
         <v>44629</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>44631</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28497,7 +28497,7 @@
         <v>44637</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28554,7 +28554,7 @@
         <v>44637</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28611,7 +28611,7 @@
         <v>44637</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28668,7 +28668,7 @@
         <v>44637</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28725,7 +28725,7 @@
         <v>44638</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28782,7 +28782,7 @@
         <v>44641</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28844,7 +28844,7 @@
         <v>44641</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44641</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>44641</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29030,7 +29030,7 @@
         <v>44641</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29092,7 +29092,7 @@
         <v>44642</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29149,7 +29149,7 @@
         <v>44645</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29206,7 +29206,7 @@
         <v>44648</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29263,7 +29263,7 @@
         <v>44650</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29320,7 +29320,7 @@
         <v>44650</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29377,7 +29377,7 @@
         <v>44662</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>44662</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>44697</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44698</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44714</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>44714</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29719,7 +29719,7 @@
         <v>44721</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29776,7 +29776,7 @@
         <v>44723</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29833,7 +29833,7 @@
         <v>44729</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29890,7 +29890,7 @@
         <v>44733</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29952,7 +29952,7 @@
         <v>44733</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30009,7 +30009,7 @@
         <v>44733</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         <v>44734</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30123,7 +30123,7 @@
         <v>44734</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30180,7 +30180,7 @@
         <v>44734</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30237,7 +30237,7 @@
         <v>44739</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30294,7 +30294,7 @@
         <v>44753</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30356,7 +30356,7 @@
         <v>44753</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>44753</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30480,7 +30480,7 @@
         <v>44755</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30542,7 +30542,7 @@
         <v>44764</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30599,7 +30599,7 @@
         <v>44767</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30656,7 +30656,7 @@
         <v>44781</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30713,7 +30713,7 @@
         <v>44781</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30770,7 +30770,7 @@
         <v>44781</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30827,7 +30827,7 @@
         <v>44783</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30884,7 +30884,7 @@
         <v>44790</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30941,7 +30941,7 @@
         <v>44791</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30998,7 +30998,7 @@
         <v>44791</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31055,7 +31055,7 @@
         <v>44796</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31112,7 +31112,7 @@
         <v>44798</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31169,7 +31169,7 @@
         <v>44798</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31226,7 +31226,7 @@
         <v>44798</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31283,7 +31283,7 @@
         <v>44798</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31340,7 +31340,7 @@
         <v>44799</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31397,7 +31397,7 @@
         <v>44799</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31454,7 +31454,7 @@
         <v>44808</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31511,7 +31511,7 @@
         <v>44809</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31568,7 +31568,7 @@
         <v>44812</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31625,7 +31625,7 @@
         <v>44818</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>44828</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>44831</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44831</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>44834</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31920,7 +31920,7 @@
         <v>44844</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>44844</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44850</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44853</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44855</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44864</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44866</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44874</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>44874</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44928</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44929</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32557,7 +32557,7 @@
         <v>44929</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>44929</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32681,7 +32681,7 @@
         <v>44930</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32738,7 +32738,7 @@
         <v>44942</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32795,7 +32795,7 @@
         <v>44950</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32852,7 +32852,7 @@
         <v>44950</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>44957</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32966,7 +32966,7 @@
         <v>44959</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33023,7 +33023,7 @@
         <v>44959</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33080,7 +33080,7 @@
         <v>44964</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33137,7 +33137,7 @@
         <v>44966</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33194,7 +33194,7 @@
         <v>44971</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33251,7 +33251,7 @@
         <v>44993</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33308,7 +33308,7 @@
         <v>44993</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33365,7 +33365,7 @@
         <v>44995</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         <v>44995</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33489,7 +33489,7 @@
         <v>45000</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33546,7 +33546,7 @@
         <v>45002</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>45006</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>45013</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>45022</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>45028</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33841,7 +33841,7 @@
         <v>45030</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33898,7 +33898,7 @@
         <v>45030</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33960,7 +33960,7 @@
         <v>45030</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>45030</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34084,7 +34084,7 @@
         <v>45035</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34141,7 +34141,7 @@
         <v>45038</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34203,7 +34203,7 @@
         <v>45038</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>45052</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>45056</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>45058</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>45058</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>45072</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34550,7 +34550,7 @@
         <v>45073</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34612,7 +34612,7 @@
         <v>45078</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34669,7 +34669,7 @@
         <v>45089</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34726,7 +34726,7 @@
         <v>45092</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>45104</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34840,7 +34840,7 @@
         <v>45104</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34897,7 +34897,7 @@
         <v>45104</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34954,7 +34954,7 @@
         <v>45104</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         <v>45107</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>45111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35130,7 +35130,7 @@
         <v>45111</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35192,7 +35192,7 @@
         <v>45115</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35254,7 +35254,7 @@
         <v>45115</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35316,7 +35316,7 @@
         <v>45115</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35378,7 +35378,7 @@
         <v>45115</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35440,7 +35440,7 @@
         <v>45115</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>45115</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35564,7 +35564,7 @@
         <v>45119</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35621,7 +35621,7 @@
         <v>45140</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35678,7 +35678,7 @@
         <v>45141</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35735,7 +35735,7 @@
         <v>45141</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35792,7 +35792,7 @@
         <v>45162</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35849,7 +35849,7 @@
         <v>45162</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>45162</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>

--- a/Översikt ASKERSUND.xlsx
+++ b/Översikt ASKERSUND.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y576"/>
+  <dimension ref="A1:Y577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43769</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44574</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45132</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44950</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43902</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>44579</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44859</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43697</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>44375</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>44474</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44812</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44942</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43530</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>43556</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43773</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>43773</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43902</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43908</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44088</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>44088</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44194</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44463</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44463</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>44587</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44649</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44993</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45038</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>45107</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43467</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43521</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43539</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43608</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43691</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43691</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>43886</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43928</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43928</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>44020</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>44035</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44067</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>44200</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>44416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44452</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44461</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>44518</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44587</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44757</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44859</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>44993</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45030</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>45104</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>45106</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>45111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>45115</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43318</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43343</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43346</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43355</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43355</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43362</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43385</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43385</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43398</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>43398</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43404</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43409</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>43411</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43416</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43420</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>43423</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>43423</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43432</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43434</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43441</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43441</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43455</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>43455</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>43470</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43471</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43471</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43471</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43473</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43474</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43475</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43476</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43480</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43483</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43486</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43509</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43516</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43523</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>43523</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>43528</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43529</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43529</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43530</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43532</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43535</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43536</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43536</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43539</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43542</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43543</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43545</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43552</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43552</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43556</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43558</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43558</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43588</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43592</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43594</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43598</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>43655</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43655</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>43655</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>43672</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>43676</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43682</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>43684</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>43684</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>43691</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>43691</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>43693</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>43697</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>43698</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>43700</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>43706</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43706</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43706</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43706</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43706</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43706</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>43706</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>43706</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>43706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>43712</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>43724</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43730</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>43731</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>43733</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43735</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>43739</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>43741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>43746</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>43748</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>43749</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>43755</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>43755</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43755</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43756</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43756</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>43759</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>43763</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>43768</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>43773</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>43773</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>43774</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>43775</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43780</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43780</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>43784</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>43787</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43787</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43790</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43790</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43794</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43801</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43801</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43803</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13910,7 +13910,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>43811</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>43839</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>43840</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>43843</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>43844</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>43852</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>43852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>43861</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43862</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43880</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43885</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43901</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43901</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43906</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43908</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43908</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>43922</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>43924</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>43927</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>43928</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>43928</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>43928</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>43928</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>43928</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>43934</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>43936</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>43936</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>43938</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>43938</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>43941</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>43945</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>43955</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>43958</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>43963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>43963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>43963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>43969</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>43970</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>43971</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>43976</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>43983</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>43983</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>43983</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43987</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>43987</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>43987</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>43992</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>43997</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44004</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44005</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44005</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44005</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>44008</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44014</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44018</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44018</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44032</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44039</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44039</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44046</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44057</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>44058</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>44060</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44060</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>44060</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44060</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44062</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44064</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>44070</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>44071</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>44075</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>44075</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>44077</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>44077</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18531,7 +18531,7 @@
         <v>44084</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
         <v>44084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44084</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>44084</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>44088</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>44088</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         <v>44092</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18935,7 +18935,7 @@
         <v>44095</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18992,7 +18992,7 @@
         <v>44097</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19049,7 +19049,7 @@
         <v>44097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44102</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
         <v>44102</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19220,7 +19220,7 @@
         <v>44104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         <v>44105</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>44113</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>44118</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>44120</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
         <v>44120</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19562,7 +19562,7 @@
         <v>44125</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>44127</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44132</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19748,7 +19748,7 @@
         <v>44136</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>44139</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>44139</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44139</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44145</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>44151</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20095,7 +20095,7 @@
         <v>44151</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>44151</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>44153</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44153</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>44162</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>44167</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20494,7 +20494,7 @@
         <v>44172</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44172</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20608,7 +20608,7 @@
         <v>44174</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
         <v>44186</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20722,7 +20722,7 @@
         <v>44186</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20779,7 +20779,7 @@
         <v>44187</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         <v>44194</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44200</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
         <v>44204</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>44208</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>44209</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21121,7 +21121,7 @@
         <v>44211</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         <v>44228</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>44229</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21292,7 +21292,7 @@
         <v>44230</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>44232</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21406,7 +21406,7 @@
         <v>44237</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>44237</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>44244</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21577,7 +21577,7 @@
         <v>44244</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21634,7 +21634,7 @@
         <v>44244</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         <v>44250</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21748,7 +21748,7 @@
         <v>44256</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21805,7 +21805,7 @@
         <v>44273</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21862,7 +21862,7 @@
         <v>44279</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21919,7 +21919,7 @@
         <v>44285</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44300</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44300</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22090,7 +22090,7 @@
         <v>44315</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22147,7 +22147,7 @@
         <v>44334</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22204,7 +22204,7 @@
         <v>44343</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>44344</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22318,7 +22318,7 @@
         <v>44358</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22375,7 +22375,7 @@
         <v>44368</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22432,7 +22432,7 @@
         <v>44385</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
         <v>44386</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         <v>44389</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22603,7 +22603,7 @@
         <v>44391</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22665,7 +22665,7 @@
         <v>44391</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22722,7 +22722,7 @@
         <v>44397</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22779,7 +22779,7 @@
         <v>44397</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22836,7 +22836,7 @@
         <v>44398</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22893,7 +22893,7 @@
         <v>44407</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22950,7 +22950,7 @@
         <v>44412</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23007,7 +23007,7 @@
         <v>44413</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>44413</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>44419</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44420</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44422</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>44422</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>44422</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>44424</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>44424</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>44426</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23602,7 +23602,7 @@
         <v>44430</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23659,7 +23659,7 @@
         <v>44430</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         <v>44430</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23773,7 +23773,7 @@
         <v>44430</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23830,7 +23830,7 @@
         <v>44431</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23887,7 +23887,7 @@
         <v>44434</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23944,7 +23944,7 @@
         <v>44435</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24001,7 +24001,7 @@
         <v>44438</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24058,7 +24058,7 @@
         <v>44438</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24115,7 +24115,7 @@
         <v>44438</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24172,7 +24172,7 @@
         <v>44438</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24229,7 +24229,7 @@
         <v>44442</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>44445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>44446</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44446</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>44447</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>44448</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>44449</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>44449</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>44449</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>44452</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24799,7 +24799,7 @@
         <v>44456</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24856,7 +24856,7 @@
         <v>44458</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24913,7 +24913,7 @@
         <v>44459</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24970,7 +24970,7 @@
         <v>44463</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>44467</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25089,7 +25089,7 @@
         <v>44467</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44474</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44474</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>44480</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25332,7 +25332,7 @@
         <v>44480</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         <v>44486</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>44487</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25503,7 +25503,7 @@
         <v>44487</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25560,7 +25560,7 @@
         <v>44487</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25617,7 +25617,7 @@
         <v>44487</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25674,7 +25674,7 @@
         <v>44487</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25731,7 +25731,7 @@
         <v>44487</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>44488</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>44491</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>44494</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>44495</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44497</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>44497</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>44497</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>44501</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>44503</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>44508</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>44508</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>44509</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>44509</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>44509</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44511</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>44512</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26710,7 +26710,7 @@
         <v>44514</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>44517</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>44518</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>44518</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>44522</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>44523</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>44529</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>44539</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27176,7 +27176,7 @@
         <v>44558</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27233,7 +27233,7 @@
         <v>44572</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         <v>44573</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27347,7 +27347,7 @@
         <v>44573</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27404,7 +27404,7 @@
         <v>44578</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27461,7 +27461,7 @@
         <v>44592</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27518,7 +27518,7 @@
         <v>44593</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27580,7 +27580,7 @@
         <v>44595</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27637,7 +27637,7 @@
         <v>44595</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27694,7 +27694,7 @@
         <v>44606</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27756,7 +27756,7 @@
         <v>44607</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27813,7 +27813,7 @@
         <v>44607</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27870,7 +27870,7 @@
         <v>44607</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27927,7 +27927,7 @@
         <v>44608</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27984,7 +27984,7 @@
         <v>44608</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>44608</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>44609</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28155,7 +28155,7 @@
         <v>44610</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28212,7 +28212,7 @@
         <v>44615</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         <v>44615</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28326,7 +28326,7 @@
         <v>44629</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28383,7 +28383,7 @@
         <v>44629</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>44631</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28497,7 +28497,7 @@
         <v>44637</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28554,7 +28554,7 @@
         <v>44637</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28611,7 +28611,7 @@
         <v>44637</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28668,7 +28668,7 @@
         <v>44637</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28725,7 +28725,7 @@
         <v>44638</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28782,7 +28782,7 @@
         <v>44641</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28844,7 +28844,7 @@
         <v>44641</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44641</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>44641</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29030,7 +29030,7 @@
         <v>44641</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29092,7 +29092,7 @@
         <v>44642</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29149,7 +29149,7 @@
         <v>44645</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29206,7 +29206,7 @@
         <v>44648</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29263,7 +29263,7 @@
         <v>44650</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29320,7 +29320,7 @@
         <v>44650</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29377,7 +29377,7 @@
         <v>44662</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>44662</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>44697</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44698</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44714</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>44714</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29719,7 +29719,7 @@
         <v>44721</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29776,7 +29776,7 @@
         <v>44723</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29833,7 +29833,7 @@
         <v>44729</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29890,7 +29890,7 @@
         <v>44733</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29952,7 +29952,7 @@
         <v>44733</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30009,7 +30009,7 @@
         <v>44733</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         <v>44734</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30123,7 +30123,7 @@
         <v>44734</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30180,7 +30180,7 @@
         <v>44734</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30237,7 +30237,7 @@
         <v>44739</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30294,7 +30294,7 @@
         <v>44753</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30356,7 +30356,7 @@
         <v>44753</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>44753</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30480,7 +30480,7 @@
         <v>44755</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30542,7 +30542,7 @@
         <v>44764</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30599,7 +30599,7 @@
         <v>44767</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30656,7 +30656,7 @@
         <v>44781</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30713,7 +30713,7 @@
         <v>44781</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30770,7 +30770,7 @@
         <v>44781</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30827,7 +30827,7 @@
         <v>44783</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30884,7 +30884,7 @@
         <v>44790</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30941,7 +30941,7 @@
         <v>44791</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30998,7 +30998,7 @@
         <v>44791</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31055,7 +31055,7 @@
         <v>44796</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31112,7 +31112,7 @@
         <v>44798</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31169,7 +31169,7 @@
         <v>44798</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31226,7 +31226,7 @@
         <v>44798</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31283,7 +31283,7 @@
         <v>44798</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31340,7 +31340,7 @@
         <v>44799</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31397,7 +31397,7 @@
         <v>44799</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31454,7 +31454,7 @@
         <v>44808</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31511,7 +31511,7 @@
         <v>44809</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31568,7 +31568,7 @@
         <v>44812</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31625,7 +31625,7 @@
         <v>44818</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>44828</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>44831</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44831</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>44834</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31920,7 +31920,7 @@
         <v>44844</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>44844</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44850</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44853</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44855</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44864</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44866</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44874</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>44874</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44928</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44929</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32557,7 +32557,7 @@
         <v>44929</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>44929</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32681,7 +32681,7 @@
         <v>44930</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32738,7 +32738,7 @@
         <v>44942</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32795,7 +32795,7 @@
         <v>44950</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32852,7 +32852,7 @@
         <v>44950</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>44957</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32966,7 +32966,7 @@
         <v>44959</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33023,7 +33023,7 @@
         <v>44959</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33080,7 +33080,7 @@
         <v>44964</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33137,7 +33137,7 @@
         <v>44966</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33194,7 +33194,7 @@
         <v>44971</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33251,7 +33251,7 @@
         <v>44993</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33308,7 +33308,7 @@
         <v>44993</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33365,7 +33365,7 @@
         <v>44995</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         <v>44995</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33489,7 +33489,7 @@
         <v>45000</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33546,7 +33546,7 @@
         <v>45002</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>45006</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>45013</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>45022</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>45028</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33841,7 +33841,7 @@
         <v>45030</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33898,7 +33898,7 @@
         <v>45030</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33960,7 +33960,7 @@
         <v>45030</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>45030</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34084,7 +34084,7 @@
         <v>45035</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34141,7 +34141,7 @@
         <v>45038</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34203,7 +34203,7 @@
         <v>45038</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>45052</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>45056</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>45058</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>45058</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>45072</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34550,7 +34550,7 @@
         <v>45073</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34612,7 +34612,7 @@
         <v>45078</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34669,7 +34669,7 @@
         <v>45089</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34726,7 +34726,7 @@
         <v>45092</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>45104</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34840,7 +34840,7 @@
         <v>45104</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34897,7 +34897,7 @@
         <v>45104</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34954,7 +34954,7 @@
         <v>45104</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         <v>45107</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>45111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35130,7 +35130,7 @@
         <v>45111</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35192,7 +35192,7 @@
         <v>45115</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35254,7 +35254,7 @@
         <v>45115</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35316,7 +35316,7 @@
         <v>45115</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35378,7 +35378,7 @@
         <v>45115</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35440,7 +35440,7 @@
         <v>45115</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>45115</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35564,7 +35564,7 @@
         <v>45119</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35621,7 +35621,7 @@
         <v>45140</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35678,7 +35678,7 @@
         <v>45141</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35735,7 +35735,7 @@
         <v>45141</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35792,7 +35792,7 @@
         <v>45162</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35849,7 +35849,7 @@
         <v>45162</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35896,7 +35896,7 @@
       </c>
       <c r="R575" s="2" t="inlineStr"/>
     </row>
-    <row r="576">
+    <row r="576" ht="15" customHeight="1">
       <c r="A576" t="inlineStr">
         <is>
           <t>A 38572-2023</t>
@@ -35906,7 +35906,7 @@
         <v>45162</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35952,6 +35952,63 @@
         <v>0</v>
       </c>
       <c r="R576" s="2" t="inlineStr"/>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>A 42811-2023</t>
+        </is>
+      </c>
+      <c r="B577" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C577" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>ASKERSUND</t>
+        </is>
+      </c>
+      <c r="G577" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H577" t="n">
+        <v>0</v>
+      </c>
+      <c r="I577" t="n">
+        <v>0</v>
+      </c>
+      <c r="J577" t="n">
+        <v>0</v>
+      </c>
+      <c r="K577" t="n">
+        <v>0</v>
+      </c>
+      <c r="L577" t="n">
+        <v>0</v>
+      </c>
+      <c r="M577" t="n">
+        <v>0</v>
+      </c>
+      <c r="N577" t="n">
+        <v>0</v>
+      </c>
+      <c r="O577" t="n">
+        <v>0</v>
+      </c>
+      <c r="P577" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q577" t="n">
+        <v>0</v>
+      </c>
+      <c r="R577" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ASKERSUND.xlsx
+++ b/Översikt ASKERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>43769</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -633,27 +633,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 58039-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 58039-2019.xlsx", "A 58039-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 58039-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 58039-2019.png", "A 58039-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 58039-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 58039-2019.docx", "A 58039-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 58039-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 58039-2019.docx", "A 58039-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 58039-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 58039-2019.docx", "A 58039-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 58039-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 58039-2019.docx", "A 58039-2019")</f>
         <v/>
       </c>
     </row>
@@ -667,7 +667,7 @@
         <v>44574</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,27 +724,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 1791-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 1791-2022.xlsx", "A 1791-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 1791-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 1791-2022.png", "A 1791-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 1791-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 1791-2022.docx", "A 1791-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 1791-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 1791-2022.docx", "A 1791-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 1791-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 1791-2022.docx", "A 1791-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 1791-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 1791-2022.docx", "A 1791-2022")</f>
         <v/>
       </c>
     </row>
@@ -758,7 +758,7 @@
         <v>43473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -814,27 +814,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 1158-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 1158-2019.xlsx", "A 1158-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 1158-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 1158-2019.png", "A 1158-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 1158-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 1158-2019.docx", "A 1158-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 1158-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 1158-2019.docx", "A 1158-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 1158-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 1158-2019.docx", "A 1158-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 1158-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 1158-2019.docx", "A 1158-2019")</f>
         <v/>
       </c>
     </row>
@@ -848,7 +848,7 @@
         <v>45132</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -909,27 +909,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 33650-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 33650-2023.xlsx", "A 33650-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 33650-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 33650-2023.png", "A 33650-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 33650-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 33650-2023.docx", "A 33650-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 33650-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 33650-2023.docx", "A 33650-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 33650-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 33650-2023.docx", "A 33650-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 33650-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 33650-2023.docx", "A 33650-2023")</f>
         <v/>
       </c>
     </row>
@@ -943,7 +943,7 @@
         <v>44950</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -998,27 +998,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 3674-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 3674-2023.xlsx", "A 3674-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 3674-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 3674-2023.png", "A 3674-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 3674-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 3674-2023.docx", "A 3674-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 3674-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 3674-2023.docx", "A 3674-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 3674-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 3674-2023.docx", "A 3674-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 3674-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 3674-2023.docx", "A 3674-2023")</f>
         <v/>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
         <v>43902</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,27 +1086,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 13504-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 13504-2020.xlsx", "A 13504-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 13504-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 13504-2020.png", "A 13504-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 13504-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 13504-2020.docx", "A 13504-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 13504-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 13504-2020.docx", "A 13504-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 13504-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 13504-2020.docx", "A 13504-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 13504-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 13504-2020.docx", "A 13504-2020")</f>
         <v/>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
         <v>44579</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1174,27 +1174,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 2424-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 2424-2022.xlsx", "A 2424-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 2424-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 2424-2022.png", "A 2424-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 2424-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 2424-2022.docx", "A 2424-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 2424-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 2424-2022.docx", "A 2424-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 2424-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 2424-2022.docx", "A 2424-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 2424-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 2424-2022.docx", "A 2424-2022")</f>
         <v/>
       </c>
     </row>
@@ -1208,7 +1208,7 @@
         <v>44859</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,27 +1262,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 48875-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 48875-2022.xlsx", "A 48875-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 48875-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 48875-2022.png", "A 48875-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 48875-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 48875-2022.docx", "A 48875-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 48875-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 48875-2022.docx", "A 48875-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 48875-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 48875-2022.docx", "A 48875-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 48875-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 48875-2022.docx", "A 48875-2022")</f>
         <v/>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
         <v>43697</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1349,27 +1349,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 40942-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 40942-2019.xlsx", "A 40942-2019")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 40942-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 40942-2019.png", "A 40942-2019")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 40942-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 40942-2019.docx", "A 40942-2019")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 40942-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 40942-2019.docx", "A 40942-2019")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 40942-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 40942-2019.docx", "A 40942-2019")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 40942-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 40942-2019.docx", "A 40942-2019")</f>
         <v/>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
         <v>44074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1436,27 +1436,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 41840-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 41840-2020.xlsx", "A 41840-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 41840-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 41840-2020.png", "A 41840-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 41840-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 41840-2020.docx", "A 41840-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 41840-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 41840-2020.docx", "A 41840-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 41840-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 41840-2020.docx", "A 41840-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 41840-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 41840-2020.docx", "A 41840-2020")</f>
         <v/>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
         <v>44300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1523,27 +1523,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 17866-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 17866-2021.xlsx", "A 17866-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 17866-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 17866-2021.png", "A 17866-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 17866-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 17866-2021.docx", "A 17866-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 17866-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 17866-2021.docx", "A 17866-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 17866-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 17866-2021.docx", "A 17866-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 17866-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 17866-2021.docx", "A 17866-2021")</f>
         <v/>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
         <v>44375</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1615,27 +1615,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 32709-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 32709-2021.xlsx", "A 32709-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 32709-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 32709-2021.png", "A 32709-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 32709-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 32709-2021.docx", "A 32709-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 32709-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 32709-2021.docx", "A 32709-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 32709-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 32709-2021.docx", "A 32709-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 32709-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 32709-2021.docx", "A 32709-2021")</f>
         <v/>
       </c>
     </row>
@@ -1649,7 +1649,7 @@
         <v>44474</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,27 +1707,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 55028-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 55028-2021.xlsx", "A 55028-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 55028-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 55028-2021.png", "A 55028-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 55028-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 55028-2021.docx", "A 55028-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 55028-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 55028-2021.docx", "A 55028-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 55028-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 55028-2021.docx", "A 55028-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 55028-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 55028-2021.docx", "A 55028-2021")</f>
         <v/>
       </c>
     </row>
@@ -1741,7 +1741,7 @@
         <v>44812</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1794,27 +1794,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 38299-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 38299-2022.xlsx", "A 38299-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 38299-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 38299-2022.png", "A 38299-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 38299-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 38299-2022.docx", "A 38299-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 38299-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 38299-2022.docx", "A 38299-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 38299-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 38299-2022.docx", "A 38299-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 38299-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 38299-2022.docx", "A 38299-2022")</f>
         <v/>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
         <v>44942</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1881,27 +1881,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 2291-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 2291-2023.xlsx", "A 2291-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 2291-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 2291-2023.png", "A 2291-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 2291-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 2291-2023.docx", "A 2291-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 2291-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 2291-2023.docx", "A 2291-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 2291-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 2291-2023.docx", "A 2291-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 2291-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 2291-2023.docx", "A 2291-2023")</f>
         <v/>
       </c>
     </row>
@@ -1915,7 +1915,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,27 +1973,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 30410-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 30410-2023.xlsx", "A 30410-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 30410-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 30410-2023.png", "A 30410-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 30410-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 30410-2023.docx", "A 30410-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 30410-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 30410-2023.docx", "A 30410-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 30410-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 30410-2023.docx", "A 30410-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 30410-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 30410-2023.docx", "A 30410-2023")</f>
         <v/>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2059,27 +2059,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 64845-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 64845-2018.xlsx", "A 64845-2018")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 64845-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 64845-2018.png", "A 64845-2018")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 64845-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 64845-2018.docx", "A 64845-2018")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 64845-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 64845-2018.docx", "A 64845-2018")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 64845-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 64845-2018.docx", "A 64845-2018")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 64845-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 64845-2018.docx", "A 64845-2018")</f>
         <v/>
       </c>
     </row>
@@ -2093,7 +2093,7 @@
         <v>43530</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2145,27 +2145,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 13483-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 13483-2019.xlsx", "A 13483-2019")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 13483-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 13483-2019.png", "A 13483-2019")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 13483-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 13483-2019.docx", "A 13483-2019")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 13483-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 13483-2019.docx", "A 13483-2019")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 13483-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 13483-2019.docx", "A 13483-2019")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 13483-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 13483-2019.docx", "A 13483-2019")</f>
         <v/>
       </c>
     </row>
@@ -2179,7 +2179,7 @@
         <v>43556</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2231,27 +2231,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 17635-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 17635-2019.xlsx", "A 17635-2019")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 17635-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 17635-2019.png", "A 17635-2019")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 17635-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 17635-2019.docx", "A 17635-2019")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 17635-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 17635-2019.docx", "A 17635-2019")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 17635-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 17635-2019.docx", "A 17635-2019")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 17635-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 17635-2019.docx", "A 17635-2019")</f>
         <v/>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
         <v>43773</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2322,27 +2322,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 58590-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 58590-2019.xlsx", "A 58590-2019")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 58590-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 58590-2019.png", "A 58590-2019")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 58590-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 58590-2019.docx", "A 58590-2019")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 58590-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 58590-2019.docx", "A 58590-2019")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 58590-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 58590-2019.docx", "A 58590-2019")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 58590-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 58590-2019.docx", "A 58590-2019")</f>
         <v/>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
         <v>43773</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2413,27 +2413,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 58588-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 58588-2019.xlsx", "A 58588-2019")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 58588-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 58588-2019.png", "A 58588-2019")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 58588-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 58588-2019.docx", "A 58588-2019")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 58588-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 58588-2019.docx", "A 58588-2019")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 58588-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 58588-2019.docx", "A 58588-2019")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 58588-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 58588-2019.docx", "A 58588-2019")</f>
         <v/>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
         <v>43902</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2499,27 +2499,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 13462-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 13462-2020.xlsx", "A 13462-2020")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 13462-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 13462-2020.png", "A 13462-2020")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 13462-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 13462-2020.docx", "A 13462-2020")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 13462-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 13462-2020.docx", "A 13462-2020")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 13462-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 13462-2020.docx", "A 13462-2020")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 13462-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 13462-2020.docx", "A 13462-2020")</f>
         <v/>
       </c>
     </row>
@@ -2533,7 +2533,7 @@
         <v>43908</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2590,27 +2590,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 14369-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 14369-2020.xlsx", "A 14369-2020")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 14369-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 14369-2020.png", "A 14369-2020")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 14369-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 14369-2020.docx", "A 14369-2020")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 14369-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 14369-2020.docx", "A 14369-2020")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 14369-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 14369-2020.docx", "A 14369-2020")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 14369-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 14369-2020.docx", "A 14369-2020")</f>
         <v/>
       </c>
     </row>
@@ -2624,7 +2624,7 @@
         <v>44088</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2681,27 +2681,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 46018-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 46018-2020.xlsx", "A 46018-2020")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 46018-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 46018-2020.png", "A 46018-2020")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 46018-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 46018-2020.docx", "A 46018-2020")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 46018-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 46018-2020.docx", "A 46018-2020")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 46018-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 46018-2020.docx", "A 46018-2020")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 46018-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 46018-2020.docx", "A 46018-2020")</f>
         <v/>
       </c>
     </row>
@@ -2715,7 +2715,7 @@
         <v>44088</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2772,27 +2772,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 46100-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 46100-2020.xlsx", "A 46100-2020")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 46100-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 46100-2020.png", "A 46100-2020")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 46100-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 46100-2020.docx", "A 46100-2020")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 46100-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 46100-2020.docx", "A 46100-2020")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 46100-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 46100-2020.docx", "A 46100-2020")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 46100-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 46100-2020.docx", "A 46100-2020")</f>
         <v/>
       </c>
     </row>
@@ -2806,7 +2806,7 @@
         <v>44194</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,27 +2858,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 69455-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 69455-2020.xlsx", "A 69455-2020")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 69455-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 69455-2020.png", "A 69455-2020")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 69455-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 69455-2020.docx", "A 69455-2020")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 69455-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 69455-2020.docx", "A 69455-2020")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 69455-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 69455-2020.docx", "A 69455-2020")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 69455-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 69455-2020.docx", "A 69455-2020")</f>
         <v/>
       </c>
     </row>
@@ -2892,7 +2892,7 @@
         <v>44463</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2949,27 +2949,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 52268-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 52268-2021.xlsx", "A 52268-2021")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 52268-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 52268-2021.png", "A 52268-2021")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 52268-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 52268-2021.docx", "A 52268-2021")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 52268-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 52268-2021.docx", "A 52268-2021")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 52268-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 52268-2021.docx", "A 52268-2021")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 52268-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 52268-2021.docx", "A 52268-2021")</f>
         <v/>
       </c>
     </row>
@@ -2983,7 +2983,7 @@
         <v>44463</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3040,27 +3040,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 52264-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 52264-2021.xlsx", "A 52264-2021")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 52264-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 52264-2021.png", "A 52264-2021")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 52264-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 52264-2021.docx", "A 52264-2021")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 52264-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 52264-2021.docx", "A 52264-2021")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 52264-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 52264-2021.docx", "A 52264-2021")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 52264-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 52264-2021.docx", "A 52264-2021")</f>
         <v/>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
         <v>44587</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3126,27 +3126,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 3927-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 3927-2022.xlsx", "A 3927-2022")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 3927-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 3927-2022.png", "A 3927-2022")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 3927-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 3927-2022.docx", "A 3927-2022")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 3927-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 3927-2022.docx", "A 3927-2022")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 3927-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 3927-2022.docx", "A 3927-2022")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 3927-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 3927-2022.docx", "A 3927-2022")</f>
         <v/>
       </c>
     </row>
@@ -3160,7 +3160,7 @@
         <v>44649</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3212,27 +3212,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 13865-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 13865-2022.xlsx", "A 13865-2022")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 13865-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 13865-2022.png", "A 13865-2022")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 13865-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 13865-2022.docx", "A 13865-2022")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 13865-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 13865-2022.docx", "A 13865-2022")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 13865-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 13865-2022.docx", "A 13865-2022")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 13865-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 13865-2022.docx", "A 13865-2022")</f>
         <v/>
       </c>
     </row>
@@ -3246,7 +3246,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3303,27 +3303,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 23750-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 23750-2022.xlsx", "A 23750-2022")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 23750-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 23750-2022.png", "A 23750-2022")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 23750-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 23750-2022.docx", "A 23750-2022")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 23750-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 23750-2022.docx", "A 23750-2022")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 23750-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 23750-2022.docx", "A 23750-2022")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 23750-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 23750-2022.docx", "A 23750-2022")</f>
         <v/>
       </c>
     </row>
@@ -3337,7 +3337,7 @@
         <v>44993</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3389,27 +3389,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 11504-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 11504-2023.xlsx", "A 11504-2023")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 11504-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 11504-2023.png", "A 11504-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 11504-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 11504-2023.docx", "A 11504-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 11504-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 11504-2023.docx", "A 11504-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 11504-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 11504-2023.docx", "A 11504-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 11504-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 11504-2023.docx", "A 11504-2023")</f>
         <v/>
       </c>
     </row>
@@ -3423,7 +3423,7 @@
         <v>45038</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3480,27 +3480,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 17872-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 17872-2023.xlsx", "A 17872-2023")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 17872-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 17872-2023.png", "A 17872-2023")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 17872-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 17872-2023.docx", "A 17872-2023")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 17872-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 17872-2023.docx", "A 17872-2023")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 17872-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 17872-2023.docx", "A 17872-2023")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 17872-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 17872-2023.docx", "A 17872-2023")</f>
         <v/>
       </c>
     </row>
@@ -3514,7 +3514,7 @@
         <v>45107</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3566,27 +3566,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 31967-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 31967-2023.xlsx", "A 31967-2023")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 31967-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 31967-2023.png", "A 31967-2023")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 31967-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 31967-2023.docx", "A 31967-2023")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 31967-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 31967-2023.docx", "A 31967-2023")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 31967-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 31967-2023.docx", "A 31967-2023")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 31967-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 31967-2023.docx", "A 31967-2023")</f>
         <v/>
       </c>
     </row>
@@ -3600,7 +3600,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3651,27 +3651,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 53502-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 53502-2018.xlsx", "A 53502-2018")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 53502-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 53502-2018.png", "A 53502-2018")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 53502-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 53502-2018.docx", "A 53502-2018")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 53502-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 53502-2018.docx", "A 53502-2018")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 53502-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 53502-2018.docx", "A 53502-2018")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 53502-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 53502-2018.docx", "A 53502-2018")</f>
         <v/>
       </c>
     </row>
@@ -3685,7 +3685,7 @@
         <v>43441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3741,27 +3741,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 68147-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 68147-2018.xlsx", "A 68147-2018")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 68147-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 68147-2018.png", "A 68147-2018")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 68147-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 68147-2018.docx", "A 68147-2018")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 68147-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 68147-2018.docx", "A 68147-2018")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 68147-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 68147-2018.docx", "A 68147-2018")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 68147-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 68147-2018.docx", "A 68147-2018")</f>
         <v/>
       </c>
     </row>
@@ -3775,7 +3775,7 @@
         <v>43467</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3826,27 +3826,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 51-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 51-2019.xlsx", "A 51-2019")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 51-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 51-2019.png", "A 51-2019")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 51-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 51-2019.docx", "A 51-2019")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 51-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 51-2019.docx", "A 51-2019")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 51-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 51-2019.docx", "A 51-2019")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 51-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 51-2019.docx", "A 51-2019")</f>
         <v/>
       </c>
     </row>
@@ -3860,7 +3860,7 @@
         <v>43521</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3911,27 +3911,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 11950-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 11950-2019.xlsx", "A 11950-2019")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 11950-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 11950-2019.png", "A 11950-2019")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 11950-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 11950-2019.docx", "A 11950-2019")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 11950-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 11950-2019.docx", "A 11950-2019")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 11950-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 11950-2019.docx", "A 11950-2019")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 11950-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 11950-2019.docx", "A 11950-2019")</f>
         <v/>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
         <v>43539</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3996,27 +3996,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 15569-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 15569-2019.xlsx", "A 15569-2019")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 15569-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 15569-2019.png", "A 15569-2019")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 15569-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 15569-2019.docx", "A 15569-2019")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 15569-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 15569-2019.docx", "A 15569-2019")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 15569-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 15569-2019.docx", "A 15569-2019")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 15569-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 15569-2019.docx", "A 15569-2019")</f>
         <v/>
       </c>
     </row>
@@ -4030,7 +4030,7 @@
         <v>43608</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4081,27 +4081,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 25813-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 25813-2019.xlsx", "A 25813-2019")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 25813-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 25813-2019.png", "A 25813-2019")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 25813-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 25813-2019.docx", "A 25813-2019")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 25813-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 25813-2019.docx", "A 25813-2019")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 25813-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 25813-2019.docx", "A 25813-2019")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 25813-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 25813-2019.docx", "A 25813-2019")</f>
         <v/>
       </c>
     </row>
@@ -4115,7 +4115,7 @@
         <v>43691</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4171,27 +4171,27 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 39511-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 39511-2019.xlsx", "A 39511-2019")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 39511-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 39511-2019.png", "A 39511-2019")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 39511-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 39511-2019.docx", "A 39511-2019")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 39511-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 39511-2019.docx", "A 39511-2019")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 39511-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 39511-2019.docx", "A 39511-2019")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 39511-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 39511-2019.docx", "A 39511-2019")</f>
         <v/>
       </c>
     </row>
@@ -4205,7 +4205,7 @@
         <v>43691</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4261,27 +4261,27 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 39515-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 39515-2019.xlsx", "A 39515-2019")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 39515-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 39515-2019.png", "A 39515-2019")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 39515-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 39515-2019.docx", "A 39515-2019")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 39515-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 39515-2019.docx", "A 39515-2019")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 39515-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 39515-2019.docx", "A 39515-2019")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 39515-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 39515-2019.docx", "A 39515-2019")</f>
         <v/>
       </c>
     </row>
@@ -4295,7 +4295,7 @@
         <v>43886</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4346,27 +4346,27 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 10540-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 10540-2020.xlsx", "A 10540-2020")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 10540-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 10540-2020.png", "A 10540-2020")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 10540-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 10540-2020.docx", "A 10540-2020")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 10540-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 10540-2020.docx", "A 10540-2020")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 10540-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 10540-2020.docx", "A 10540-2020")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 10540-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 10540-2020.docx", "A 10540-2020")</f>
         <v/>
       </c>
     </row>
@@ -4380,7 +4380,7 @@
         <v>43928</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4436,27 +4436,27 @@
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 18289-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 18289-2020.xlsx", "A 18289-2020")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 18289-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 18289-2020.png", "A 18289-2020")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 18289-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 18289-2020.docx", "A 18289-2020")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 18289-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 18289-2020.docx", "A 18289-2020")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 18289-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 18289-2020.docx", "A 18289-2020")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 18289-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 18289-2020.docx", "A 18289-2020")</f>
         <v/>
       </c>
     </row>
@@ -4470,7 +4470,7 @@
         <v>43928</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4526,27 +4526,27 @@
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 18287-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 18287-2020.xlsx", "A 18287-2020")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 18287-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 18287-2020.png", "A 18287-2020")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 18287-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 18287-2020.docx", "A 18287-2020")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 18287-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 18287-2020.docx", "A 18287-2020")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 18287-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 18287-2020.docx", "A 18287-2020")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 18287-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 18287-2020.docx", "A 18287-2020")</f>
         <v/>
       </c>
     </row>
@@ -4560,7 +4560,7 @@
         <v>44020</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4616,27 +4616,27 @@
         </is>
       </c>
       <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 32905-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 32905-2020.xlsx", "A 32905-2020")</f>
         <v/>
       </c>
       <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 32905-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 32905-2020.png", "A 32905-2020")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 32905-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 32905-2020.docx", "A 32905-2020")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 32905-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 32905-2020.docx", "A 32905-2020")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 32905-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 32905-2020.docx", "A 32905-2020")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 32905-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 32905-2020.docx", "A 32905-2020")</f>
         <v/>
       </c>
     </row>
@@ -4650,7 +4650,7 @@
         <v>44035</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4706,27 +4706,27 @@
         </is>
       </c>
       <c r="S48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 34760-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 34760-2020.xlsx", "A 34760-2020")</f>
         <v/>
       </c>
       <c r="T48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 34760-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 34760-2020.png", "A 34760-2020")</f>
         <v/>
       </c>
       <c r="V48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 34760-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 34760-2020.docx", "A 34760-2020")</f>
         <v/>
       </c>
       <c r="W48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 34760-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 34760-2020.docx", "A 34760-2020")</f>
         <v/>
       </c>
       <c r="X48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 34760-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 34760-2020.docx", "A 34760-2020")</f>
         <v/>
       </c>
       <c r="Y48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 34760-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 34760-2020.docx", "A 34760-2020")</f>
         <v/>
       </c>
     </row>
@@ -4740,7 +4740,7 @@
         <v>44067</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4791,27 +4791,27 @@
         </is>
       </c>
       <c r="S49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 39904-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 39904-2020.xlsx", "A 39904-2020")</f>
         <v/>
       </c>
       <c r="T49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 39904-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 39904-2020.png", "A 39904-2020")</f>
         <v/>
       </c>
       <c r="V49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 39904-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 39904-2020.docx", "A 39904-2020")</f>
         <v/>
       </c>
       <c r="W49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 39904-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 39904-2020.docx", "A 39904-2020")</f>
         <v/>
       </c>
       <c r="X49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 39904-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 39904-2020.docx", "A 39904-2020")</f>
         <v/>
       </c>
       <c r="Y49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 39904-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 39904-2020.docx", "A 39904-2020")</f>
         <v/>
       </c>
     </row>
@@ -4825,7 +4825,7 @@
         <v>44200</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4876,31 +4876,31 @@
         </is>
       </c>
       <c r="S50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 168-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 168-2021.xlsx", "A 168-2021")</f>
         <v/>
       </c>
       <c r="T50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 168-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 168-2021.png", "A 168-2021")</f>
         <v/>
       </c>
       <c r="U50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/knärot/A 168-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/knärot/A 168-2021.png", "A 168-2021")</f>
         <v/>
       </c>
       <c r="V50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 168-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 168-2021.docx", "A 168-2021")</f>
         <v/>
       </c>
       <c r="W50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 168-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 168-2021.docx", "A 168-2021")</f>
         <v/>
       </c>
       <c r="X50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 168-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 168-2021.docx", "A 168-2021")</f>
         <v/>
       </c>
       <c r="Y50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 168-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 168-2021.docx", "A 168-2021")</f>
         <v/>
       </c>
     </row>
@@ -4914,7 +4914,7 @@
         <v>44416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4965,27 +4965,27 @@
         </is>
       </c>
       <c r="S51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 39575-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 39575-2021.xlsx", "A 39575-2021")</f>
         <v/>
       </c>
       <c r="T51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 39575-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 39575-2021.png", "A 39575-2021")</f>
         <v/>
       </c>
       <c r="V51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 39575-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 39575-2021.docx", "A 39575-2021")</f>
         <v/>
       </c>
       <c r="W51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 39575-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 39575-2021.docx", "A 39575-2021")</f>
         <v/>
       </c>
       <c r="X51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 39575-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 39575-2021.docx", "A 39575-2021")</f>
         <v/>
       </c>
       <c r="Y51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 39575-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 39575-2021.docx", "A 39575-2021")</f>
         <v/>
       </c>
     </row>
@@ -4999,7 +4999,7 @@
         <v>44452</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5050,27 +5050,27 @@
         </is>
       </c>
       <c r="S52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 48684-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 48684-2021.xlsx", "A 48684-2021")</f>
         <v/>
       </c>
       <c r="T52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 48684-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 48684-2021.png", "A 48684-2021")</f>
         <v/>
       </c>
       <c r="V52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 48684-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 48684-2021.docx", "A 48684-2021")</f>
         <v/>
       </c>
       <c r="W52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 48684-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 48684-2021.docx", "A 48684-2021")</f>
         <v/>
       </c>
       <c r="X52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 48684-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 48684-2021.docx", "A 48684-2021")</f>
         <v/>
       </c>
       <c r="Y52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 48684-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 48684-2021.docx", "A 48684-2021")</f>
         <v/>
       </c>
     </row>
@@ -5084,7 +5084,7 @@
         <v>44461</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5140,27 +5140,27 @@
         </is>
       </c>
       <c r="S53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 51319-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 51319-2021.xlsx", "A 51319-2021")</f>
         <v/>
       </c>
       <c r="T53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 51319-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 51319-2021.png", "A 51319-2021")</f>
         <v/>
       </c>
       <c r="V53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 51319-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 51319-2021.docx", "A 51319-2021")</f>
         <v/>
       </c>
       <c r="W53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 51319-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 51319-2021.docx", "A 51319-2021")</f>
         <v/>
       </c>
       <c r="X53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 51319-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 51319-2021.docx", "A 51319-2021")</f>
         <v/>
       </c>
       <c r="Y53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 51319-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 51319-2021.docx", "A 51319-2021")</f>
         <v/>
       </c>
     </row>
@@ -5174,7 +5174,7 @@
         <v>44476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5230,27 +5230,27 @@
         </is>
       </c>
       <c r="S54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 55832-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 55832-2021.xlsx", "A 55832-2021")</f>
         <v/>
       </c>
       <c r="T54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 55832-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 55832-2021.png", "A 55832-2021")</f>
         <v/>
       </c>
       <c r="V54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 55832-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 55832-2021.docx", "A 55832-2021")</f>
         <v/>
       </c>
       <c r="W54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 55832-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 55832-2021.docx", "A 55832-2021")</f>
         <v/>
       </c>
       <c r="X54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 55832-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 55832-2021.docx", "A 55832-2021")</f>
         <v/>
       </c>
       <c r="Y54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 55832-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 55832-2021.docx", "A 55832-2021")</f>
         <v/>
       </c>
     </row>
@@ -5264,7 +5264,7 @@
         <v>44518</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5315,27 +5315,27 @@
         </is>
       </c>
       <c r="S55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 66339-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 66339-2021.xlsx", "A 66339-2021")</f>
         <v/>
       </c>
       <c r="T55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 66339-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 66339-2021.png", "A 66339-2021")</f>
         <v/>
       </c>
       <c r="V55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 66339-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 66339-2021.docx", "A 66339-2021")</f>
         <v/>
       </c>
       <c r="W55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 66339-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 66339-2021.docx", "A 66339-2021")</f>
         <v/>
       </c>
       <c r="X55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 66339-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 66339-2021.docx", "A 66339-2021")</f>
         <v/>
       </c>
       <c r="Y55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 66339-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 66339-2021.docx", "A 66339-2021")</f>
         <v/>
       </c>
     </row>
@@ -5349,7 +5349,7 @@
         <v>44587</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5400,27 +5400,27 @@
         </is>
       </c>
       <c r="S56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 3945-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 3945-2022.xlsx", "A 3945-2022")</f>
         <v/>
       </c>
       <c r="T56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 3945-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 3945-2022.png", "A 3945-2022")</f>
         <v/>
       </c>
       <c r="V56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 3945-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 3945-2022.docx", "A 3945-2022")</f>
         <v/>
       </c>
       <c r="W56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 3945-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 3945-2022.docx", "A 3945-2022")</f>
         <v/>
       </c>
       <c r="X56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 3945-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 3945-2022.docx", "A 3945-2022")</f>
         <v/>
       </c>
       <c r="Y56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 3945-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 3945-2022.docx", "A 3945-2022")</f>
         <v/>
       </c>
     </row>
@@ -5434,7 +5434,7 @@
         <v>44757</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5485,27 +5485,27 @@
         </is>
       </c>
       <c r="S57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 30189-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 30189-2022.xlsx", "A 30189-2022")</f>
         <v/>
       </c>
       <c r="T57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 30189-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 30189-2022.png", "A 30189-2022")</f>
         <v/>
       </c>
       <c r="V57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 30189-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 30189-2022.docx", "A 30189-2022")</f>
         <v/>
       </c>
       <c r="W57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 30189-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 30189-2022.docx", "A 30189-2022")</f>
         <v/>
       </c>
       <c r="X57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 30189-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 30189-2022.docx", "A 30189-2022")</f>
         <v/>
       </c>
       <c r="Y57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 30189-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 30189-2022.docx", "A 30189-2022")</f>
         <v/>
       </c>
     </row>
@@ -5519,7 +5519,7 @@
         <v>44859</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5570,27 +5570,27 @@
         </is>
       </c>
       <c r="S58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 48879-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 48879-2022.xlsx", "A 48879-2022")</f>
         <v/>
       </c>
       <c r="T58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 48879-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 48879-2022.png", "A 48879-2022")</f>
         <v/>
       </c>
       <c r="V58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 48879-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 48879-2022.docx", "A 48879-2022")</f>
         <v/>
       </c>
       <c r="W58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 48879-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 48879-2022.docx", "A 48879-2022")</f>
         <v/>
       </c>
       <c r="X58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 48879-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 48879-2022.docx", "A 48879-2022")</f>
         <v/>
       </c>
       <c r="Y58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 48879-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 48879-2022.docx", "A 48879-2022")</f>
         <v/>
       </c>
     </row>
@@ -5604,7 +5604,7 @@
         <v>44993</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5655,27 +5655,27 @@
         </is>
       </c>
       <c r="S59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 11498-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 11498-2023.xlsx", "A 11498-2023")</f>
         <v/>
       </c>
       <c r="T59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 11498-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 11498-2023.png", "A 11498-2023")</f>
         <v/>
       </c>
       <c r="V59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 11498-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 11498-2023.docx", "A 11498-2023")</f>
         <v/>
       </c>
       <c r="W59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 11498-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 11498-2023.docx", "A 11498-2023")</f>
         <v/>
       </c>
       <c r="X59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 11498-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 11498-2023.docx", "A 11498-2023")</f>
         <v/>
       </c>
       <c r="Y59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 11498-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 11498-2023.docx", "A 11498-2023")</f>
         <v/>
       </c>
     </row>
@@ -5689,7 +5689,7 @@
         <v>45030</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5740,27 +5740,27 @@
         </is>
       </c>
       <c r="S60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 16677-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 16677-2023.xlsx", "A 16677-2023")</f>
         <v/>
       </c>
       <c r="T60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 16677-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 16677-2023.png", "A 16677-2023")</f>
         <v/>
       </c>
       <c r="V60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 16677-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 16677-2023.docx", "A 16677-2023")</f>
         <v/>
       </c>
       <c r="W60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 16677-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 16677-2023.docx", "A 16677-2023")</f>
         <v/>
       </c>
       <c r="X60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 16677-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 16677-2023.docx", "A 16677-2023")</f>
         <v/>
       </c>
       <c r="Y60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 16677-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 16677-2023.docx", "A 16677-2023")</f>
         <v/>
       </c>
     </row>
@@ -5774,7 +5774,7 @@
         <v>45104</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5825,27 +5825,27 @@
         </is>
       </c>
       <c r="S61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 28786-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 28786-2023.xlsx", "A 28786-2023")</f>
         <v/>
       </c>
       <c r="T61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 28786-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 28786-2023.png", "A 28786-2023")</f>
         <v/>
       </c>
       <c r="V61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 28786-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 28786-2023.docx", "A 28786-2023")</f>
         <v/>
       </c>
       <c r="W61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 28786-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 28786-2023.docx", "A 28786-2023")</f>
         <v/>
       </c>
       <c r="X61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 28786-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 28786-2023.docx", "A 28786-2023")</f>
         <v/>
       </c>
       <c r="Y61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 28786-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 28786-2023.docx", "A 28786-2023")</f>
         <v/>
       </c>
     </row>
@@ -5859,7 +5859,7 @@
         <v>45106</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5910,27 +5910,27 @@
         </is>
       </c>
       <c r="S62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 29576-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 29576-2023.xlsx", "A 29576-2023")</f>
         <v/>
       </c>
       <c r="T62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 29576-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 29576-2023.png", "A 29576-2023")</f>
         <v/>
       </c>
       <c r="V62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 29576-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 29576-2023.docx", "A 29576-2023")</f>
         <v/>
       </c>
       <c r="W62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 29576-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 29576-2023.docx", "A 29576-2023")</f>
         <v/>
       </c>
       <c r="X62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 29576-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 29576-2023.docx", "A 29576-2023")</f>
         <v/>
       </c>
       <c r="Y62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 29576-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 29576-2023.docx", "A 29576-2023")</f>
         <v/>
       </c>
     </row>
@@ -5944,7 +5944,7 @@
         <v>45111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6000,27 +6000,27 @@
         </is>
       </c>
       <c r="S63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 30446-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 30446-2023.xlsx", "A 30446-2023")</f>
         <v/>
       </c>
       <c r="T63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 30446-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 30446-2023.png", "A 30446-2023")</f>
         <v/>
       </c>
       <c r="V63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 30446-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 30446-2023.docx", "A 30446-2023")</f>
         <v/>
       </c>
       <c r="W63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 30446-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 30446-2023.docx", "A 30446-2023")</f>
         <v/>
       </c>
       <c r="X63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 30446-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 30446-2023.docx", "A 30446-2023")</f>
         <v/>
       </c>
       <c r="Y63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 30446-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 30446-2023.docx", "A 30446-2023")</f>
         <v/>
       </c>
     </row>
@@ -6034,7 +6034,7 @@
         <v>45115</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6090,27 +6090,27 @@
         </is>
       </c>
       <c r="S64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 31512-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/artfynd/A 31512-2023.xlsx", "A 31512-2023")</f>
         <v/>
       </c>
       <c r="T64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 31512-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/kartor/A 31512-2023.png", "A 31512-2023")</f>
         <v/>
       </c>
       <c r="V64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 31512-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 31512-2023.docx", "A 31512-2023")</f>
         <v/>
       </c>
       <c r="W64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 31512-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 31512-2023.docx", "A 31512-2023")</f>
         <v/>
       </c>
       <c r="X64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 31512-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 31512-2023.docx", "A 31512-2023")</f>
         <v/>
       </c>
       <c r="Y64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 31512-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 31512-2023.docx", "A 31512-2023")</f>
         <v/>
       </c>
     </row>
@@ -6124,7 +6124,7 @@
         <v>43318</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43343</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43346</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43355</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43355</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43362</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43385</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43385</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43398</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>43398</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43404</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43409</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>43411</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43416</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43420</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>43423</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>43423</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43432</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43434</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43441</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43441</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43455</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>43455</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>43470</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43471</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43471</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43471</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43473</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43474</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43475</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43476</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43480</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43483</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43486</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43509</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43516</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43523</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>43523</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>43528</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43529</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43529</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43530</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43532</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43535</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43536</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43536</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43539</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43542</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43543</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43545</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43552</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43552</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43556</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43558</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43558</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43588</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43592</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43594</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43598</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>43655</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43655</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>43655</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>43672</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>43676</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43682</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>43684</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>43684</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>43691</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>43691</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>43693</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>43697</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>43698</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>43700</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>43706</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43706</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43706</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43706</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43706</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43706</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>43706</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>43706</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>43706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>43712</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>43724</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43730</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>43731</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>43733</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43735</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>43739</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>43741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>43746</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>43748</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>43749</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>43755</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>43755</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43755</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43756</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43756</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>43759</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>43763</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>43768</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>43773</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>43773</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>43774</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>43775</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43780</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43780</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>43784</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>43787</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43787</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43790</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43790</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43794</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43801</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43801</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43803</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13910,7 +13910,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>43811</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>43839</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>43840</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>43843</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>43844</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>43852</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>43852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>43861</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43862</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43880</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43885</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43901</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43901</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43906</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43908</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43908</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>43922</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>43924</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>43927</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>43928</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>43928</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>43928</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>43928</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>43928</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>43934</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>43936</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>43936</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>43938</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>43938</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>43941</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>43945</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>43955</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>43958</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>43963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>43963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>43963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>43969</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>43970</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>43971</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>43976</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>43983</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>43983</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>43983</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43987</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>43987</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>43987</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>43992</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>43997</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16922,23 +16922,23 @@
       </c>
       <c r="R248" s="2" t="inlineStr"/>
       <c r="U248">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/knärot/A 28145-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/knärot/A 28145-2020.png", "A 28145-2020")</f>
         <v/>
       </c>
       <c r="V248">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 28145-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomål/A 28145-2020.docx", "A 28145-2020")</f>
         <v/>
       </c>
       <c r="W248">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 28145-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/klagomålsmail/A 28145-2020.docx", "A 28145-2020")</f>
         <v/>
       </c>
       <c r="X248">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 28145-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsyn/A 28145-2020.docx", "A 28145-2020")</f>
         <v/>
       </c>
       <c r="Y248">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 28145-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASKERSUND/tillsynsmail/A 28145-2020.docx", "A 28145-2020")</f>
         <v/>
       </c>
     </row>
@@ -16952,7 +16952,7 @@
         <v>44004</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44005</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44005</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44005</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>44008</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44014</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44018</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44018</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44032</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44039</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44039</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44046</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44057</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>44058</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>44060</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44060</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>44060</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44060</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44062</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44064</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>44070</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>44071</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>44075</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>44075</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>44077</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>44077</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18531,7 +18531,7 @@
         <v>44084</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
         <v>44084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44084</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>44084</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>44088</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>44088</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         <v>44092</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18935,7 +18935,7 @@
         <v>44095</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18992,7 +18992,7 @@
         <v>44097</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19049,7 +19049,7 @@
         <v>44097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44102</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
         <v>44102</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19220,7 +19220,7 @@
         <v>44104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         <v>44105</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>44113</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>44118</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>44120</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
         <v>44120</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19562,7 +19562,7 @@
         <v>44125</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>44127</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44132</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19748,7 +19748,7 @@
         <v>44136</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>44139</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>44139</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44139</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44145</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>44151</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20095,7 +20095,7 @@
         <v>44151</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>44151</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>44153</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44153</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>44162</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>44167</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20494,7 +20494,7 @@
         <v>44172</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44172</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20608,7 +20608,7 @@
         <v>44174</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
         <v>44186</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20722,7 +20722,7 @@
         <v>44186</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20779,7 +20779,7 @@
         <v>44187</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         <v>44194</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44200</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
         <v>44204</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>44208</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>44209</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21121,7 +21121,7 @@
         <v>44211</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         <v>44228</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>44229</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21292,7 +21292,7 @@
         <v>44230</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>44232</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21406,7 +21406,7 @@
         <v>44237</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>44237</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>44244</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21577,7 +21577,7 @@
         <v>44244</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21634,7 +21634,7 @@
         <v>44244</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         <v>44250</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21748,7 +21748,7 @@
         <v>44256</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21805,7 +21805,7 @@
         <v>44273</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21862,7 +21862,7 @@
         <v>44279</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21919,7 +21919,7 @@
         <v>44285</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44300</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44300</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22090,7 +22090,7 @@
         <v>44315</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22147,7 +22147,7 @@
         <v>44334</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22204,7 +22204,7 @@
         <v>44343</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>44344</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22318,7 +22318,7 @@
         <v>44358</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22375,7 +22375,7 @@
         <v>44368</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22432,7 +22432,7 @@
         <v>44385</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
         <v>44386</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         <v>44389</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22603,7 +22603,7 @@
         <v>44391</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22665,7 +22665,7 @@
         <v>44391</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22722,7 +22722,7 @@
         <v>44397</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22779,7 +22779,7 @@
         <v>44397</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22836,7 +22836,7 @@
         <v>44398</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22893,7 +22893,7 @@
         <v>44407</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22950,7 +22950,7 @@
         <v>44412</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23007,7 +23007,7 @@
         <v>44413</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>44413</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>44419</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44420</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44422</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>44422</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>44422</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>44424</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>44424</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>44426</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23602,7 +23602,7 @@
         <v>44430</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23659,7 +23659,7 @@
         <v>44430</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         <v>44430</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23773,7 +23773,7 @@
         <v>44430</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23830,7 +23830,7 @@
         <v>44431</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23887,7 +23887,7 @@
         <v>44434</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23944,7 +23944,7 @@
         <v>44435</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24001,7 +24001,7 @@
         <v>44438</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24058,7 +24058,7 @@
         <v>44438</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24115,7 +24115,7 @@
         <v>44438</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24172,7 +24172,7 @@
         <v>44438</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24229,7 +24229,7 @@
         <v>44442</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>44445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>44446</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44446</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>44447</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>44448</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>44449</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>44449</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>44449</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>44452</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24799,7 +24799,7 @@
         <v>44456</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24856,7 +24856,7 @@
         <v>44458</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24913,7 +24913,7 @@
         <v>44459</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24970,7 +24970,7 @@
         <v>44463</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>44467</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25089,7 +25089,7 @@
         <v>44467</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44474</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44474</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>44480</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25332,7 +25332,7 @@
         <v>44480</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         <v>44486</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>44487</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25503,7 +25503,7 @@
         <v>44487</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25560,7 +25560,7 @@
         <v>44487</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25617,7 +25617,7 @@
         <v>44487</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25674,7 +25674,7 @@
         <v>44487</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25731,7 +25731,7 @@
         <v>44487</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>44488</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>44491</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>44494</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>44495</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44497</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>44497</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>44497</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>44501</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>44503</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>44508</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>44508</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>44509</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>44509</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>44509</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44511</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>44512</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26710,7 +26710,7 @@
         <v>44514</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>44517</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>44518</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>44518</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>44522</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>44523</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>44529</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>44539</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27176,7 +27176,7 @@
         <v>44558</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27233,7 +27233,7 @@
         <v>44572</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         <v>44573</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27347,7 +27347,7 @@
         <v>44573</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27404,7 +27404,7 @@
         <v>44578</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27461,7 +27461,7 @@
         <v>44592</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27518,7 +27518,7 @@
         <v>44593</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27580,7 +27580,7 @@
         <v>44595</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27637,7 +27637,7 @@
         <v>44595</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27694,7 +27694,7 @@
         <v>44606</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27756,7 +27756,7 @@
         <v>44607</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27813,7 +27813,7 @@
         <v>44607</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27870,7 +27870,7 @@
         <v>44607</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27927,7 +27927,7 @@
         <v>44608</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27984,7 +27984,7 @@
         <v>44608</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>44608</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>44609</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28155,7 +28155,7 @@
         <v>44610</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28212,7 +28212,7 @@
         <v>44615</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         <v>44615</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28326,7 +28326,7 @@
         <v>44629</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28383,7 +28383,7 @@
         <v>44629</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>44631</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28497,7 +28497,7 @@
         <v>44637</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28554,7 +28554,7 @@
         <v>44637</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28611,7 +28611,7 @@
         <v>44637</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28668,7 +28668,7 @@
         <v>44637</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28725,7 +28725,7 @@
         <v>44638</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28782,7 +28782,7 @@
         <v>44641</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28844,7 +28844,7 @@
         <v>44641</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44641</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>44641</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29030,7 +29030,7 @@
         <v>44641</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29092,7 +29092,7 @@
         <v>44642</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29149,7 +29149,7 @@
         <v>44645</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29206,7 +29206,7 @@
         <v>44648</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29263,7 +29263,7 @@
         <v>44650</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29320,7 +29320,7 @@
         <v>44650</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29377,7 +29377,7 @@
         <v>44662</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>44662</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>44697</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44698</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44714</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>44714</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29719,7 +29719,7 @@
         <v>44721</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29776,7 +29776,7 @@
         <v>44723</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29833,7 +29833,7 @@
         <v>44729</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29890,7 +29890,7 @@
         <v>44733</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29952,7 +29952,7 @@
         <v>44733</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30009,7 +30009,7 @@
         <v>44733</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         <v>44734</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30123,7 +30123,7 @@
         <v>44734</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30180,7 +30180,7 @@
         <v>44734</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30237,7 +30237,7 @@
         <v>44739</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30294,7 +30294,7 @@
         <v>44753</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30356,7 +30356,7 @@
         <v>44753</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>44753</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30480,7 +30480,7 @@
         <v>44755</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30542,7 +30542,7 @@
         <v>44764</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30599,7 +30599,7 @@
         <v>44767</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30656,7 +30656,7 @@
         <v>44781</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30713,7 +30713,7 @@
         <v>44781</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30770,7 +30770,7 @@
         <v>44781</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30827,7 +30827,7 @@
         <v>44783</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30884,7 +30884,7 @@
         <v>44790</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30941,7 +30941,7 @@
         <v>44791</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30998,7 +30998,7 @@
         <v>44791</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31055,7 +31055,7 @@
         <v>44796</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31112,7 +31112,7 @@
         <v>44798</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31169,7 +31169,7 @@
         <v>44798</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31226,7 +31226,7 @@
         <v>44798</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31283,7 +31283,7 @@
         <v>44798</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31340,7 +31340,7 @@
         <v>44799</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31397,7 +31397,7 @@
         <v>44799</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31454,7 +31454,7 @@
         <v>44808</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31511,7 +31511,7 @@
         <v>44809</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31568,7 +31568,7 @@
         <v>44812</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31625,7 +31625,7 @@
         <v>44818</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>44828</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>44831</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44831</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>44834</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31920,7 +31920,7 @@
         <v>44844</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>44844</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44850</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44853</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44855</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44864</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44866</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44874</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>44874</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44928</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44929</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32557,7 +32557,7 @@
         <v>44929</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>44929</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32681,7 +32681,7 @@
         <v>44930</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32738,7 +32738,7 @@
         <v>44942</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32795,7 +32795,7 @@
         <v>44950</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32852,7 +32852,7 @@
         <v>44950</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>44957</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32966,7 +32966,7 @@
         <v>44959</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33023,7 +33023,7 @@
         <v>44959</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33080,7 +33080,7 @@
         <v>44964</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33137,7 +33137,7 @@
         <v>44966</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33194,7 +33194,7 @@
         <v>44971</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33251,7 +33251,7 @@
         <v>44993</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33308,7 +33308,7 @@
         <v>44993</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33365,7 +33365,7 @@
         <v>44995</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         <v>44995</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33489,7 +33489,7 @@
         <v>45000</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33546,7 +33546,7 @@
         <v>45002</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>45006</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>45013</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>45022</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>45028</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33841,7 +33841,7 @@
         <v>45030</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33898,7 +33898,7 @@
         <v>45030</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33960,7 +33960,7 @@
         <v>45030</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>45030</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34084,7 +34084,7 @@
         <v>45035</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34141,7 +34141,7 @@
         <v>45038</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34203,7 +34203,7 @@
         <v>45038</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>45052</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>45056</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>45058</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>45058</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>45072</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34550,7 +34550,7 @@
         <v>45073</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34612,7 +34612,7 @@
         <v>45078</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34669,7 +34669,7 @@
         <v>45089</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34726,7 +34726,7 @@
         <v>45092</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>45104</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34840,7 +34840,7 @@
         <v>45104</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34897,7 +34897,7 @@
         <v>45104</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34954,7 +34954,7 @@
         <v>45104</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         <v>45107</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>45111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35130,7 +35130,7 @@
         <v>45111</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35192,7 +35192,7 @@
         <v>45115</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35254,7 +35254,7 @@
         <v>45115</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35316,7 +35316,7 @@
         <v>45115</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35378,7 +35378,7 @@
         <v>45115</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35440,7 +35440,7 @@
         <v>45115</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>45115</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35564,7 +35564,7 @@
         <v>45119</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35621,7 +35621,7 @@
         <v>45140</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35678,7 +35678,7 @@
         <v>45141</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35735,7 +35735,7 @@
         <v>45141</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35792,7 +35792,7 @@
         <v>45162</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35849,7 +35849,7 @@
         <v>45162</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>45162</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35963,7 +35963,7 @@
         <v>45182</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>

--- a/Översikt ASKERSUND.xlsx
+++ b/Översikt ASKERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>43769</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44574</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45132</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44950</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43902</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>44579</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44859</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43697</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>44375</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>44474</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44812</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44942</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43530</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>43556</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43773</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>43773</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43902</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43908</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44088</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>44088</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44194</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44463</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44463</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>44587</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44649</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44993</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45038</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>45107</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43467</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43521</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43539</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43608</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43691</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43691</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>43886</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43928</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43928</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>44020</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>44035</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44067</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>44200</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>44416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44452</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44461</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>44518</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44587</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44757</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44859</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>44993</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45030</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>45104</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>45106</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>45111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>45115</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43318</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43343</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43346</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43355</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43355</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43362</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43385</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43385</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43398</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>43398</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43404</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43409</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>43411</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43416</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43420</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>43423</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>43423</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43432</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43434</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43441</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43441</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43455</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>43455</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>43470</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43471</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43471</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43471</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43473</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43474</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43475</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43476</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43480</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43483</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43486</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43509</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43516</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43523</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>43523</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>43528</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43529</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43529</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43530</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43532</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43535</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43536</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43536</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43539</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43542</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43543</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43545</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43552</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43552</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43556</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43558</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43558</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43588</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43592</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43594</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43598</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>43655</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43655</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>43655</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>43672</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>43676</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43682</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>43684</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>43684</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>43691</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>43691</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>43693</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>43697</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>43698</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>43700</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>43706</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43706</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43706</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43706</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43706</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43706</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>43706</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>43706</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>43706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>43712</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>43724</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43730</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>43731</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>43733</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43735</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>43739</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>43741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>43746</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>43748</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>43749</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>43755</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>43755</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43755</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43756</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43756</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>43759</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>43763</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>43768</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>43773</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>43773</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>43774</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>43775</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43780</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43780</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>43784</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>43787</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43787</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43790</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43790</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43794</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43801</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43801</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43803</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13910,7 +13910,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>43811</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>43839</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>43840</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>43843</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>43844</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>43852</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>43852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>43861</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43862</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43880</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43885</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43901</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43901</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43906</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43908</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43908</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>43922</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>43924</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>43927</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>43928</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>43928</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>43928</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>43928</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>43928</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>43934</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>43936</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>43936</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>43938</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>43938</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>43941</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>43945</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>43955</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>43958</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>43963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>43963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>43963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>43969</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>43970</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>43971</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>43976</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>43983</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>43983</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>43983</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43987</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>43987</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>43987</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>43992</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>43997</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44004</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44005</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44005</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44005</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>44008</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44014</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44018</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44018</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44032</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44039</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44039</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44046</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44057</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>44058</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>44060</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44060</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>44060</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44060</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44062</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44064</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>44070</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>44071</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>44075</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>44075</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>44077</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>44077</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18531,7 +18531,7 @@
         <v>44084</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
         <v>44084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44084</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>44084</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>44088</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>44088</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         <v>44092</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18935,7 +18935,7 @@
         <v>44095</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18992,7 +18992,7 @@
         <v>44097</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19049,7 +19049,7 @@
         <v>44097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44102</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
         <v>44102</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19220,7 +19220,7 @@
         <v>44104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         <v>44105</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>44113</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>44118</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>44120</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
         <v>44120</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19562,7 +19562,7 @@
         <v>44125</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>44127</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44132</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19748,7 +19748,7 @@
         <v>44136</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>44139</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>44139</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44139</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44145</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>44151</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20095,7 +20095,7 @@
         <v>44151</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>44151</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>44153</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44153</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>44162</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>44167</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20494,7 +20494,7 @@
         <v>44172</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44172</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20608,7 +20608,7 @@
         <v>44174</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
         <v>44186</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20722,7 +20722,7 @@
         <v>44186</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20779,7 +20779,7 @@
         <v>44187</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         <v>44194</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44200</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
         <v>44204</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>44208</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>44209</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21121,7 +21121,7 @@
         <v>44211</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         <v>44228</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>44229</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21292,7 +21292,7 @@
         <v>44230</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>44232</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21406,7 +21406,7 @@
         <v>44237</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>44237</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>44244</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21577,7 +21577,7 @@
         <v>44244</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21634,7 +21634,7 @@
         <v>44244</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         <v>44250</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21748,7 +21748,7 @@
         <v>44256</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21805,7 +21805,7 @@
         <v>44273</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21862,7 +21862,7 @@
         <v>44279</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21919,7 +21919,7 @@
         <v>44285</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44300</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44300</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22090,7 +22090,7 @@
         <v>44315</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22147,7 +22147,7 @@
         <v>44334</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22204,7 +22204,7 @@
         <v>44343</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>44344</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22318,7 +22318,7 @@
         <v>44358</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22375,7 +22375,7 @@
         <v>44368</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22432,7 +22432,7 @@
         <v>44385</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
         <v>44386</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         <v>44389</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22603,7 +22603,7 @@
         <v>44391</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22665,7 +22665,7 @@
         <v>44391</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22722,7 +22722,7 @@
         <v>44397</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22779,7 +22779,7 @@
         <v>44397</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22836,7 +22836,7 @@
         <v>44398</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22893,7 +22893,7 @@
         <v>44407</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22950,7 +22950,7 @@
         <v>44412</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23007,7 +23007,7 @@
         <v>44413</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>44413</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>44419</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44420</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44422</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>44422</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>44422</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>44424</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>44424</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>44426</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23602,7 +23602,7 @@
         <v>44430</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23659,7 +23659,7 @@
         <v>44430</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         <v>44430</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23773,7 +23773,7 @@
         <v>44430</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23830,7 +23830,7 @@
         <v>44431</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23887,7 +23887,7 @@
         <v>44434</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23944,7 +23944,7 @@
         <v>44435</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24001,7 +24001,7 @@
         <v>44438</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24058,7 +24058,7 @@
         <v>44438</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24115,7 +24115,7 @@
         <v>44438</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24172,7 +24172,7 @@
         <v>44438</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24229,7 +24229,7 @@
         <v>44442</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>44445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>44446</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44446</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>44447</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>44448</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>44449</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>44449</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>44449</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>44452</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24799,7 +24799,7 @@
         <v>44456</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24856,7 +24856,7 @@
         <v>44458</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24913,7 +24913,7 @@
         <v>44459</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24970,7 +24970,7 @@
         <v>44463</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>44467</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25089,7 +25089,7 @@
         <v>44467</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44474</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44474</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>44480</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25332,7 +25332,7 @@
         <v>44480</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         <v>44486</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>44487</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25503,7 +25503,7 @@
         <v>44487</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25560,7 +25560,7 @@
         <v>44487</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25617,7 +25617,7 @@
         <v>44487</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25674,7 +25674,7 @@
         <v>44487</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25731,7 +25731,7 @@
         <v>44487</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>44488</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>44491</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>44494</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>44495</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44497</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>44497</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>44497</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>44501</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>44503</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>44508</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>44508</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>44509</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>44509</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>44509</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44511</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>44512</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26710,7 +26710,7 @@
         <v>44514</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>44517</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>44518</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>44518</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>44522</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>44523</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>44529</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>44539</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27176,7 +27176,7 @@
         <v>44558</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27233,7 +27233,7 @@
         <v>44572</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         <v>44573</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27347,7 +27347,7 @@
         <v>44573</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27404,7 +27404,7 @@
         <v>44578</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27461,7 +27461,7 @@
         <v>44592</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27518,7 +27518,7 @@
         <v>44593</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27580,7 +27580,7 @@
         <v>44595</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27637,7 +27637,7 @@
         <v>44595</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27694,7 +27694,7 @@
         <v>44606</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27756,7 +27756,7 @@
         <v>44607</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27813,7 +27813,7 @@
         <v>44607</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27870,7 +27870,7 @@
         <v>44607</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27927,7 +27927,7 @@
         <v>44608</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27984,7 +27984,7 @@
         <v>44608</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>44608</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>44609</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28155,7 +28155,7 @@
         <v>44610</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28212,7 +28212,7 @@
         <v>44615</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         <v>44615</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28326,7 +28326,7 @@
         <v>44629</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28383,7 +28383,7 @@
         <v>44629</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>44631</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28497,7 +28497,7 @@
         <v>44637</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28554,7 +28554,7 @@
         <v>44637</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28611,7 +28611,7 @@
         <v>44637</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28668,7 +28668,7 @@
         <v>44637</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28725,7 +28725,7 @@
         <v>44638</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28782,7 +28782,7 @@
         <v>44641</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28844,7 +28844,7 @@
         <v>44641</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44641</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>44641</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29030,7 +29030,7 @@
         <v>44641</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29092,7 +29092,7 @@
         <v>44642</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29149,7 +29149,7 @@
         <v>44645</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29206,7 +29206,7 @@
         <v>44648</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29263,7 +29263,7 @@
         <v>44650</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29320,7 +29320,7 @@
         <v>44650</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29377,7 +29377,7 @@
         <v>44662</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>44662</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>44697</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44698</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44714</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>44714</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29719,7 +29719,7 @@
         <v>44721</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29776,7 +29776,7 @@
         <v>44723</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29833,7 +29833,7 @@
         <v>44729</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29890,7 +29890,7 @@
         <v>44733</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29952,7 +29952,7 @@
         <v>44733</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30009,7 +30009,7 @@
         <v>44733</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         <v>44734</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30123,7 +30123,7 @@
         <v>44734</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30180,7 +30180,7 @@
         <v>44734</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30237,7 +30237,7 @@
         <v>44739</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30294,7 +30294,7 @@
         <v>44753</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30356,7 +30356,7 @@
         <v>44753</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>44753</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30480,7 +30480,7 @@
         <v>44755</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30542,7 +30542,7 @@
         <v>44764</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30599,7 +30599,7 @@
         <v>44767</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30656,7 +30656,7 @@
         <v>44781</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30713,7 +30713,7 @@
         <v>44781</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30770,7 +30770,7 @@
         <v>44781</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30827,7 +30827,7 @@
         <v>44783</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30884,7 +30884,7 @@
         <v>44790</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30941,7 +30941,7 @@
         <v>44791</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30998,7 +30998,7 @@
         <v>44791</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31055,7 +31055,7 @@
         <v>44796</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31112,7 +31112,7 @@
         <v>44798</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31169,7 +31169,7 @@
         <v>44798</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31226,7 +31226,7 @@
         <v>44798</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31283,7 +31283,7 @@
         <v>44798</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31340,7 +31340,7 @@
         <v>44799</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31397,7 +31397,7 @@
         <v>44799</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31454,7 +31454,7 @@
         <v>44808</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31511,7 +31511,7 @@
         <v>44809</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31568,7 +31568,7 @@
         <v>44812</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31625,7 +31625,7 @@
         <v>44818</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>44828</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>44831</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44831</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>44834</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31920,7 +31920,7 @@
         <v>44844</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>44844</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44850</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44853</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44855</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44864</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44866</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44874</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>44874</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44928</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44929</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32557,7 +32557,7 @@
         <v>44929</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>44929</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32681,7 +32681,7 @@
         <v>44930</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32738,7 +32738,7 @@
         <v>44942</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32795,7 +32795,7 @@
         <v>44950</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32852,7 +32852,7 @@
         <v>44950</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>44957</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32966,7 +32966,7 @@
         <v>44959</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33023,7 +33023,7 @@
         <v>44959</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33080,7 +33080,7 @@
         <v>44964</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33137,7 +33137,7 @@
         <v>44966</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33194,7 +33194,7 @@
         <v>44971</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33251,7 +33251,7 @@
         <v>44993</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33308,7 +33308,7 @@
         <v>44993</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33365,7 +33365,7 @@
         <v>44995</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         <v>44995</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33489,7 +33489,7 @@
         <v>45000</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33546,7 +33546,7 @@
         <v>45002</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>45006</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>45013</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>45022</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>45028</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33841,7 +33841,7 @@
         <v>45030</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33898,7 +33898,7 @@
         <v>45030</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33960,7 +33960,7 @@
         <v>45030</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>45030</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34084,7 +34084,7 @@
         <v>45035</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34141,7 +34141,7 @@
         <v>45038</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34203,7 +34203,7 @@
         <v>45038</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>45052</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>45056</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>45058</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>45058</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>45072</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34550,7 +34550,7 @@
         <v>45073</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34612,7 +34612,7 @@
         <v>45078</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34669,7 +34669,7 @@
         <v>45089</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34726,7 +34726,7 @@
         <v>45092</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>45104</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34840,7 +34840,7 @@
         <v>45104</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34897,7 +34897,7 @@
         <v>45104</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34954,7 +34954,7 @@
         <v>45104</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         <v>45107</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>45111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35130,7 +35130,7 @@
         <v>45111</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35192,7 +35192,7 @@
         <v>45115</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35254,7 +35254,7 @@
         <v>45115</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35316,7 +35316,7 @@
         <v>45115</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35378,7 +35378,7 @@
         <v>45115</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35440,7 +35440,7 @@
         <v>45115</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>45115</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35564,7 +35564,7 @@
         <v>45119</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35621,7 +35621,7 @@
         <v>45140</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35678,7 +35678,7 @@
         <v>45141</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35735,7 +35735,7 @@
         <v>45141</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35792,7 +35792,7 @@
         <v>45162</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35849,7 +35849,7 @@
         <v>45162</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>45162</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35963,7 +35963,7 @@
         <v>45182</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>

--- a/Översikt ASKERSUND.xlsx
+++ b/Översikt ASKERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>43769</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44574</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45132</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44950</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43902</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>44579</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44859</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43697</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>44375</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>44474</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44812</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44942</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43530</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>43556</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43773</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>43773</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43902</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43908</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44088</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>44088</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44194</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44463</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44463</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>44587</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44649</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44993</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45038</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>45107</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43467</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43521</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43539</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43608</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43691</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43691</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>43886</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43928</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43928</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>44020</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>44035</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44067</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>44200</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>44416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44452</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44461</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>44518</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44587</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44757</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44859</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>44993</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45030</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>45104</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>45106</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>45111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>45115</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43318</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43343</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43346</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43355</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43355</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43362</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43385</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43385</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43398</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>43398</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43404</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43409</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>43411</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43416</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43420</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>43423</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>43423</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43432</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43434</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43441</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43441</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43455</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>43455</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>43470</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43471</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43471</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43471</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43473</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43474</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43475</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43476</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43480</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43483</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43486</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43509</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43516</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43523</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>43523</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>43528</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43529</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43529</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43530</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43532</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43535</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43536</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43536</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43539</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43542</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43543</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43545</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43552</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43552</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43556</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43558</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43558</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43588</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43592</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43594</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43598</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>43655</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43655</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>43655</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>43672</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>43676</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43682</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>43684</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>43684</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>43691</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>43691</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>43693</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>43697</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>43698</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>43700</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>43706</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43706</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43706</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43706</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43706</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43706</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>43706</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>43706</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>43706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>43712</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>43724</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43730</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>43731</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>43733</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43735</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>43739</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>43741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>43746</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>43748</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>43749</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>43755</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>43755</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43755</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43756</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43756</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>43759</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>43763</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>43768</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>43773</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>43773</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>43774</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>43775</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43780</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43780</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>43784</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>43787</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43787</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43790</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43790</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43794</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43801</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43801</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43803</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13910,7 +13910,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>43811</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>43839</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>43840</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>43843</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>43844</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>43852</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>43852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>43861</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43862</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43880</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43885</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43901</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43901</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43906</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43908</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43908</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>43922</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>43924</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>43927</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>43928</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>43928</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>43928</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>43928</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>43928</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>43934</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>43936</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>43936</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>43938</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>43938</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>43941</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>43945</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>43955</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>43958</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>43963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>43963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>43963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>43969</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>43970</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>43971</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>43976</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>43983</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>43983</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>43983</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43987</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>43987</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>43987</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>43992</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>43997</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44004</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44005</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44005</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44005</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>44008</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44014</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44018</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44018</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44032</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44039</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44039</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44046</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44057</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>44058</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>44060</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44060</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>44060</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44060</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44062</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44064</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>44070</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>44071</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>44075</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>44075</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>44077</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>44077</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18531,7 +18531,7 @@
         <v>44084</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
         <v>44084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44084</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>44084</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>44088</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>44088</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         <v>44092</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18935,7 +18935,7 @@
         <v>44095</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18992,7 +18992,7 @@
         <v>44097</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19049,7 +19049,7 @@
         <v>44097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44102</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
         <v>44102</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19220,7 +19220,7 @@
         <v>44104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         <v>44105</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>44113</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>44118</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>44120</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
         <v>44120</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19562,7 +19562,7 @@
         <v>44125</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>44127</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44132</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19748,7 +19748,7 @@
         <v>44136</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>44139</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>44139</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44139</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44145</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>44151</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20095,7 +20095,7 @@
         <v>44151</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>44151</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>44153</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44153</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>44162</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>44167</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20494,7 +20494,7 @@
         <v>44172</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44172</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20608,7 +20608,7 @@
         <v>44174</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
         <v>44186</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20722,7 +20722,7 @@
         <v>44186</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20779,7 +20779,7 @@
         <v>44187</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         <v>44194</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44200</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
         <v>44204</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>44208</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>44209</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21121,7 +21121,7 @@
         <v>44211</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         <v>44228</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>44229</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21292,7 +21292,7 @@
         <v>44230</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>44232</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21406,7 +21406,7 @@
         <v>44237</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>44237</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>44244</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21577,7 +21577,7 @@
         <v>44244</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21634,7 +21634,7 @@
         <v>44244</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         <v>44250</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21748,7 +21748,7 @@
         <v>44256</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21805,7 +21805,7 @@
         <v>44273</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21862,7 +21862,7 @@
         <v>44279</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21919,7 +21919,7 @@
         <v>44285</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44300</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44300</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22090,7 +22090,7 @@
         <v>44315</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22147,7 +22147,7 @@
         <v>44334</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22204,7 +22204,7 @@
         <v>44343</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>44344</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22318,7 +22318,7 @@
         <v>44358</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22375,7 +22375,7 @@
         <v>44368</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22432,7 +22432,7 @@
         <v>44385</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
         <v>44386</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         <v>44389</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22603,7 +22603,7 @@
         <v>44391</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22665,7 +22665,7 @@
         <v>44391</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22722,7 +22722,7 @@
         <v>44397</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22779,7 +22779,7 @@
         <v>44397</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22836,7 +22836,7 @@
         <v>44398</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22893,7 +22893,7 @@
         <v>44407</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22950,7 +22950,7 @@
         <v>44412</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23007,7 +23007,7 @@
         <v>44413</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>44413</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>44419</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44420</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44422</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>44422</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>44422</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>44424</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>44424</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>44426</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23602,7 +23602,7 @@
         <v>44430</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23659,7 +23659,7 @@
         <v>44430</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         <v>44430</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23773,7 +23773,7 @@
         <v>44430</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23830,7 +23830,7 @@
         <v>44431</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23887,7 +23887,7 @@
         <v>44434</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23944,7 +23944,7 @@
         <v>44435</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24001,7 +24001,7 @@
         <v>44438</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24058,7 +24058,7 @@
         <v>44438</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24115,7 +24115,7 @@
         <v>44438</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24172,7 +24172,7 @@
         <v>44438</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24229,7 +24229,7 @@
         <v>44442</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>44445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>44446</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44446</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>44447</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>44448</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>44449</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>44449</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>44449</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>44452</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24799,7 +24799,7 @@
         <v>44456</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24856,7 +24856,7 @@
         <v>44458</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24913,7 +24913,7 @@
         <v>44459</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24970,7 +24970,7 @@
         <v>44463</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>44467</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25089,7 +25089,7 @@
         <v>44467</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44474</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44474</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>44480</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25332,7 +25332,7 @@
         <v>44480</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         <v>44486</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>44487</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25503,7 +25503,7 @@
         <v>44487</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25560,7 +25560,7 @@
         <v>44487</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25617,7 +25617,7 @@
         <v>44487</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25674,7 +25674,7 @@
         <v>44487</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25731,7 +25731,7 @@
         <v>44487</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>44488</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>44491</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>44494</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>44495</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44497</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>44497</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>44497</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>44501</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>44503</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>44508</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>44508</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>44509</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>44509</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>44509</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44511</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>44512</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26710,7 +26710,7 @@
         <v>44514</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>44517</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>44518</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>44518</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>44522</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>44523</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>44529</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>44539</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27176,7 +27176,7 @@
         <v>44558</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27233,7 +27233,7 @@
         <v>44572</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         <v>44573</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27347,7 +27347,7 @@
         <v>44573</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27404,7 +27404,7 @@
         <v>44578</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27461,7 +27461,7 @@
         <v>44592</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27518,7 +27518,7 @@
         <v>44593</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27580,7 +27580,7 @@
         <v>44595</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27637,7 +27637,7 @@
         <v>44595</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27694,7 +27694,7 @@
         <v>44606</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27756,7 +27756,7 @@
         <v>44607</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27813,7 +27813,7 @@
         <v>44607</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27870,7 +27870,7 @@
         <v>44607</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27927,7 +27927,7 @@
         <v>44608</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27984,7 +27984,7 @@
         <v>44608</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>44608</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>44609</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28155,7 +28155,7 @@
         <v>44610</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28212,7 +28212,7 @@
         <v>44615</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         <v>44615</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28326,7 +28326,7 @@
         <v>44629</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28383,7 +28383,7 @@
         <v>44629</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>44631</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28497,7 +28497,7 @@
         <v>44637</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28554,7 +28554,7 @@
         <v>44637</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28611,7 +28611,7 @@
         <v>44637</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28668,7 +28668,7 @@
         <v>44637</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28725,7 +28725,7 @@
         <v>44638</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28782,7 +28782,7 @@
         <v>44641</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28844,7 +28844,7 @@
         <v>44641</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44641</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>44641</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29030,7 +29030,7 @@
         <v>44641</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29092,7 +29092,7 @@
         <v>44642</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29149,7 +29149,7 @@
         <v>44645</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29206,7 +29206,7 @@
         <v>44648</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29263,7 +29263,7 @@
         <v>44650</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29320,7 +29320,7 @@
         <v>44650</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29377,7 +29377,7 @@
         <v>44662</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>44662</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>44697</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44698</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44714</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>44714</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29719,7 +29719,7 @@
         <v>44721</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29776,7 +29776,7 @@
         <v>44723</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29833,7 +29833,7 @@
         <v>44729</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29890,7 +29890,7 @@
         <v>44733</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29952,7 +29952,7 @@
         <v>44733</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30009,7 +30009,7 @@
         <v>44733</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         <v>44734</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30123,7 +30123,7 @@
         <v>44734</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30180,7 +30180,7 @@
         <v>44734</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30237,7 +30237,7 @@
         <v>44739</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30294,7 +30294,7 @@
         <v>44753</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30356,7 +30356,7 @@
         <v>44753</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>44753</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30480,7 +30480,7 @@
         <v>44755</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30542,7 +30542,7 @@
         <v>44764</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30599,7 +30599,7 @@
         <v>44767</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30656,7 +30656,7 @@
         <v>44781</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30713,7 +30713,7 @@
         <v>44781</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30770,7 +30770,7 @@
         <v>44781</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30827,7 +30827,7 @@
         <v>44783</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30884,7 +30884,7 @@
         <v>44790</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30941,7 +30941,7 @@
         <v>44791</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30998,7 +30998,7 @@
         <v>44791</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31055,7 +31055,7 @@
         <v>44796</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31112,7 +31112,7 @@
         <v>44798</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31169,7 +31169,7 @@
         <v>44798</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31226,7 +31226,7 @@
         <v>44798</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31283,7 +31283,7 @@
         <v>44798</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31340,7 +31340,7 @@
         <v>44799</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31397,7 +31397,7 @@
         <v>44799</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31454,7 +31454,7 @@
         <v>44808</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31511,7 +31511,7 @@
         <v>44809</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31568,7 +31568,7 @@
         <v>44812</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31625,7 +31625,7 @@
         <v>44818</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>44828</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>44831</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44831</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>44834</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31920,7 +31920,7 @@
         <v>44844</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>44844</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44850</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44853</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44855</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44864</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44866</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44874</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>44874</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44928</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44929</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32557,7 +32557,7 @@
         <v>44929</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>44929</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32681,7 +32681,7 @@
         <v>44930</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32738,7 +32738,7 @@
         <v>44942</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32795,7 +32795,7 @@
         <v>44950</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32852,7 +32852,7 @@
         <v>44950</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>44957</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32966,7 +32966,7 @@
         <v>44959</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33023,7 +33023,7 @@
         <v>44959</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33080,7 +33080,7 @@
         <v>44964</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33137,7 +33137,7 @@
         <v>44966</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33194,7 +33194,7 @@
         <v>44971</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33251,7 +33251,7 @@
         <v>44993</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33308,7 +33308,7 @@
         <v>44993</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33365,7 +33365,7 @@
         <v>44995</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         <v>44995</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33489,7 +33489,7 @@
         <v>45000</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33546,7 +33546,7 @@
         <v>45002</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>45006</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>45013</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>45022</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>45028</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33841,7 +33841,7 @@
         <v>45030</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33898,7 +33898,7 @@
         <v>45030</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33960,7 +33960,7 @@
         <v>45030</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>45030</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34084,7 +34084,7 @@
         <v>45035</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34141,7 +34141,7 @@
         <v>45038</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34203,7 +34203,7 @@
         <v>45038</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>45052</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>45056</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>45058</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>45058</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>45072</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34550,7 +34550,7 @@
         <v>45073</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34612,7 +34612,7 @@
         <v>45078</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34669,7 +34669,7 @@
         <v>45089</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34726,7 +34726,7 @@
         <v>45092</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>45104</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34840,7 +34840,7 @@
         <v>45104</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34897,7 +34897,7 @@
         <v>45104</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34954,7 +34954,7 @@
         <v>45104</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         <v>45107</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>45111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35130,7 +35130,7 @@
         <v>45111</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35192,7 +35192,7 @@
         <v>45115</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35254,7 +35254,7 @@
         <v>45115</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35316,7 +35316,7 @@
         <v>45115</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35378,7 +35378,7 @@
         <v>45115</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35440,7 +35440,7 @@
         <v>45115</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>45115</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35564,7 +35564,7 @@
         <v>45119</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35621,7 +35621,7 @@
         <v>45140</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35678,7 +35678,7 @@
         <v>45141</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35735,7 +35735,7 @@
         <v>45141</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35792,7 +35792,7 @@
         <v>45162</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35849,7 +35849,7 @@
         <v>45162</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>45162</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35963,7 +35963,7 @@
         <v>45182</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>

--- a/Översikt ASKERSUND.xlsx
+++ b/Översikt ASKERSUND.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y577"/>
+  <dimension ref="A1:Y578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43769</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44574</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45132</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44950</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43902</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>44579</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44859</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43697</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>44375</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>44474</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44812</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44942</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43530</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>43556</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43773</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>43773</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43902</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43908</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44088</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>44088</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44194</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44463</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44463</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>44587</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44649</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44993</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45038</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>45107</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43467</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43521</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43539</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43608</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43691</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43691</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>43886</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43928</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43928</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>44020</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>44035</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44067</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>44200</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>44416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44452</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44461</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>44518</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44587</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44757</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44859</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>44993</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45030</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>45104</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>45106</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>45111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>45115</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43318</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43343</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43346</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43355</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43355</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43362</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43385</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43385</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43398</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>43398</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43404</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43409</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>43411</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43416</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43420</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>43423</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>43423</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43432</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43434</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43441</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43441</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43455</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>43455</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>43470</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43471</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43471</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43471</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43473</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43474</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43475</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43476</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43480</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43483</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43486</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43509</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43516</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43523</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>43523</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>43528</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43529</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43529</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43530</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43532</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43535</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43536</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43536</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43539</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43542</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43543</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43545</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43552</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43552</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43556</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43558</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43558</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43588</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43592</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43594</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43598</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>43655</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43655</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>43655</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>43672</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>43676</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43682</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>43684</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>43684</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>43691</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>43691</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>43693</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>43697</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>43698</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>43700</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>43706</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43706</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43706</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43706</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43706</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43706</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>43706</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>43706</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>43706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>43712</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>43724</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43730</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>43731</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>43733</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43735</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>43739</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>43741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>43746</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>43748</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>43749</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>43755</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>43755</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43755</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43756</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43756</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>43759</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>43763</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>43768</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>43773</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>43773</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>43774</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>43775</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43780</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43780</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>43784</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>43787</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43787</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43790</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43790</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43794</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43801</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43801</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43803</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13910,7 +13910,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>43811</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>43839</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>43840</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>43843</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>43844</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>43852</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>43852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>43861</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43862</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43880</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43885</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43901</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43901</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43906</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43908</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43908</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>43922</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>43924</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>43927</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>43928</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>43928</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>43928</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>43928</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>43928</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>43934</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>43936</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>43936</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>43938</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>43938</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>43941</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>43945</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>43955</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>43958</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>43963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>43963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>43963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>43969</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>43970</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>43971</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>43976</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>43983</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>43983</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>43983</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43987</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>43987</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>43987</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>43992</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>43997</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44004</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44005</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44005</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44005</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>44008</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44014</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44018</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44018</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44032</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44039</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44039</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44046</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44057</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>44058</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>44060</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44060</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>44060</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44060</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44062</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44064</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>44070</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>44071</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>44075</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>44075</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>44077</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>44077</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18531,7 +18531,7 @@
         <v>44084</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
         <v>44084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44084</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>44084</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>44088</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>44088</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         <v>44092</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18935,7 +18935,7 @@
         <v>44095</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18992,7 +18992,7 @@
         <v>44097</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19049,7 +19049,7 @@
         <v>44097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44102</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
         <v>44102</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19220,7 +19220,7 @@
         <v>44104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         <v>44105</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>44113</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>44118</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>44120</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
         <v>44120</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19562,7 +19562,7 @@
         <v>44125</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>44127</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44132</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19748,7 +19748,7 @@
         <v>44136</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>44139</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>44139</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44139</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44145</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>44151</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20095,7 +20095,7 @@
         <v>44151</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>44151</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>44153</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44153</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>44162</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>44167</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20494,7 +20494,7 @@
         <v>44172</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44172</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20608,7 +20608,7 @@
         <v>44174</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
         <v>44186</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20722,7 +20722,7 @@
         <v>44186</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20779,7 +20779,7 @@
         <v>44187</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         <v>44194</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44200</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
         <v>44204</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>44208</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>44209</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21121,7 +21121,7 @@
         <v>44211</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         <v>44228</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>44229</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21292,7 +21292,7 @@
         <v>44230</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>44232</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21406,7 +21406,7 @@
         <v>44237</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>44237</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>44244</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21577,7 +21577,7 @@
         <v>44244</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21634,7 +21634,7 @@
         <v>44244</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         <v>44250</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21748,7 +21748,7 @@
         <v>44256</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21805,7 +21805,7 @@
         <v>44273</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21862,7 +21862,7 @@
         <v>44279</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21919,7 +21919,7 @@
         <v>44285</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44300</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44300</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22090,7 +22090,7 @@
         <v>44315</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22147,7 +22147,7 @@
         <v>44334</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22204,7 +22204,7 @@
         <v>44343</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>44344</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22318,7 +22318,7 @@
         <v>44358</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22375,7 +22375,7 @@
         <v>44368</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22432,7 +22432,7 @@
         <v>44385</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
         <v>44386</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         <v>44389</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22603,7 +22603,7 @@
         <v>44391</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22665,7 +22665,7 @@
         <v>44391</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22722,7 +22722,7 @@
         <v>44397</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22779,7 +22779,7 @@
         <v>44397</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22836,7 +22836,7 @@
         <v>44398</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22893,7 +22893,7 @@
         <v>44407</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22950,7 +22950,7 @@
         <v>44412</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23007,7 +23007,7 @@
         <v>44413</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>44413</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>44419</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44420</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44422</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>44422</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>44422</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>44424</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>44424</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>44426</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23602,7 +23602,7 @@
         <v>44430</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23659,7 +23659,7 @@
         <v>44430</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         <v>44430</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23773,7 +23773,7 @@
         <v>44430</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23830,7 +23830,7 @@
         <v>44431</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23887,7 +23887,7 @@
         <v>44434</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23944,7 +23944,7 @@
         <v>44435</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24001,7 +24001,7 @@
         <v>44438</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24058,7 +24058,7 @@
         <v>44438</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24115,7 +24115,7 @@
         <v>44438</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24172,7 +24172,7 @@
         <v>44438</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24229,7 +24229,7 @@
         <v>44442</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>44445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>44446</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44446</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>44447</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>44448</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>44449</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>44449</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>44449</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>44452</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24799,7 +24799,7 @@
         <v>44456</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24856,7 +24856,7 @@
         <v>44458</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24913,7 +24913,7 @@
         <v>44459</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24970,7 +24970,7 @@
         <v>44463</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>44467</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25089,7 +25089,7 @@
         <v>44467</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44474</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44474</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>44480</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25332,7 +25332,7 @@
         <v>44480</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         <v>44486</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>44487</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25503,7 +25503,7 @@
         <v>44487</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25560,7 +25560,7 @@
         <v>44487</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25617,7 +25617,7 @@
         <v>44487</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25674,7 +25674,7 @@
         <v>44487</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25731,7 +25731,7 @@
         <v>44487</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>44488</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>44491</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>44494</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>44495</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44497</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>44497</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>44497</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>44501</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>44503</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>44508</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>44508</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>44509</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>44509</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>44509</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44511</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>44512</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26710,7 +26710,7 @@
         <v>44514</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>44517</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>44518</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>44518</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>44522</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>44523</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>44529</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>44539</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27176,7 +27176,7 @@
         <v>44558</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27233,7 +27233,7 @@
         <v>44572</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         <v>44573</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27347,7 +27347,7 @@
         <v>44573</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27404,7 +27404,7 @@
         <v>44578</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27461,7 +27461,7 @@
         <v>44592</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27518,7 +27518,7 @@
         <v>44593</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27580,7 +27580,7 @@
         <v>44595</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27637,7 +27637,7 @@
         <v>44595</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27694,7 +27694,7 @@
         <v>44606</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27756,7 +27756,7 @@
         <v>44607</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27813,7 +27813,7 @@
         <v>44607</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27870,7 +27870,7 @@
         <v>44607</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27927,7 +27927,7 @@
         <v>44608</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27984,7 +27984,7 @@
         <v>44608</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>44608</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>44609</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28155,7 +28155,7 @@
         <v>44610</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28212,7 +28212,7 @@
         <v>44615</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         <v>44615</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28326,7 +28326,7 @@
         <v>44629</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28383,7 +28383,7 @@
         <v>44629</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>44631</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28497,7 +28497,7 @@
         <v>44637</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28554,7 +28554,7 @@
         <v>44637</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28611,7 +28611,7 @@
         <v>44637</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28668,7 +28668,7 @@
         <v>44637</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28725,7 +28725,7 @@
         <v>44638</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28782,7 +28782,7 @@
         <v>44641</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28844,7 +28844,7 @@
         <v>44641</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44641</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>44641</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29030,7 +29030,7 @@
         <v>44641</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29092,7 +29092,7 @@
         <v>44642</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29149,7 +29149,7 @@
         <v>44645</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29206,7 +29206,7 @@
         <v>44648</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29263,7 +29263,7 @@
         <v>44650</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29320,7 +29320,7 @@
         <v>44650</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29377,7 +29377,7 @@
         <v>44662</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>44662</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>44697</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44698</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44714</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>44714</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29719,7 +29719,7 @@
         <v>44721</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29776,7 +29776,7 @@
         <v>44723</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29833,7 +29833,7 @@
         <v>44729</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29890,7 +29890,7 @@
         <v>44733</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29952,7 +29952,7 @@
         <v>44733</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30009,7 +30009,7 @@
         <v>44733</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         <v>44734</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30123,7 +30123,7 @@
         <v>44734</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30180,7 +30180,7 @@
         <v>44734</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30237,7 +30237,7 @@
         <v>44739</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30294,7 +30294,7 @@
         <v>44753</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30356,7 +30356,7 @@
         <v>44753</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>44753</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30480,7 +30480,7 @@
         <v>44755</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30542,7 +30542,7 @@
         <v>44764</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30599,7 +30599,7 @@
         <v>44767</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30656,7 +30656,7 @@
         <v>44781</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30713,7 +30713,7 @@
         <v>44781</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30770,7 +30770,7 @@
         <v>44781</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30827,7 +30827,7 @@
         <v>44783</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30884,7 +30884,7 @@
         <v>44790</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30941,7 +30941,7 @@
         <v>44791</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30998,7 +30998,7 @@
         <v>44791</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31055,7 +31055,7 @@
         <v>44796</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31112,7 +31112,7 @@
         <v>44798</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31169,7 +31169,7 @@
         <v>44798</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31226,7 +31226,7 @@
         <v>44798</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31283,7 +31283,7 @@
         <v>44798</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31340,7 +31340,7 @@
         <v>44799</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31397,7 +31397,7 @@
         <v>44799</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31454,7 +31454,7 @@
         <v>44808</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31511,7 +31511,7 @@
         <v>44809</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31568,7 +31568,7 @@
         <v>44812</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31625,7 +31625,7 @@
         <v>44818</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>44828</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>44831</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44831</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>44834</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31920,7 +31920,7 @@
         <v>44844</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>44844</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44850</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44853</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44855</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44864</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44866</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44874</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>44874</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44928</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44929</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32557,7 +32557,7 @@
         <v>44929</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>44929</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32681,7 +32681,7 @@
         <v>44930</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32738,7 +32738,7 @@
         <v>44942</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32795,7 +32795,7 @@
         <v>44950</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32852,7 +32852,7 @@
         <v>44950</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>44957</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32966,7 +32966,7 @@
         <v>44959</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33023,7 +33023,7 @@
         <v>44959</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33080,7 +33080,7 @@
         <v>44964</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33137,7 +33137,7 @@
         <v>44966</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33194,7 +33194,7 @@
         <v>44971</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33251,7 +33251,7 @@
         <v>44993</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33308,7 +33308,7 @@
         <v>44993</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33365,7 +33365,7 @@
         <v>44995</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         <v>44995</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33489,7 +33489,7 @@
         <v>45000</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33546,7 +33546,7 @@
         <v>45002</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>45006</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>45013</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>45022</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>45028</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33841,7 +33841,7 @@
         <v>45030</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33898,7 +33898,7 @@
         <v>45030</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33960,7 +33960,7 @@
         <v>45030</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>45030</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34084,7 +34084,7 @@
         <v>45035</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34141,7 +34141,7 @@
         <v>45038</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34203,7 +34203,7 @@
         <v>45038</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>45052</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>45056</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>45058</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>45058</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>45072</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34550,7 +34550,7 @@
         <v>45073</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34612,7 +34612,7 @@
         <v>45078</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34669,7 +34669,7 @@
         <v>45089</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34726,7 +34726,7 @@
         <v>45092</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>45104</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34840,7 +34840,7 @@
         <v>45104</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34897,7 +34897,7 @@
         <v>45104</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34954,7 +34954,7 @@
         <v>45104</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         <v>45107</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>45111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35130,7 +35130,7 @@
         <v>45111</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35192,7 +35192,7 @@
         <v>45115</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35254,7 +35254,7 @@
         <v>45115</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35316,7 +35316,7 @@
         <v>45115</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35378,7 +35378,7 @@
         <v>45115</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35440,7 +35440,7 @@
         <v>45115</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>45115</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35564,7 +35564,7 @@
         <v>45119</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35621,7 +35621,7 @@
         <v>45140</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35678,7 +35678,7 @@
         <v>45141</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35735,7 +35735,7 @@
         <v>45141</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35792,7 +35792,7 @@
         <v>45162</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35849,7 +35849,7 @@
         <v>45162</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>45162</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35953,7 +35953,7 @@
       </c>
       <c r="R576" s="2" t="inlineStr"/>
     </row>
-    <row r="577">
+    <row r="577" ht="15" customHeight="1">
       <c r="A577" t="inlineStr">
         <is>
           <t>A 42811-2023</t>
@@ -35963,7 +35963,7 @@
         <v>45182</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36009,6 +36009,68 @@
         <v>0</v>
       </c>
       <c r="R577" s="2" t="inlineStr"/>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>A 44159-2023</t>
+        </is>
+      </c>
+      <c r="B578" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C578" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>ASKERSUND</t>
+        </is>
+      </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G578" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H578" t="n">
+        <v>0</v>
+      </c>
+      <c r="I578" t="n">
+        <v>0</v>
+      </c>
+      <c r="J578" t="n">
+        <v>0</v>
+      </c>
+      <c r="K578" t="n">
+        <v>0</v>
+      </c>
+      <c r="L578" t="n">
+        <v>0</v>
+      </c>
+      <c r="M578" t="n">
+        <v>0</v>
+      </c>
+      <c r="N578" t="n">
+        <v>0</v>
+      </c>
+      <c r="O578" t="n">
+        <v>0</v>
+      </c>
+      <c r="P578" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q578" t="n">
+        <v>0</v>
+      </c>
+      <c r="R578" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ASKERSUND.xlsx
+++ b/Översikt ASKERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>43769</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44574</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45132</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44950</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43902</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>44579</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44859</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43697</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>44375</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>44474</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44812</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44942</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43530</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>43556</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43773</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>43773</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43902</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43908</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44088</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>44088</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44194</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44463</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44463</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>44587</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44649</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44993</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45038</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>45107</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43467</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43521</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43539</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43608</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43691</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43691</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>43886</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43928</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43928</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>44020</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>44035</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44067</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>44200</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>44416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44452</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44461</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>44518</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44587</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44757</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44859</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>44993</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45030</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>45104</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>45106</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>45111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>45115</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43318</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43343</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43346</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43355</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43355</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43362</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43385</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43385</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43398</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>43398</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43404</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43409</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>43411</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43416</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43420</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>43423</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>43423</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43432</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43434</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43441</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43441</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43455</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>43455</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>43470</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43471</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43471</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43471</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43473</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43474</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43475</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43476</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43480</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43483</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43486</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43509</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43516</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43523</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>43523</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>43528</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43529</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43529</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43530</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43532</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43535</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43536</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43536</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43539</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43542</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43543</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43545</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43552</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43552</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43556</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43558</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43558</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43588</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43592</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43594</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43598</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>43655</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43655</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>43655</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>43672</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>43676</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43682</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>43684</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>43684</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>43691</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>43691</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>43693</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>43697</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>43698</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>43700</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>43706</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43706</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43706</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43706</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43706</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43706</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>43706</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>43706</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>43706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>43712</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>43724</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43730</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>43731</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>43733</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43735</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>43739</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>43741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>43746</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>43748</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>43749</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>43755</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>43755</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43755</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43756</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43756</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>43759</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>43763</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>43768</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>43773</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>43773</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>43774</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>43775</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43780</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43780</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>43784</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>43787</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43787</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43790</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43790</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43794</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43801</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43801</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43803</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13910,7 +13910,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>43811</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>43839</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>43840</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>43843</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>43844</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>43852</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>43852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>43861</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43862</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43880</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43885</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43901</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43901</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43906</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43908</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43908</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>43922</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>43924</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>43927</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>43928</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>43928</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>43928</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>43928</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>43928</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>43934</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>43936</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>43936</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>43938</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>43938</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>43941</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>43945</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>43955</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>43958</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>43963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>43963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>43963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>43969</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>43970</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>43971</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>43976</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>43983</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>43983</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>43983</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43987</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>43987</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>43987</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>43992</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>43997</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44004</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44005</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44005</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44005</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>44008</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44014</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44018</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44018</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44032</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44039</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44039</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44046</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44057</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>44058</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>44060</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44060</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>44060</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44060</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44062</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44064</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>44070</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>44071</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>44075</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>44075</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>44077</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>44077</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18531,7 +18531,7 @@
         <v>44084</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
         <v>44084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44084</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>44084</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>44088</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>44088</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         <v>44092</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18935,7 +18935,7 @@
         <v>44095</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18992,7 +18992,7 @@
         <v>44097</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19049,7 +19049,7 @@
         <v>44097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44102</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
         <v>44102</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19220,7 +19220,7 @@
         <v>44104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         <v>44105</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>44113</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>44118</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>44120</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
         <v>44120</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19562,7 +19562,7 @@
         <v>44125</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>44127</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44132</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19748,7 +19748,7 @@
         <v>44136</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>44139</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>44139</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44139</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44145</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>44151</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20095,7 +20095,7 @@
         <v>44151</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>44151</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>44153</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44153</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>44162</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>44167</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20494,7 +20494,7 @@
         <v>44172</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44172</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20608,7 +20608,7 @@
         <v>44174</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
         <v>44186</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20722,7 +20722,7 @@
         <v>44186</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20779,7 +20779,7 @@
         <v>44187</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         <v>44194</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44200</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
         <v>44204</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>44208</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>44209</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21121,7 +21121,7 @@
         <v>44211</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         <v>44228</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>44229</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21292,7 +21292,7 @@
         <v>44230</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>44232</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21406,7 +21406,7 @@
         <v>44237</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>44237</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>44244</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21577,7 +21577,7 @@
         <v>44244</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21634,7 +21634,7 @@
         <v>44244</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         <v>44250</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21748,7 +21748,7 @@
         <v>44256</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21805,7 +21805,7 @@
         <v>44273</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21862,7 +21862,7 @@
         <v>44279</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21919,7 +21919,7 @@
         <v>44285</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44300</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44300</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22090,7 +22090,7 @@
         <v>44315</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22147,7 +22147,7 @@
         <v>44334</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22204,7 +22204,7 @@
         <v>44343</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>44344</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22318,7 +22318,7 @@
         <v>44358</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22375,7 +22375,7 @@
         <v>44368</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22432,7 +22432,7 @@
         <v>44385</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
         <v>44386</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         <v>44389</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22603,7 +22603,7 @@
         <v>44391</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22665,7 +22665,7 @@
         <v>44391</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22722,7 +22722,7 @@
         <v>44397</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22779,7 +22779,7 @@
         <v>44397</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22836,7 +22836,7 @@
         <v>44398</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22893,7 +22893,7 @@
         <v>44407</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22950,7 +22950,7 @@
         <v>44412</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23007,7 +23007,7 @@
         <v>44413</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>44413</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>44419</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44420</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44422</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>44422</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>44422</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>44424</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>44424</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>44426</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23602,7 +23602,7 @@
         <v>44430</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23659,7 +23659,7 @@
         <v>44430</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         <v>44430</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23773,7 +23773,7 @@
         <v>44430</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23830,7 +23830,7 @@
         <v>44431</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23887,7 +23887,7 @@
         <v>44434</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23944,7 +23944,7 @@
         <v>44435</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24001,7 +24001,7 @@
         <v>44438</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24058,7 +24058,7 @@
         <v>44438</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24115,7 +24115,7 @@
         <v>44438</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24172,7 +24172,7 @@
         <v>44438</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24229,7 +24229,7 @@
         <v>44442</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>44445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>44446</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44446</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>44447</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>44448</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>44449</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>44449</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>44449</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>44452</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24799,7 +24799,7 @@
         <v>44456</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24856,7 +24856,7 @@
         <v>44458</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24913,7 +24913,7 @@
         <v>44459</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24970,7 +24970,7 @@
         <v>44463</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>44467</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25089,7 +25089,7 @@
         <v>44467</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44474</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44474</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>44480</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25332,7 +25332,7 @@
         <v>44480</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         <v>44486</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>44487</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25503,7 +25503,7 @@
         <v>44487</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25560,7 +25560,7 @@
         <v>44487</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25617,7 +25617,7 @@
         <v>44487</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25674,7 +25674,7 @@
         <v>44487</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25731,7 +25731,7 @@
         <v>44487</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>44488</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>44491</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>44494</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>44495</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44497</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>44497</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>44497</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>44501</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>44503</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>44508</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>44508</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>44509</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>44509</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>44509</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44511</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>44512</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26710,7 +26710,7 @@
         <v>44514</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>44517</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>44518</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>44518</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>44522</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>44523</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>44529</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>44539</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27176,7 +27176,7 @@
         <v>44558</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27233,7 +27233,7 @@
         <v>44572</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         <v>44573</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27347,7 +27347,7 @@
         <v>44573</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27404,7 +27404,7 @@
         <v>44578</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27461,7 +27461,7 @@
         <v>44592</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27518,7 +27518,7 @@
         <v>44593</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27580,7 +27580,7 @@
         <v>44595</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27637,7 +27637,7 @@
         <v>44595</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27694,7 +27694,7 @@
         <v>44606</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27756,7 +27756,7 @@
         <v>44607</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27813,7 +27813,7 @@
         <v>44607</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27870,7 +27870,7 @@
         <v>44607</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27927,7 +27927,7 @@
         <v>44608</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27984,7 +27984,7 @@
         <v>44608</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>44608</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>44609</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28155,7 +28155,7 @@
         <v>44610</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28212,7 +28212,7 @@
         <v>44615</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         <v>44615</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28326,7 +28326,7 @@
         <v>44629</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28383,7 +28383,7 @@
         <v>44629</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>44631</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28497,7 +28497,7 @@
         <v>44637</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28554,7 +28554,7 @@
         <v>44637</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28611,7 +28611,7 @@
         <v>44637</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28668,7 +28668,7 @@
         <v>44637</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28725,7 +28725,7 @@
         <v>44638</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28782,7 +28782,7 @@
         <v>44641</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28844,7 +28844,7 @@
         <v>44641</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44641</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>44641</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29030,7 +29030,7 @@
         <v>44641</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29092,7 +29092,7 @@
         <v>44642</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29149,7 +29149,7 @@
         <v>44645</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29206,7 +29206,7 @@
         <v>44648</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29263,7 +29263,7 @@
         <v>44650</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29320,7 +29320,7 @@
         <v>44650</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29377,7 +29377,7 @@
         <v>44662</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>44662</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>44697</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44698</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44714</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>44714</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29719,7 +29719,7 @@
         <v>44721</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29776,7 +29776,7 @@
         <v>44723</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29833,7 +29833,7 @@
         <v>44729</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29890,7 +29890,7 @@
         <v>44733</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29952,7 +29952,7 @@
         <v>44733</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30009,7 +30009,7 @@
         <v>44733</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         <v>44734</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30123,7 +30123,7 @@
         <v>44734</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30180,7 +30180,7 @@
         <v>44734</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30237,7 +30237,7 @@
         <v>44739</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30294,7 +30294,7 @@
         <v>44753</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30356,7 +30356,7 @@
         <v>44753</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>44753</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30480,7 +30480,7 @@
         <v>44755</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30542,7 +30542,7 @@
         <v>44764</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30599,7 +30599,7 @@
         <v>44767</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30656,7 +30656,7 @@
         <v>44781</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30713,7 +30713,7 @@
         <v>44781</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30770,7 +30770,7 @@
         <v>44781</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30827,7 +30827,7 @@
         <v>44783</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30884,7 +30884,7 @@
         <v>44790</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30941,7 +30941,7 @@
         <v>44791</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30998,7 +30998,7 @@
         <v>44791</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31055,7 +31055,7 @@
         <v>44796</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31112,7 +31112,7 @@
         <v>44798</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31169,7 +31169,7 @@
         <v>44798</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31226,7 +31226,7 @@
         <v>44798</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31283,7 +31283,7 @@
         <v>44798</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31340,7 +31340,7 @@
         <v>44799</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31397,7 +31397,7 @@
         <v>44799</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31454,7 +31454,7 @@
         <v>44808</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31511,7 +31511,7 @@
         <v>44809</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31568,7 +31568,7 @@
         <v>44812</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31625,7 +31625,7 @@
         <v>44818</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>44828</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>44831</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44831</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>44834</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31920,7 +31920,7 @@
         <v>44844</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>44844</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44850</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44853</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44855</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44864</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44866</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44874</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>44874</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44928</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44929</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32557,7 +32557,7 @@
         <v>44929</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>44929</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32681,7 +32681,7 @@
         <v>44930</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32738,7 +32738,7 @@
         <v>44942</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32795,7 +32795,7 @@
         <v>44950</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32852,7 +32852,7 @@
         <v>44950</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>44957</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32966,7 +32966,7 @@
         <v>44959</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33023,7 +33023,7 @@
         <v>44959</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33080,7 +33080,7 @@
         <v>44964</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33137,7 +33137,7 @@
         <v>44966</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33194,7 +33194,7 @@
         <v>44971</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33251,7 +33251,7 @@
         <v>44993</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33308,7 +33308,7 @@
         <v>44993</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33365,7 +33365,7 @@
         <v>44995</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         <v>44995</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33489,7 +33489,7 @@
         <v>45000</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33546,7 +33546,7 @@
         <v>45002</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>45006</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>45013</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>45022</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>45028</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33841,7 +33841,7 @@
         <v>45030</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33898,7 +33898,7 @@
         <v>45030</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33960,7 +33960,7 @@
         <v>45030</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>45030</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34084,7 +34084,7 @@
         <v>45035</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34141,7 +34141,7 @@
         <v>45038</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34203,7 +34203,7 @@
         <v>45038</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>45052</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>45056</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>45058</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>45058</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>45072</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34550,7 +34550,7 @@
         <v>45073</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34612,7 +34612,7 @@
         <v>45078</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34669,7 +34669,7 @@
         <v>45089</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34726,7 +34726,7 @@
         <v>45092</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>45104</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34840,7 +34840,7 @@
         <v>45104</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34897,7 +34897,7 @@
         <v>45104</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34954,7 +34954,7 @@
         <v>45104</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         <v>45107</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>45111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35130,7 +35130,7 @@
         <v>45111</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35192,7 +35192,7 @@
         <v>45115</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35254,7 +35254,7 @@
         <v>45115</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35316,7 +35316,7 @@
         <v>45115</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35378,7 +35378,7 @@
         <v>45115</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35440,7 +35440,7 @@
         <v>45115</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>45115</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35564,7 +35564,7 @@
         <v>45119</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35621,7 +35621,7 @@
         <v>45140</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35678,7 +35678,7 @@
         <v>45141</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35735,7 +35735,7 @@
         <v>45141</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35792,7 +35792,7 @@
         <v>45162</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35849,7 +35849,7 @@
         <v>45162</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>45162</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35963,7 +35963,7 @@
         <v>45182</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36020,7 +36020,7 @@
         <v>45188</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>

--- a/Översikt ASKERSUND.xlsx
+++ b/Översikt ASKERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>43769</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44574</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45132</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44950</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43902</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>44579</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44859</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43697</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44153</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>44300</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>44375</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44474</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44812</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>44942</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43530</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43556</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>43773</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2443,7 +2443,7 @@
         <v>43773</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43902</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43908</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>44088</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>44088</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>44194</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>44463</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>44463</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>44587</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>44649</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>44722</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>44993</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>45038</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>45107</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>43385</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43441</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43467</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43521</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>43539</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43608</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43691</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43691</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         <v>43928</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>43928</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>44020</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>44035</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44067</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>44200</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>44416</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>44452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>44461</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44476</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>44518</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>44587</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>44757</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>44859</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44993</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>45030</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>45104</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>45106</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>45111</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>45115</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>43318</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>43343</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         <v>43346</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         <v>43348</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>43355</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43355</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>43362</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>43385</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43385</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43398</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43398</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43404</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43409</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43411</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43416</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43420</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43423</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43423</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43432</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43432</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>43434</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43441</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>43441</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>43455</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43455</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43470</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43471</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43471</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43471</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43473</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43474</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>43475</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>43476</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43480</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43482</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43483</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43486</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>43509</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43516</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>43523</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>43523</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>43528</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>43529</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43529</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43530</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43532</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43535</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43536</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43536</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43539</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43542</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43543</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43545</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43552</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43552</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43556</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43558</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43558</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43570</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43588</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>43592</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43594</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43598</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43608</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43655</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43655</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43655</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43672</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43676</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43682</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>43684</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>43684</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43690</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43691</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>43691</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>43691</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>43693</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11022,7 +11022,7 @@
         <v>43697</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>43698</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>43700</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>43706</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>43706</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43706</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>43706</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>43706</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         <v>43706</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43706</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>43706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>43706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11751,7 +11751,7 @@
         <v>43706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11813,7 +11813,7 @@
         <v>43706</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         <v>43711</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11989,7 +11989,7 @@
         <v>43724</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>43730</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>43731</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>43733</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>43735</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>43739</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>43741</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>43746</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>43748</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>43749</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>43749</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>43755</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>43755</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>43755</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43756</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>43756</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>43759</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>43763</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>43768</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>43773</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>43773</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>43774</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>43775</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>43780</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>43780</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>43784</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>43787</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         <v>43787</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>43790</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>43790</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13764,7 +13764,7 @@
         <v>43794</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13821,7 +13821,7 @@
         <v>43801</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13878,7 +13878,7 @@
         <v>43801</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13935,7 +13935,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>43803</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>43811</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14121,7 +14121,7 @@
         <v>43839</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14178,7 +14178,7 @@
         <v>43840</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14235,7 +14235,7 @@
         <v>43843</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>43844</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>43852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>43852</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14468,7 +14468,7 @@
         <v>43861</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14525,7 +14525,7 @@
         <v>43862</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14582,7 +14582,7 @@
         <v>43880</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14639,7 +14639,7 @@
         <v>43885</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>43901</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14753,7 +14753,7 @@
         <v>43901</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>43906</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>43908</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>43908</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>43922</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>43924</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>43927</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>43928</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>43928</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>43928</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>43928</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15410,7 +15410,7 @@
         <v>43928</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>43934</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>43936</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>43936</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>43938</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>43938</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>43941</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>43945</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>43955</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>43958</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>43963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>43963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>43963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16191,7 +16191,7 @@
         <v>43963</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16253,7 +16253,7 @@
         <v>43969</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>43970</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         <v>43971</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
         <v>43976</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16486,7 +16486,7 @@
         <v>43983</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>43983</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>43983</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>43984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>43987</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>43987</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>43987</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>43992</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>43997</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44004</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>44005</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>44005</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>44005</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>44008</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>44014</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>44018</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>44018</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>44032</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17582,7 +17582,7 @@
         <v>44039</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17639,7 +17639,7 @@
         <v>44039</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>44046</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17753,7 +17753,7 @@
         <v>44057</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>44057</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17867,7 +17867,7 @@
         <v>44058</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17924,7 +17924,7 @@
         <v>44060</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         <v>44060</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18043,7 +18043,7 @@
         <v>44060</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44060</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44062</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44064</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>44070</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44071</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44075</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44075</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44077</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44077</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18618,7 +18618,7 @@
         <v>44084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18675,7 +18675,7 @@
         <v>44084</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44084</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18789,7 +18789,7 @@
         <v>44084</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44088</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>44088</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>44092</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19022,7 +19022,7 @@
         <v>44095</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>44097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         <v>44097</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         <v>44102</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19250,7 +19250,7 @@
         <v>44102</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19307,7 +19307,7 @@
         <v>44104</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19364,7 +19364,7 @@
         <v>44105</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19421,7 +19421,7 @@
         <v>44113</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         <v>44118</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19535,7 +19535,7 @@
         <v>44120</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19592,7 +19592,7 @@
         <v>44120</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19649,7 +19649,7 @@
         <v>44125</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19711,7 +19711,7 @@
         <v>44127</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         <v>44132</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>44136</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>44139</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>44139</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20011,7 +20011,7 @@
         <v>44139</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20068,7 +20068,7 @@
         <v>44145</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20125,7 +20125,7 @@
         <v>44151</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20182,7 +20182,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20239,7 +20239,7 @@
         <v>44151</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20296,7 +20296,7 @@
         <v>44151</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20353,7 +20353,7 @@
         <v>44153</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20410,7 +20410,7 @@
         <v>44162</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>44167</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>44172</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20581,7 +20581,7 @@
         <v>44172</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>44174</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>44186</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20752,7 +20752,7 @@
         <v>44186</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>44187</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44194</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>44200</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44204</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44208</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>44209</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>44211</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>44228</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>44229</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>44230</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>44232</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44237</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>44237</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44244</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>44244</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44244</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44250</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>44256</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>44273</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>44279</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>44285</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44300</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44300</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44315</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44334</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44343</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>44344</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44358</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44368</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44385</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44386</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44389</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44391</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44391</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44397</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44397</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44398</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44407</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44412</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44413</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44413</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44419</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23213,7 +23213,7 @@
         <v>44420</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23270,7 +23270,7 @@
         <v>44422</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23332,7 +23332,7 @@
         <v>44422</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23394,7 +23394,7 @@
         <v>44422</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44424</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44424</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44426</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44430</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>44430</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>44430</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>44430</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23860,7 +23860,7 @@
         <v>44431</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23917,7 +23917,7 @@
         <v>44434</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23974,7 +23974,7 @@
         <v>44435</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44438</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44438</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>44438</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         <v>44438</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24259,7 +24259,7 @@
         <v>44442</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>44445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44446</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44446</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44447</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44448</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44449</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44449</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44449</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44452</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44456</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44458</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44459</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         <v>44463</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25062,7 +25062,7 @@
         <v>44467</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25119,7 +25119,7 @@
         <v>44467</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25181,7 +25181,7 @@
         <v>44474</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25243,7 +25243,7 @@
         <v>44474</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25300,7 +25300,7 @@
         <v>44480</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25362,7 +25362,7 @@
         <v>44480</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25419,7 +25419,7 @@
         <v>44486</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25476,7 +25476,7 @@
         <v>44487</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25533,7 +25533,7 @@
         <v>44487</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25590,7 +25590,7 @@
         <v>44487</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25647,7 +25647,7 @@
         <v>44487</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25704,7 +25704,7 @@
         <v>44487</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25761,7 +25761,7 @@
         <v>44487</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25818,7 +25818,7 @@
         <v>44488</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>44491</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>44494</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25989,7 +25989,7 @@
         <v>44495</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26046,7 +26046,7 @@
         <v>44497</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26103,7 +26103,7 @@
         <v>44497</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26160,7 +26160,7 @@
         <v>44497</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26217,7 +26217,7 @@
         <v>44501</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26274,7 +26274,7 @@
         <v>44503</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26331,7 +26331,7 @@
         <v>44508</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26388,7 +26388,7 @@
         <v>44508</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26445,7 +26445,7 @@
         <v>44509</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26502,7 +26502,7 @@
         <v>44509</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26564,7 +26564,7 @@
         <v>44509</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>44511</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>44512</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>44514</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26797,7 +26797,7 @@
         <v>44517</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>44518</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26911,7 +26911,7 @@
         <v>44518</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26968,7 +26968,7 @@
         <v>44522</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>44523</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>44529</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27144,7 +27144,7 @@
         <v>44539</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>44558</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44572</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>44573</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>44573</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27434,7 +27434,7 @@
         <v>44578</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27491,7 +27491,7 @@
         <v>44592</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27548,7 +27548,7 @@
         <v>44593</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27610,7 +27610,7 @@
         <v>44595</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         <v>44595</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27724,7 +27724,7 @@
         <v>44606</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27786,7 +27786,7 @@
         <v>44607</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27843,7 +27843,7 @@
         <v>44607</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27900,7 +27900,7 @@
         <v>44607</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27957,7 +27957,7 @@
         <v>44608</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28014,7 +28014,7 @@
         <v>44608</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28071,7 +28071,7 @@
         <v>44608</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28128,7 +28128,7 @@
         <v>44609</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28185,7 +28185,7 @@
         <v>44610</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28242,7 +28242,7 @@
         <v>44615</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28299,7 +28299,7 @@
         <v>44615</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28356,7 +28356,7 @@
         <v>44629</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>44629</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28470,7 +28470,7 @@
         <v>44631</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28527,7 +28527,7 @@
         <v>44637</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28584,7 +28584,7 @@
         <v>44637</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28641,7 +28641,7 @@
         <v>44637</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28698,7 +28698,7 @@
         <v>44637</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28755,7 +28755,7 @@
         <v>44638</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28812,7 +28812,7 @@
         <v>44641</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28874,7 +28874,7 @@
         <v>44641</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>44641</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>44641</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
         <v>44641</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29122,7 +29122,7 @@
         <v>44642</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>44645</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>44648</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>44650</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>44650</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29407,7 +29407,7 @@
         <v>44662</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29464,7 +29464,7 @@
         <v>44662</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29521,7 +29521,7 @@
         <v>44697</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29578,7 +29578,7 @@
         <v>44698</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29635,7 +29635,7 @@
         <v>44714</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29692,7 +29692,7 @@
         <v>44714</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29749,7 +29749,7 @@
         <v>44721</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29806,7 +29806,7 @@
         <v>44723</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29863,7 +29863,7 @@
         <v>44729</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29920,7 +29920,7 @@
         <v>44733</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29982,7 +29982,7 @@
         <v>44733</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30039,7 +30039,7 @@
         <v>44733</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30096,7 +30096,7 @@
         <v>44734</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30153,7 +30153,7 @@
         <v>44734</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30210,7 +30210,7 @@
         <v>44734</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>44739</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30324,7 +30324,7 @@
         <v>44753</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>44753</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30448,7 +30448,7 @@
         <v>44753</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30510,7 +30510,7 @@
         <v>44755</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30572,7 +30572,7 @@
         <v>44764</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30629,7 +30629,7 @@
         <v>44767</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30686,7 +30686,7 @@
         <v>44781</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30743,7 +30743,7 @@
         <v>44781</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>44781</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30857,7 +30857,7 @@
         <v>44783</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30914,7 +30914,7 @@
         <v>44790</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30971,7 +30971,7 @@
         <v>44791</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31028,7 +31028,7 @@
         <v>44791</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31085,7 +31085,7 @@
         <v>44796</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31142,7 +31142,7 @@
         <v>44798</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31199,7 +31199,7 @@
         <v>44798</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31256,7 +31256,7 @@
         <v>44798</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31313,7 +31313,7 @@
         <v>44798</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31370,7 +31370,7 @@
         <v>44799</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31427,7 +31427,7 @@
         <v>44799</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31484,7 +31484,7 @@
         <v>44808</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31541,7 +31541,7 @@
         <v>44809</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31598,7 +31598,7 @@
         <v>44812</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31655,7 +31655,7 @@
         <v>44818</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31717,7 +31717,7 @@
         <v>44828</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31774,7 +31774,7 @@
         <v>44831</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31831,7 +31831,7 @@
         <v>44831</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31888,7 +31888,7 @@
         <v>44834</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31950,7 +31950,7 @@
         <v>44844</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32007,7 +32007,7 @@
         <v>44844</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32064,7 +32064,7 @@
         <v>44850</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>44853</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32178,7 +32178,7 @@
         <v>44855</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32235,7 +32235,7 @@
         <v>44864</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32292,7 +32292,7 @@
         <v>44866</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32349,7 +32349,7 @@
         <v>44874</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32406,7 +32406,7 @@
         <v>44874</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32468,7 +32468,7 @@
         <v>44928</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32525,7 +32525,7 @@
         <v>44929</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32587,7 +32587,7 @@
         <v>44929</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32649,7 +32649,7 @@
         <v>44929</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32711,7 +32711,7 @@
         <v>44930</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32768,7 +32768,7 @@
         <v>44942</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32825,7 +32825,7 @@
         <v>44950</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32882,7 +32882,7 @@
         <v>44950</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32939,7 +32939,7 @@
         <v>44957</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32996,7 +32996,7 @@
         <v>44959</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33053,7 +33053,7 @@
         <v>44959</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33110,7 +33110,7 @@
         <v>44964</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33167,7 +33167,7 @@
         <v>44966</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33224,7 +33224,7 @@
         <v>44971</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33281,7 +33281,7 @@
         <v>44993</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33338,7 +33338,7 @@
         <v>44993</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33395,7 +33395,7 @@
         <v>44995</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33457,7 +33457,7 @@
         <v>44995</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33519,7 +33519,7 @@
         <v>45000</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33576,7 +33576,7 @@
         <v>45002</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33638,7 +33638,7 @@
         <v>45006</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33695,7 +33695,7 @@
         <v>45013</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33752,7 +33752,7 @@
         <v>45022</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33809,7 +33809,7 @@
         <v>45028</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33871,7 +33871,7 @@
         <v>45030</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33928,7 +33928,7 @@
         <v>45030</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33990,7 +33990,7 @@
         <v>45030</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34052,7 +34052,7 @@
         <v>45030</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34114,7 +34114,7 @@
         <v>45035</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34171,7 +34171,7 @@
         <v>45038</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34233,7 +34233,7 @@
         <v>45038</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34295,7 +34295,7 @@
         <v>45052</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34352,7 +34352,7 @@
         <v>45056</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34409,7 +34409,7 @@
         <v>45058</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         <v>45058</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34523,7 +34523,7 @@
         <v>45072</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34580,7 +34580,7 @@
         <v>45073</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>45078</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>45089</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34756,7 +34756,7 @@
         <v>45092</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34813,7 +34813,7 @@
         <v>45104</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34870,7 +34870,7 @@
         <v>45104</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34927,7 +34927,7 @@
         <v>45104</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34984,7 +34984,7 @@
         <v>45104</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35041,7 +35041,7 @@
         <v>45107</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35098,7 +35098,7 @@
         <v>45111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35160,7 +35160,7 @@
         <v>45111</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35222,7 +35222,7 @@
         <v>45115</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35284,7 +35284,7 @@
         <v>45115</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         <v>45115</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35408,7 +35408,7 @@
         <v>45115</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35470,7 +35470,7 @@
         <v>45115</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35532,7 +35532,7 @@
         <v>45115</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35594,7 +35594,7 @@
         <v>45119</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35651,7 +35651,7 @@
         <v>45140</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35708,7 +35708,7 @@
         <v>45141</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35765,7 +35765,7 @@
         <v>45141</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35822,7 +35822,7 @@
         <v>45162</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35879,7 +35879,7 @@
         <v>45162</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35936,7 +35936,7 @@
         <v>45162</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35993,7 +35993,7 @@
         <v>45182</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36050,7 +36050,7 @@
         <v>45188</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>

--- a/Översikt ASKERSUND.xlsx
+++ b/Översikt ASKERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>43769</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44574</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45132</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44950</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43902</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>44579</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44859</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43697</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44153</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>44300</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>44375</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44474</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44812</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>44942</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43530</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43556</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>43773</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2443,7 +2443,7 @@
         <v>43773</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43902</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43908</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>44088</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>44088</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>44194</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>44463</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>44463</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>44587</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>44649</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>44722</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>44993</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>45038</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>45107</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>43385</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43441</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43467</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43521</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>43539</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43608</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43691</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43691</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         <v>43928</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>43928</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>44020</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>44035</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44067</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>44200</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>44416</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>44452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>44461</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44476</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>44518</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>44587</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>44757</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>44859</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44993</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>45030</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>45104</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>45106</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>45111</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>45115</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>43318</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>43343</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         <v>43346</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         <v>43348</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>43355</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43355</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>43362</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>43385</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43385</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43398</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43398</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43404</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43409</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43411</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43416</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43420</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43423</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43423</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43432</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43432</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>43434</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43441</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>43441</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>43455</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43455</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43470</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43471</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43471</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43471</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43473</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43474</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>43475</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>43476</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43480</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43482</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43483</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43486</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>43509</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43516</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>43523</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>43523</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>43528</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>43529</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43529</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43530</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43532</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43535</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43536</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43536</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43539</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43542</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43543</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43545</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43552</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43552</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43556</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43558</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43558</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43570</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43588</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>43592</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43594</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43598</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43608</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43655</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43655</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43655</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43672</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43676</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43682</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>43684</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>43684</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43690</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43691</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>43691</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>43691</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>43693</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11022,7 +11022,7 @@
         <v>43697</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>43698</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>43700</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>43706</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>43706</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43706</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>43706</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>43706</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         <v>43706</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43706</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>43706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>43706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11751,7 +11751,7 @@
         <v>43706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11813,7 +11813,7 @@
         <v>43706</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         <v>43711</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11989,7 +11989,7 @@
         <v>43724</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>43730</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>43731</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>43733</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>43735</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>43739</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>43741</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>43746</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>43748</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>43749</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>43749</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>43755</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>43755</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>43755</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43756</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>43756</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>43759</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>43763</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>43768</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>43773</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>43773</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>43774</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>43775</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>43780</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>43780</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>43784</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>43787</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         <v>43787</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>43790</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>43790</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13764,7 +13764,7 @@
         <v>43794</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13821,7 +13821,7 @@
         <v>43801</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13878,7 +13878,7 @@
         <v>43801</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13935,7 +13935,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>43803</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>43811</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14121,7 +14121,7 @@
         <v>43839</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14178,7 +14178,7 @@
         <v>43840</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14235,7 +14235,7 @@
         <v>43843</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>43844</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>43852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>43852</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14468,7 +14468,7 @@
         <v>43861</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14525,7 +14525,7 @@
         <v>43862</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14582,7 +14582,7 @@
         <v>43880</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14639,7 +14639,7 @@
         <v>43885</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>43901</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14753,7 +14753,7 @@
         <v>43901</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>43906</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>43908</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>43908</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>43922</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>43924</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>43927</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>43928</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>43928</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>43928</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>43928</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15410,7 +15410,7 @@
         <v>43928</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>43934</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>43936</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>43936</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>43938</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>43938</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>43941</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>43945</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>43955</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>43958</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>43963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>43963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>43963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16191,7 +16191,7 @@
         <v>43963</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16253,7 +16253,7 @@
         <v>43969</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>43970</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         <v>43971</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
         <v>43976</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16486,7 +16486,7 @@
         <v>43983</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>43983</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>43983</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>43984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>43987</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>43987</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>43987</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>43992</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>43997</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44004</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>44005</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>44005</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>44005</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>44008</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>44014</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>44018</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>44018</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>44032</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17582,7 +17582,7 @@
         <v>44039</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17639,7 +17639,7 @@
         <v>44039</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>44046</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17753,7 +17753,7 @@
         <v>44057</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>44057</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17867,7 +17867,7 @@
         <v>44058</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17924,7 +17924,7 @@
         <v>44060</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         <v>44060</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18043,7 +18043,7 @@
         <v>44060</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44060</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44062</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44064</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>44070</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44071</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44075</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44075</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44077</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44077</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18618,7 +18618,7 @@
         <v>44084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18675,7 +18675,7 @@
         <v>44084</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44084</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18789,7 +18789,7 @@
         <v>44084</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44088</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>44088</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>44092</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19022,7 +19022,7 @@
         <v>44095</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>44097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         <v>44097</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         <v>44102</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19250,7 +19250,7 @@
         <v>44102</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19307,7 +19307,7 @@
         <v>44104</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19364,7 +19364,7 @@
         <v>44105</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19421,7 +19421,7 @@
         <v>44113</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         <v>44118</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19535,7 +19535,7 @@
         <v>44120</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19592,7 +19592,7 @@
         <v>44120</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19649,7 +19649,7 @@
         <v>44125</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19711,7 +19711,7 @@
         <v>44127</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         <v>44132</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>44136</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>44139</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>44139</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20011,7 +20011,7 @@
         <v>44139</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20068,7 +20068,7 @@
         <v>44145</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20125,7 +20125,7 @@
         <v>44151</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20182,7 +20182,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20239,7 +20239,7 @@
         <v>44151</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20296,7 +20296,7 @@
         <v>44151</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20353,7 +20353,7 @@
         <v>44153</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20410,7 +20410,7 @@
         <v>44162</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>44167</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>44172</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20581,7 +20581,7 @@
         <v>44172</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>44174</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>44186</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20752,7 +20752,7 @@
         <v>44186</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>44187</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44194</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>44200</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44204</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44208</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>44209</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>44211</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>44228</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>44229</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>44230</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>44232</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44237</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>44237</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44244</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>44244</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44244</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44250</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>44256</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>44273</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>44279</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>44285</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44300</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44300</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44315</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44334</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44343</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>44344</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44358</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44368</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44385</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44386</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44389</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44391</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44391</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44397</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44397</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44398</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44407</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44412</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44413</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44413</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44419</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23213,7 +23213,7 @@
         <v>44420</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23270,7 +23270,7 @@
         <v>44422</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23332,7 +23332,7 @@
         <v>44422</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23394,7 +23394,7 @@
         <v>44422</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44424</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44424</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44426</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44430</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>44430</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>44430</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>44430</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23860,7 +23860,7 @@
         <v>44431</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23917,7 +23917,7 @@
         <v>44434</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23974,7 +23974,7 @@
         <v>44435</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44438</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44438</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>44438</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         <v>44438</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24259,7 +24259,7 @@
         <v>44442</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>44445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44446</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44446</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44447</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44448</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44449</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44449</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44449</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44452</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44456</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44458</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44459</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         <v>44463</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25062,7 +25062,7 @@
         <v>44467</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25119,7 +25119,7 @@
         <v>44467</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25181,7 +25181,7 @@
         <v>44474</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25243,7 +25243,7 @@
         <v>44474</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25300,7 +25300,7 @@
         <v>44480</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25362,7 +25362,7 @@
         <v>44480</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25419,7 +25419,7 @@
         <v>44486</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25476,7 +25476,7 @@
         <v>44487</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25533,7 +25533,7 @@
         <v>44487</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25590,7 +25590,7 @@
         <v>44487</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25647,7 +25647,7 @@
         <v>44487</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25704,7 +25704,7 @@
         <v>44487</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25761,7 +25761,7 @@
         <v>44487</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25818,7 +25818,7 @@
         <v>44488</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>44491</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>44494</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25989,7 +25989,7 @@
         <v>44495</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26046,7 +26046,7 @@
         <v>44497</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26103,7 +26103,7 @@
         <v>44497</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26160,7 +26160,7 @@
         <v>44497</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26217,7 +26217,7 @@
         <v>44501</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26274,7 +26274,7 @@
         <v>44503</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26331,7 +26331,7 @@
         <v>44508</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26388,7 +26388,7 @@
         <v>44508</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26445,7 +26445,7 @@
         <v>44509</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26502,7 +26502,7 @@
         <v>44509</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26564,7 +26564,7 @@
         <v>44509</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>44511</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>44512</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>44514</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26797,7 +26797,7 @@
         <v>44517</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>44518</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26911,7 +26911,7 @@
         <v>44518</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26968,7 +26968,7 @@
         <v>44522</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>44523</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>44529</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27144,7 +27144,7 @@
         <v>44539</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>44558</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44572</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>44573</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>44573</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27434,7 +27434,7 @@
         <v>44578</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27491,7 +27491,7 @@
         <v>44592</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27548,7 +27548,7 @@
         <v>44593</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27610,7 +27610,7 @@
         <v>44595</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         <v>44595</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27724,7 +27724,7 @@
         <v>44606</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27786,7 +27786,7 @@
         <v>44607</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27843,7 +27843,7 @@
         <v>44607</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27900,7 +27900,7 @@
         <v>44607</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27957,7 +27957,7 @@
         <v>44608</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28014,7 +28014,7 @@
         <v>44608</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28071,7 +28071,7 @@
         <v>44608</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28128,7 +28128,7 @@
         <v>44609</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28185,7 +28185,7 @@
         <v>44610</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28242,7 +28242,7 @@
         <v>44615</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28299,7 +28299,7 @@
         <v>44615</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28356,7 +28356,7 @@
         <v>44629</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>44629</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28470,7 +28470,7 @@
         <v>44631</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28527,7 +28527,7 @@
         <v>44637</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28584,7 +28584,7 @@
         <v>44637</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28641,7 +28641,7 @@
         <v>44637</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28698,7 +28698,7 @@
         <v>44637</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28755,7 +28755,7 @@
         <v>44638</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28812,7 +28812,7 @@
         <v>44641</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28874,7 +28874,7 @@
         <v>44641</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>44641</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>44641</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
         <v>44641</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29122,7 +29122,7 @@
         <v>44642</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>44645</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>44648</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>44650</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>44650</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29407,7 +29407,7 @@
         <v>44662</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29464,7 +29464,7 @@
         <v>44662</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29521,7 +29521,7 @@
         <v>44697</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29578,7 +29578,7 @@
         <v>44698</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29635,7 +29635,7 @@
         <v>44714</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29692,7 +29692,7 @@
         <v>44714</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29749,7 +29749,7 @@
         <v>44721</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29806,7 +29806,7 @@
         <v>44723</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29863,7 +29863,7 @@
         <v>44729</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29920,7 +29920,7 @@
         <v>44733</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29982,7 +29982,7 @@
         <v>44733</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30039,7 +30039,7 @@
         <v>44733</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30096,7 +30096,7 @@
         <v>44734</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30153,7 +30153,7 @@
         <v>44734</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30210,7 +30210,7 @@
         <v>44734</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>44739</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30324,7 +30324,7 @@
         <v>44753</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>44753</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30448,7 +30448,7 @@
         <v>44753</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30510,7 +30510,7 @@
         <v>44755</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30572,7 +30572,7 @@
         <v>44764</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30629,7 +30629,7 @@
         <v>44767</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30686,7 +30686,7 @@
         <v>44781</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30743,7 +30743,7 @@
         <v>44781</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>44781</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30857,7 +30857,7 @@
         <v>44783</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30914,7 +30914,7 @@
         <v>44790</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30971,7 +30971,7 @@
         <v>44791</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31028,7 +31028,7 @@
         <v>44791</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31085,7 +31085,7 @@
         <v>44796</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31142,7 +31142,7 @@
         <v>44798</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31199,7 +31199,7 @@
         <v>44798</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31256,7 +31256,7 @@
         <v>44798</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31313,7 +31313,7 @@
         <v>44798</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31370,7 +31370,7 @@
         <v>44799</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31427,7 +31427,7 @@
         <v>44799</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31484,7 +31484,7 @@
         <v>44808</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31541,7 +31541,7 @@
         <v>44809</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31598,7 +31598,7 @@
         <v>44812</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31655,7 +31655,7 @@
         <v>44818</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31717,7 +31717,7 @@
         <v>44828</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31774,7 +31774,7 @@
         <v>44831</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31831,7 +31831,7 @@
         <v>44831</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31888,7 +31888,7 @@
         <v>44834</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31950,7 +31950,7 @@
         <v>44844</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32007,7 +32007,7 @@
         <v>44844</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32064,7 +32064,7 @@
         <v>44850</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>44853</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32178,7 +32178,7 @@
         <v>44855</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32235,7 +32235,7 @@
         <v>44864</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32292,7 +32292,7 @@
         <v>44866</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32349,7 +32349,7 @@
         <v>44874</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32406,7 +32406,7 @@
         <v>44874</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32468,7 +32468,7 @@
         <v>44928</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32525,7 +32525,7 @@
         <v>44929</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32587,7 +32587,7 @@
         <v>44929</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32649,7 +32649,7 @@
         <v>44929</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32711,7 +32711,7 @@
         <v>44930</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32768,7 +32768,7 @@
         <v>44942</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32825,7 +32825,7 @@
         <v>44950</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32882,7 +32882,7 @@
         <v>44950</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32939,7 +32939,7 @@
         <v>44957</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32996,7 +32996,7 @@
         <v>44959</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33053,7 +33053,7 @@
         <v>44959</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33110,7 +33110,7 @@
         <v>44964</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33167,7 +33167,7 @@
         <v>44966</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33224,7 +33224,7 @@
         <v>44971</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33281,7 +33281,7 @@
         <v>44993</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33338,7 +33338,7 @@
         <v>44993</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33395,7 +33395,7 @@
         <v>44995</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33457,7 +33457,7 @@
         <v>44995</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33519,7 +33519,7 @@
         <v>45000</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33576,7 +33576,7 @@
         <v>45002</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33638,7 +33638,7 @@
         <v>45006</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33695,7 +33695,7 @@
         <v>45013</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33752,7 +33752,7 @@
         <v>45022</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33809,7 +33809,7 @@
         <v>45028</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33871,7 +33871,7 @@
         <v>45030</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33928,7 +33928,7 @@
         <v>45030</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33990,7 +33990,7 @@
         <v>45030</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34052,7 +34052,7 @@
         <v>45030</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34114,7 +34114,7 @@
         <v>45035</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34171,7 +34171,7 @@
         <v>45038</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34233,7 +34233,7 @@
         <v>45038</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34295,7 +34295,7 @@
         <v>45052</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34352,7 +34352,7 @@
         <v>45056</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34409,7 +34409,7 @@
         <v>45058</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         <v>45058</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34523,7 +34523,7 @@
         <v>45072</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34580,7 +34580,7 @@
         <v>45073</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>45078</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>45089</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34756,7 +34756,7 @@
         <v>45092</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34813,7 +34813,7 @@
         <v>45104</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34870,7 +34870,7 @@
         <v>45104</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34927,7 +34927,7 @@
         <v>45104</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34984,7 +34984,7 @@
         <v>45104</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35041,7 +35041,7 @@
         <v>45107</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35098,7 +35098,7 @@
         <v>45111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35160,7 +35160,7 @@
         <v>45111</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35222,7 +35222,7 @@
         <v>45115</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35284,7 +35284,7 @@
         <v>45115</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         <v>45115</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35408,7 +35408,7 @@
         <v>45115</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35470,7 +35470,7 @@
         <v>45115</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35532,7 +35532,7 @@
         <v>45115</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35594,7 +35594,7 @@
         <v>45119</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35651,7 +35651,7 @@
         <v>45140</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35708,7 +35708,7 @@
         <v>45141</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35765,7 +35765,7 @@
         <v>45141</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35822,7 +35822,7 @@
         <v>45162</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35879,7 +35879,7 @@
         <v>45162</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35936,7 +35936,7 @@
         <v>45162</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35993,7 +35993,7 @@
         <v>45182</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36050,7 +36050,7 @@
         <v>45188</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>

--- a/Översikt ASKERSUND.xlsx
+++ b/Översikt ASKERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>43769</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44574</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45132</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44950</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>43902</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>44579</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44859</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43697</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44153</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>44300</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>44375</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44474</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44812</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>44942</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43530</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43556</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>43773</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2443,7 +2443,7 @@
         <v>43773</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43902</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43908</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>44088</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>44088</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>44194</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>44463</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>44463</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>44587</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>44649</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>44722</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>44993</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>45038</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>45107</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>43385</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43441</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43467</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43521</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>43539</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43608</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43691</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43691</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         <v>43928</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>43928</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>44020</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>44035</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44067</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>44200</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>44416</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>44452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>44461</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44476</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>44518</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>44587</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>44757</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>44859</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44993</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>45030</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>45104</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>45106</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>45111</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>45115</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>43318</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>43343</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         <v>43346</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         <v>43348</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>43355</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43355</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>43362</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>43385</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43385</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43398</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43398</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43404</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43409</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43411</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43416</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43420</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43423</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43423</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43432</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43432</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>43434</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43441</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>43441</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>43455</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43455</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43470</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43471</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43471</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43471</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43473</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43474</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>43475</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>43476</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43480</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43482</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43483</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43486</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>43509</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43516</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>43523</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>43523</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>43528</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>43529</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43529</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43530</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43532</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43535</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43536</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43536</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43539</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43542</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43543</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43545</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43552</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43552</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43556</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43558</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43558</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43570</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43588</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>43592</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43594</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43598</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43608</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43655</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43655</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43655</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43672</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43676</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43682</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>43684</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>43684</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43690</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43691</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>43691</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>43691</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>43693</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11022,7 +11022,7 @@
         <v>43697</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>43698</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>43700</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>43706</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>43706</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43706</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>43706</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>43706</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         <v>43706</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43706</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>43706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>43706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11751,7 +11751,7 @@
         <v>43706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11813,7 +11813,7 @@
         <v>43706</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         <v>43711</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11989,7 +11989,7 @@
         <v>43724</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>43730</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>43731</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>43733</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>43735</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>43739</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>43741</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>43746</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>43748</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>43749</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>43749</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>43755</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>43755</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>43755</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43756</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>43756</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>43759</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>43763</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>43768</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>43773</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>43773</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>43774</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>43775</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>43780</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>43780</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>43784</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>43787</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         <v>43787</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>43790</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>43790</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13764,7 +13764,7 @@
         <v>43794</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13821,7 +13821,7 @@
         <v>43801</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13878,7 +13878,7 @@
         <v>43801</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13935,7 +13935,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>43803</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>43811</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14121,7 +14121,7 @@
         <v>43839</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14178,7 +14178,7 @@
         <v>43840</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14235,7 +14235,7 @@
         <v>43843</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>43844</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>43852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>43852</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14468,7 +14468,7 @@
         <v>43861</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14525,7 +14525,7 @@
         <v>43862</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14582,7 +14582,7 @@
         <v>43880</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14639,7 +14639,7 @@
         <v>43885</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>43901</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14753,7 +14753,7 @@
         <v>43901</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>43906</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>43908</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>43908</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>43922</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>43924</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>43927</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>43928</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>43928</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>43928</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>43928</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15410,7 +15410,7 @@
         <v>43928</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>43934</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>43936</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>43936</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>43938</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>43938</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>43941</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>43945</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>43955</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>43958</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>43963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>43963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>43963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16191,7 +16191,7 @@
         <v>43963</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16253,7 +16253,7 @@
         <v>43969</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>43970</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         <v>43971</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
         <v>43976</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16486,7 +16486,7 @@
         <v>43983</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>43983</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>43983</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>43984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>43987</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>43987</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>43987</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>43992</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>43997</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44004</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>44005</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>44005</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>44005</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>44008</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>44014</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>44018</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>44018</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>44032</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17582,7 +17582,7 @@
         <v>44039</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17639,7 +17639,7 @@
         <v>44039</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>44046</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17753,7 +17753,7 @@
         <v>44057</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>44057</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17867,7 +17867,7 @@
         <v>44058</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17924,7 +17924,7 @@
         <v>44060</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         <v>44060</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18043,7 +18043,7 @@
         <v>44060</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44060</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44062</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44064</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>44070</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44071</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44075</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44075</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44077</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44077</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18618,7 +18618,7 @@
         <v>44084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18675,7 +18675,7 @@
         <v>44084</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44084</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18789,7 +18789,7 @@
         <v>44084</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44088</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>44088</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>44092</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19022,7 +19022,7 @@
         <v>44095</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>44097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         <v>44097</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         <v>44102</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19250,7 +19250,7 @@
         <v>44102</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19307,7 +19307,7 @@
         <v>44104</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19364,7 +19364,7 @@
         <v>44105</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19421,7 +19421,7 @@
         <v>44113</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         <v>44118</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19535,7 +19535,7 @@
         <v>44120</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19592,7 +19592,7 @@
         <v>44120</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19649,7 +19649,7 @@
         <v>44125</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19711,7 +19711,7 @@
         <v>44127</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         <v>44132</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>44136</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>44139</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>44139</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20011,7 +20011,7 @@
         <v>44139</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20068,7 +20068,7 @@
         <v>44145</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20125,7 +20125,7 @@
         <v>44151</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20182,7 +20182,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20239,7 +20239,7 @@
         <v>44151</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20296,7 +20296,7 @@
         <v>44151</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20353,7 +20353,7 @@
         <v>44153</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20410,7 +20410,7 @@
         <v>44162</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>44167</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>44172</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20581,7 +20581,7 @@
         <v>44172</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>44174</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>44186</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20752,7 +20752,7 @@
         <v>44186</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>44187</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44194</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>44200</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44204</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44208</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>44209</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>44211</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>44228</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>44229</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>44230</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>44232</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44237</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>44237</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44244</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>44244</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44244</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44250</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>44256</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>44273</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>44279</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>44285</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44300</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44300</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44315</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44334</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44343</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>44344</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44358</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44368</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44385</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44386</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44389</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44391</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44391</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44397</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44397</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44398</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44407</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44412</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44413</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44413</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44419</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23213,7 +23213,7 @@
         <v>44420</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23270,7 +23270,7 @@
         <v>44422</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23332,7 +23332,7 @@
         <v>44422</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23394,7 +23394,7 @@
         <v>44422</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44424</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44424</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44426</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44430</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>44430</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>44430</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>44430</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23860,7 +23860,7 @@
         <v>44431</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23917,7 +23917,7 @@
         <v>44434</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23974,7 +23974,7 @@
         <v>44435</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44438</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44438</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>44438</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         <v>44438</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24259,7 +24259,7 @@
         <v>44442</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>44445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44446</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44446</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44447</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44448</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44449</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44449</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44449</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44452</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44456</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44458</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44459</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         <v>44463</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25062,7 +25062,7 @@
         <v>44467</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25119,7 +25119,7 @@
         <v>44467</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25181,7 +25181,7 @@
         <v>44474</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25243,7 +25243,7 @@
         <v>44474</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25300,7 +25300,7 @@
         <v>44480</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25362,7 +25362,7 @@
         <v>44480</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25419,7 +25419,7 @@
         <v>44486</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25476,7 +25476,7 @@
         <v>44487</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25533,7 +25533,7 @@
         <v>44487</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25590,7 +25590,7 @@
         <v>44487</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25647,7 +25647,7 @@
         <v>44487</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25704,7 +25704,7 @@
         <v>44487</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25761,7 +25761,7 @@
         <v>44487</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25818,7 +25818,7 @@
         <v>44488</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>44491</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>44494</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25989,7 +25989,7 @@
         <v>44495</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26046,7 +26046,7 @@
         <v>44497</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26103,7 +26103,7 @@
         <v>44497</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26160,7 +26160,7 @@
         <v>44497</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26217,7 +26217,7 @@
         <v>44501</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26274,7 +26274,7 @@
         <v>44503</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26331,7 +26331,7 @@
         <v>44508</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26388,7 +26388,7 @@
         <v>44508</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26445,7 +26445,7 @@
         <v>44509</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26502,7 +26502,7 @@
         <v>44509</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26564,7 +26564,7 @@
         <v>44509</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>44511</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>44512</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>44514</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26797,7 +26797,7 @@
         <v>44517</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>44518</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26911,7 +26911,7 @@
         <v>44518</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26968,7 +26968,7 @@
         <v>44522</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>44523</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>44529</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27144,7 +27144,7 @@
         <v>44539</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>44558</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44572</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>44573</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>44573</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27434,7 +27434,7 @@
         <v>44578</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27491,7 +27491,7 @@
         <v>44592</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27548,7 +27548,7 @@
         <v>44593</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27610,7 +27610,7 @@
         <v>44595</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         <v>44595</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27724,7 +27724,7 @@
         <v>44606</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27786,7 +27786,7 @@
         <v>44607</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27843,7 +27843,7 @@
         <v>44607</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27900,7 +27900,7 @@
         <v>44607</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27957,7 +27957,7 @@
         <v>44608</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28014,7 +28014,7 @@
         <v>44608</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28071,7 +28071,7 @@
         <v>44608</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28128,7 +28128,7 @@
         <v>44609</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28185,7 +28185,7 @@
         <v>44610</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28242,7 +28242,7 @@
         <v>44615</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28299,7 +28299,7 @@
         <v>44615</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28356,7 +28356,7 @@
         <v>44629</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>44629</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28470,7 +28470,7 @@
         <v>44631</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28527,7 +28527,7 @@
         <v>44637</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28584,7 +28584,7 @@
         <v>44637</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28641,7 +28641,7 @@
         <v>44637</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28698,7 +28698,7 @@
         <v>44637</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28755,7 +28755,7 @@
         <v>44638</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28812,7 +28812,7 @@
         <v>44641</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28874,7 +28874,7 @@
         <v>44641</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>44641</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>44641</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
         <v>44641</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29122,7 +29122,7 @@
         <v>44642</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>44645</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>44648</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>44650</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>44650</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29407,7 +29407,7 @@
         <v>44662</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29464,7 +29464,7 @@
         <v>44662</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29521,7 +29521,7 @@
         <v>44697</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29578,7 +29578,7 @@
         <v>44698</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29635,7 +29635,7 @@
         <v>44714</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29692,7 +29692,7 @@
         <v>44714</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29749,7 +29749,7 @@
         <v>44721</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29806,7 +29806,7 @@
         <v>44723</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29863,7 +29863,7 @@
         <v>44729</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29920,7 +29920,7 @@
         <v>44733</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29982,7 +29982,7 @@
         <v>44733</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30039,7 +30039,7 @@
         <v>44733</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30096,7 +30096,7 @@
         <v>44734</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30153,7 +30153,7 @@
         <v>44734</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30210,7 +30210,7 @@
         <v>44734</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>44739</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30324,7 +30324,7 @@
         <v>44753</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>44753</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30448,7 +30448,7 @@
         <v>44753</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30510,7 +30510,7 @@
         <v>44755</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30572,7 +30572,7 @@
         <v>44764</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30629,7 +30629,7 @@
         <v>44767</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30686,7 +30686,7 @@
         <v>44781</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30743,7 +30743,7 @@
         <v>44781</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>44781</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30857,7 +30857,7 @@
         <v>44783</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30914,7 +30914,7 @@
         <v>44790</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30971,7 +30971,7 @@
         <v>44791</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31028,7 +31028,7 @@
         <v>44791</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31085,7 +31085,7 @@
         <v>44796</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31142,7 +31142,7 @@
         <v>44798</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31199,7 +31199,7 @@
         <v>44798</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31256,7 +31256,7 @@
         <v>44798</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31313,7 +31313,7 @@
         <v>44798</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31370,7 +31370,7 @@
         <v>44799</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31427,7 +31427,7 @@
         <v>44799</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31484,7 +31484,7 @@
         <v>44808</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31541,7 +31541,7 @@
         <v>44809</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31598,7 +31598,7 @@
         <v>44812</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31655,7 +31655,7 @@
         <v>44818</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31717,7 +31717,7 @@
         <v>44828</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31774,7 +31774,7 @@
         <v>44831</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31831,7 +31831,7 @@
         <v>44831</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31888,7 +31888,7 @@
         <v>44834</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31950,7 +31950,7 @@
         <v>44844</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32007,7 +32007,7 @@
         <v>44844</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32064,7 +32064,7 @@
         <v>44850</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>44853</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32178,7 +32178,7 @@
         <v>44855</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32235,7 +32235,7 @@
         <v>44864</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32292,7 +32292,7 @@
         <v>44866</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32349,7 +32349,7 @@
         <v>44874</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32406,7 +32406,7 @@
         <v>44874</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32468,7 +32468,7 @@
         <v>44928</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32525,7 +32525,7 @@
         <v>44929</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32587,7 +32587,7 @@
         <v>44929</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32649,7 +32649,7 @@
         <v>44929</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32711,7 +32711,7 @@
         <v>44930</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32768,7 +32768,7 @@
         <v>44942</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32825,7 +32825,7 @@
         <v>44950</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32882,7 +32882,7 @@
         <v>44950</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32939,7 +32939,7 @@
         <v>44957</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32996,7 +32996,7 @@
         <v>44959</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33053,7 +33053,7 @@
         <v>44959</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33110,7 +33110,7 @@
         <v>44964</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33167,7 +33167,7 @@
         <v>44966</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33224,7 +33224,7 @@
         <v>44971</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33281,7 +33281,7 @@
         <v>44993</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33338,7 +33338,7 @@
         <v>44993</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33395,7 +33395,7 @@
         <v>44995</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33457,7 +33457,7 @@
         <v>44995</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33519,7 +33519,7 @@
         <v>45000</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33576,7 +33576,7 @@
         <v>45002</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33638,7 +33638,7 @@
         <v>45006</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33695,7 +33695,7 @@
         <v>45013</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33752,7 +33752,7 @@
         <v>45022</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33809,7 +33809,7 @@
         <v>45028</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33871,7 +33871,7 @@
         <v>45030</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33928,7 +33928,7 @@
         <v>45030</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33990,7 +33990,7 @@
         <v>45030</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34052,7 +34052,7 @@
         <v>45030</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34114,7 +34114,7 @@
         <v>45035</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34171,7 +34171,7 @@
         <v>45038</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34233,7 +34233,7 @@
         <v>45038</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34295,7 +34295,7 @@
         <v>45052</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34352,7 +34352,7 @@
         <v>45056</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34409,7 +34409,7 @@
         <v>45058</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         <v>45058</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34523,7 +34523,7 @@
         <v>45072</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34580,7 +34580,7 @@
         <v>45073</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>45078</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>45089</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34756,7 +34756,7 @@
         <v>45092</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34813,7 +34813,7 @@
         <v>45104</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34870,7 +34870,7 @@
         <v>45104</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34927,7 +34927,7 @@
         <v>45104</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34984,7 +34984,7 @@
         <v>45104</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35041,7 +35041,7 @@
         <v>45107</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35098,7 +35098,7 @@
         <v>45111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35160,7 +35160,7 @@
         <v>45111</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35222,7 +35222,7 @@
         <v>45115</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35284,7 +35284,7 @@
         <v>45115</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         <v>45115</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35408,7 +35408,7 @@
         <v>45115</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35470,7 +35470,7 @@
         <v>45115</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35532,7 +35532,7 @@
         <v>45115</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35594,7 +35594,7 @@
         <v>45119</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35651,7 +35651,7 @@
         <v>45140</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35708,7 +35708,7 @@
         <v>45141</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35765,7 +35765,7 @@
         <v>45141</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35822,7 +35822,7 @@
         <v>45162</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35879,7 +35879,7 @@
         <v>45162</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35936,7 +35936,7 @@
         <v>45162</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35993,7 +35993,7 @@
         <v>45182</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36050,7 +36050,7 @@
         <v>45188</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>

--- a/Översikt ASKERSUND.xlsx
+++ b/Översikt ASKERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>43769</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44574</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45132</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44950</v>
  